--- a/Web Scraping/Pie Charts Colombia/Histórico_Pie_Charts.xlsx
+++ b/Web Scraping/Pie Charts Colombia/Histórico_Pie_Charts.xlsx
@@ -1,20 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Barómetro\BX\Web Scraping\Pie Charts Colombia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0B498-2934-4BD7-AD1E-6ABAA97B9526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pie Charts" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasas" sheetId="2" r:id="rId2"/>
+    <sheet name="Colombia" sheetId="3" r:id="rId3"/>
+    <sheet name="Ecuador" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="186">
   <si>
     <t xml:space="preserve">Educación </t>
   </si>
@@ -224,13 +246,361 @@
   </si>
   <si>
     <t>2022-01-12 - 2022-01-26</t>
+  </si>
+  <si>
+    <t>Uncategorised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa xenofobia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa Integracion </t>
+  </si>
+  <si>
+    <t>2020-01-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-01-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-02-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-02-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-03-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-03-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-04-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-04-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-05-04 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-05-18 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-06-01 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-06-15 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-06-29 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-07-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-07-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-08-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-08-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-09-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-09-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-10-05 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-10-19 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-11-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-11-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-11-30 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-12-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-12-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-01-11 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-01-25 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-02-08 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-02-22 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-03-08 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-03-22 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-04-05 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-04-19 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-05-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-05-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-05-31 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-06-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-06-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-07-12 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-07-26 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-08-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-08-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-09-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-09-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-10-04 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-10-18 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-11-01 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-11-15 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-11-29 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-12-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-12-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-01-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-01-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>Xenofobia</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa Integración </t>
+  </si>
+  <si>
+    <t>Tasa Xenofobia</t>
+  </si>
+  <si>
+    <t>2020-01-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-01-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-02-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-02-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-03-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-03-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-03-30 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-04-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-04-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-05-11 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-05-25 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-06-08 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-06-22 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-07-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-07-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-08-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-08-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-08-31 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-09-14 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-09-28 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-10-12 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-10-26 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-11-09 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-11-23 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-12-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2020-12-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-01-04 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-01-18 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-02-01 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-02-15 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-03-01 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-03-15 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-03-29 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-04-12 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-04-26 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-05-10 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-05-24 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-06-07 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-06-21 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-07-05 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-07-19 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-08-02 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-08-16 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-08-30 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-09-13 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-09-27 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-10-11 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-10-25 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-11-08 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-11-22 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-12-06 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2021-12-20 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-01-03 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-01-17 05:00:00.0</t>
+  </si>
+  <si>
+    <t>2022-01-31 05:00:00.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,11 +663,3504 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tasa Integración y Xenofobia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Colombia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Colombia!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa xenofobia </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Colombia!$W$2:$W$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0.11124312431243125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1983502582053858E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1292620865139949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15337059934105801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10429611219598793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16129032258064516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1568627450980397E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4555916937703276E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4427498442061067E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11273840357899693</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11342592592592593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13065205900725577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1108621425522834</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.502830372828421E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3286532629450752E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11377651702022694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10179837227618797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14243106359032076</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5869327772813026E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12684771399106223</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13215388268819758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12632637563368429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.112055315106091</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10269372972157248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13895104513453038</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10155301058476487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11822420151694385</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.6976300735494417E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10605487398439893</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2679408582762357E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8204148584954636E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.932452767095804E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10716007069030151</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3262374702903786E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1140578956491593</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11450092377658819</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16464651461930441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.10120292887029289</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10085326619107568</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9061197460169059E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.3193824404761904E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1345534655143196</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.12070315047942078</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1286869792616919</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1286869792616919</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2410334058862495E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.16065102920057445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.223443927569106E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.110063510770641</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.11302888649166966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.0520640592101067E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.4701009578048145E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.12440715067493616</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.13938357790758418</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.111397918851335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49EA-468A-A3DF-04C916EB13E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Colombia!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa Integracion </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Colombia!$X$2:$X$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0.11559955995599559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12088864242886355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6793893129770993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1918705808314516E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7431208947274991E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0881452050478711E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14587046939988116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8350429488783249E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6224212010889178E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.569343065693431E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7930911680911685E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6594108884724427E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4186939820742643E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.239703298848331E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5939570931146805E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8194375925012327E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2746127592543971E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7608328643781651E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6668652566775888E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0351781826515418E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4236523391118502E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24308847977341297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10492980048559063</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10495736814306195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9148065273153966E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.845219503730696E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2953865423422168E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8730591119585944E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17916013619413068</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11756220699603318</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25281867070866471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11423674970740678</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.8041557328763453E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.4478660741965486E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.9505402438319758E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0590269553271119E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.807500123682779E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.10251046025104603</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9590152468876759E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1058003194265905E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1008184523809521E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.10105631813816868</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.16851477398734591</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.7575259989053092E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.7575259989053092E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.983912179426517E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.9463858305409293E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4613817231171432E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.2742748641393309E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9682368452594987E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6083710840298603E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.4354128915350764E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.12142770278487171</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.4403286318089E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3805759457933375E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-49EA-468A-A3DF-04C916EB13E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="138958416"/>
+        <c:axId val="606832768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="138958416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606832768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606832768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138958416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tasa Integración y</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Xenofobia Ecuador Quincenal</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Ecador!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa Integración </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Ecador!$R$5:$R$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>6.9017741237559493E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12385608624796289</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7523123719659821E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1100811123986095</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.250379618694112E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.9847715736040612E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.10759019376940371</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3478260869565219E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10766530134581627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6729500471253533E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18963977374218519</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3556231003039513E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6989117291414754E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21882302953048652</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.2409775504404661E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.5166384658770439E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.3933888468332071E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.5886610373944516E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.14331871682437111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.5922421948912008E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.883143983306283E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1173617846750724E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.11013215859030837</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.0105820105820102E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.3074240159441948E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.4282083862770011E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.8748209682039527E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.9376718606782762E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.9462186622282322E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23563068920676203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9139616738365272E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.7978056426332293E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.1034938879766466</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.1773164936851317E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7307827307827301E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0498710232158205E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.0073491710818669E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.1405013192612138E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1494797840115895E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.2526227444397814E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9100257069408737E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.5146579804560262E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.11949250288350634</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.1465919701213821E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.3503669475400925E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.10366009726132583</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.1527777777777775E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.6742929201945601E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.2703813656085866E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6.1587857559836541E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.2927024859663191E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.4309646041610378E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.3636363636363638E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.0397877984084884E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.8299827685238371E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D704-4ADB-AE00-B1023ED37168}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Ecador!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa Xenofobia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Ecador!$S$5:$S$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>7.5075724794461271E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4059170114077968E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16189707616860141</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11330905479225294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3133119622068494E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5956006768189513E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.5624665453377584E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5931677018633542E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1825629022820359E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5400565504241276E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7552843108067884E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10901722391084093</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16130592503022975</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.11812194603781602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.10599602159704462</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.5882684715172029E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10244764067625536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14595898673100122</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.102238633741057</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.1490066225165563</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.10340830048690007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.15058195926285159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10690161527165933</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.14965986394557823</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18016940707523668</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.15883100381194409</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.9659123460326548E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.15490375802016498</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.4572974097576192E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>7.3211963589076723E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.7211576065701998E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.14439655172413793</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.7390987046159461E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.8787045141928223E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.9136539136539139E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.8245915735167676E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.956075884464194E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.13720316622691292</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.17160542605030948</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.18988669744020142</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14395886889460155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14726555803188754</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.19054209919261822</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13281979458450047</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.9483555313944011E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.16995136933708727</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.20347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.12988650693568726</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.13039506736697876</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.19819030939871571</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.16225608126169475</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.14050256687381787</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.10090909090909091</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.14818744473916887</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.13986214819069501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D704-4ADB-AE00-B1023ED37168}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="148965616"/>
+        <c:axId val="1515929311"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148965616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1515929311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1515929311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148965616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A69D87E-FA8A-48E8-B8B1-A9A1301D8320}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>566420</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECB4CB6-6310-4D3B-B7B3-9A9E23E1C4E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Tasa"/>
+      <sheetName val="Ecador"/>
+      <sheetName val="Colombia"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="R4" t="str">
+            <v xml:space="preserve">Tasa Integración </v>
+          </cell>
+          <cell r="S4" t="str">
+            <v>Tasa Xenofobia</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="R5">
+            <v>6.9017741237559493E-2</v>
+          </cell>
+          <cell r="S5">
+            <v>7.5075724794461271E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="R6">
+            <v>0.12385608624796289</v>
+          </cell>
+          <cell r="S6">
+            <v>6.4059170114077968E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="R7">
+            <v>9.7523123719659821E-2</v>
+          </cell>
+          <cell r="S7">
+            <v>0.16189707616860141</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="R8">
+            <v>0.1100811123986095</v>
+          </cell>
+          <cell r="S8">
+            <v>0.11330905479225294</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="R9">
+            <v>8.250379618694112E-2</v>
+          </cell>
+          <cell r="S9">
+            <v>9.3133119622068494E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="R10">
+            <v>8.9847715736040612E-2</v>
+          </cell>
+          <cell r="S10">
+            <v>8.5956006768189513E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="R11">
+            <v>0.10759019376940371</v>
+          </cell>
+          <cell r="S11">
+            <v>6.5624665453377584E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="R12">
+            <v>9.3478260869565219E-2</v>
+          </cell>
+          <cell r="S12">
+            <v>7.5931677018633542E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="R13">
+            <v>0.10766530134581627</v>
+          </cell>
+          <cell r="S13">
+            <v>7.1825629022820359E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="R14">
+            <v>6.6729500471253533E-2</v>
+          </cell>
+          <cell r="S14">
+            <v>7.5400565504241276E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="R15">
+            <v>0.18963977374218519</v>
+          </cell>
+          <cell r="S15">
+            <v>7.7552843108067884E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="R16">
+            <v>7.3556231003039513E-2</v>
+          </cell>
+          <cell r="S16">
+            <v>0.10901722391084093</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="R17">
+            <v>6.6989117291414754E-2</v>
+          </cell>
+          <cell r="S17">
+            <v>0.16130592503022975</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="R18">
+            <v>0.21882302953048652</v>
+          </cell>
+          <cell r="S18">
+            <v>0.11812194603781602</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="R19">
+            <v>8.2409775504404661E-2</v>
+          </cell>
+          <cell r="S19">
+            <v>0.10599602159704462</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="R20">
+            <v>8.5166384658770439E-2</v>
+          </cell>
+          <cell r="S20">
+            <v>9.5882684715172029E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="R21">
+            <v>7.3933888468332071E-2</v>
+          </cell>
+          <cell r="S21">
+            <v>0.10244764067625536</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="R22">
+            <v>8.5886610373944516E-2</v>
+          </cell>
+          <cell r="S22">
+            <v>0.14595898673100122</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="R23">
+            <v>0.14331871682437111</v>
+          </cell>
+          <cell r="S23">
+            <v>0.102238633741057</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="R24">
+            <v>7.5922421948912008E-2</v>
+          </cell>
+          <cell r="S24">
+            <v>0.1490066225165563</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="R25">
+            <v>7.883143983306283E-2</v>
+          </cell>
+          <cell r="S25">
+            <v>0.10340830048690007</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="R26">
+            <v>9.1173617846750724E-2</v>
+          </cell>
+          <cell r="S26">
+            <v>0.15058195926285159</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="R27">
+            <v>0.11013215859030837</v>
+          </cell>
+          <cell r="S27">
+            <v>0.10690161527165933</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="R28">
+            <v>7.0105820105820102E-2</v>
+          </cell>
+          <cell r="S28">
+            <v>0.14965986394557823</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="R29">
+            <v>9.3074240159441948E-2</v>
+          </cell>
+          <cell r="S29">
+            <v>0.18016940707523668</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="R30">
+            <v>9.4282083862770011E-2</v>
+          </cell>
+          <cell r="S30">
+            <v>0.15883100381194409</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="R31">
+            <v>6.8748209682039527E-2</v>
+          </cell>
+          <cell r="S31">
+            <v>8.9659123460326548E-2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="R32">
+            <v>7.9376718606782762E-2</v>
+          </cell>
+          <cell r="S32">
+            <v>0.15490375802016498</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="R33">
+            <v>8.9462186622282322E-2</v>
+          </cell>
+          <cell r="S33">
+            <v>8.4572974097576192E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="R34">
+            <v>0.23563068920676203</v>
+          </cell>
+          <cell r="S34">
+            <v>7.3211963589076723E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="R35">
+            <v>9.9139616738365272E-2</v>
+          </cell>
+          <cell r="S35">
+            <v>8.7211576065701998E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="R36">
+            <v>7.7978056426332293E-2</v>
+          </cell>
+          <cell r="S36">
+            <v>0.14439655172413793</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="R37">
+            <v>0.1034938879766466</v>
+          </cell>
+          <cell r="S37">
+            <v>4.7390987046159461E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="R38">
+            <v>6.1773164936851317E-2</v>
+          </cell>
+          <cell r="S38">
+            <v>9.8787045141928223E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="R39">
+            <v>7.7307827307827301E-2</v>
+          </cell>
+          <cell r="S39">
+            <v>3.9136539136539139E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="R40">
+            <v>9.0498710232158205E-2</v>
+          </cell>
+          <cell r="S40">
+            <v>7.8245915735167676E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="R41">
+            <v>7.0073491710818669E-2</v>
+          </cell>
+          <cell r="S41">
+            <v>6.956075884464194E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="R42">
+            <v>7.1405013192612138E-2</v>
+          </cell>
+          <cell r="S42">
+            <v>0.13720316622691292</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="R43">
+            <v>5.1494797840115895E-2</v>
+          </cell>
+          <cell r="S43">
+            <v>0.17160542605030948</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="R44">
+            <v>6.2526227444397814E-2</v>
+          </cell>
+          <cell r="S44">
+            <v>0.18988669744020142</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="R45">
+            <v>4.9100257069408737E-2</v>
+          </cell>
+          <cell r="S45">
+            <v>0.14395886889460155</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="R46">
+            <v>6.5146579804560262E-2</v>
+          </cell>
+          <cell r="S46">
+            <v>0.14726555803188754</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="R47">
+            <v>0.11949250288350634</v>
+          </cell>
+          <cell r="S47">
+            <v>0.19054209919261822</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="R48">
+            <v>8.1465919701213821E-2</v>
+          </cell>
+          <cell r="S48">
+            <v>0.13281979458450047</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="R49">
+            <v>9.3503669475400925E-2</v>
+          </cell>
+          <cell r="S49">
+            <v>9.9483555313944011E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="R50">
+            <v>0.10366009726132583</v>
+          </cell>
+          <cell r="S50">
+            <v>0.16995136933708727</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="R51">
+            <v>4.1527777777777775E-2</v>
+          </cell>
+          <cell r="S51">
+            <v>0.20347222222222222</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="R52">
+            <v>7.6742929201945601E-2</v>
+          </cell>
+          <cell r="S52">
+            <v>0.12988650693568726</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="R53">
+            <v>4.2703813656085866E-2</v>
+          </cell>
+          <cell r="S53">
+            <v>0.13039506736697876</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="R54">
+            <v>6.1587857559836541E-2</v>
+          </cell>
+          <cell r="S54">
+            <v>0.19819030939871571</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="R55">
+            <v>5.2927024859663191E-2</v>
+          </cell>
+          <cell r="S55">
+            <v>0.16225608126169475</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="R56">
+            <v>5.4309646041610378E-2</v>
+          </cell>
+          <cell r="S56">
+            <v>0.14050256687381787</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="R57">
+            <v>3.3636363636363638E-2</v>
+          </cell>
+          <cell r="S57">
+            <v>0.10090909090909091</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="R58">
+            <v>5.0397877984084884E-2</v>
+          </cell>
+          <cell r="S58">
+            <v>0.14818744473916887</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="R59">
+            <v>5.8299827685238371E-2</v>
+          </cell>
+          <cell r="S59">
+            <v>0.13986214819069501</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="W1" t="str">
+            <v xml:space="preserve">Tasa xenofobia </v>
+          </cell>
+          <cell r="X1" t="str">
+            <v xml:space="preserve">Tasa Integracion </v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="W2">
+            <v>0.11124312431243125</v>
+          </cell>
+          <cell r="X2">
+            <v>0.11559955995599559</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="W3">
+            <v>9.1983502582053858E-2</v>
+          </cell>
+          <cell r="X3">
+            <v>0.12088864242886355</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="W4">
+            <v>0.1292620865139949</v>
+          </cell>
+          <cell r="X4">
+            <v>6.6793893129770993E-2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="W5">
+            <v>0.15337059934105801</v>
+          </cell>
+          <cell r="X5">
+            <v>9.1918705808314516E-2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="W6">
+            <v>0.10429611219598793</v>
+          </cell>
+          <cell r="X6">
+            <v>8.7431208947274991E-2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="W7">
+            <v>0.16129032258064516</v>
+          </cell>
+          <cell r="X7">
+            <v>8.0881452050478711E-2</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="W8">
+            <v>8.1568627450980397E-2</v>
+          </cell>
+          <cell r="X8">
+            <v>0.14587046939988116</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="W9">
+            <v>7.4555916937703276E-2</v>
+          </cell>
+          <cell r="X9">
+            <v>7.8350429488783249E-2</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="W10">
+            <v>9.4427498442061067E-2</v>
+          </cell>
+          <cell r="X10">
+            <v>7.6224212010889178E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="W11">
+            <v>0.11273840357899693</v>
+          </cell>
+          <cell r="X11">
+            <v>6.569343065693431E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="W12">
+            <v>0.11342592592592593</v>
+          </cell>
+          <cell r="X12">
+            <v>6.7930911680911685E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="W13">
+            <v>0.13065205900725577</v>
+          </cell>
+          <cell r="X13">
+            <v>7.6594108884724427E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="W14">
+            <v>0.1108621425522834</v>
+          </cell>
+          <cell r="X14">
+            <v>8.4186939820742643E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="W15">
+            <v>8.502830372828421E-2</v>
+          </cell>
+          <cell r="X15">
+            <v>4.239703298848331E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="W16">
+            <v>8.3286532629450752E-2</v>
+          </cell>
+          <cell r="X16">
+            <v>4.5939570931146805E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="W17">
+            <v>0.11377651702022694</v>
+          </cell>
+          <cell r="X17">
+            <v>7.8194375925012327E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="W18">
+            <v>0.10179837227618797</v>
+          </cell>
+          <cell r="X18">
+            <v>6.2746127592543971E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="W19">
+            <v>0.14243106359032076</v>
+          </cell>
+          <cell r="X19">
+            <v>4.7608328643781651E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="W20">
+            <v>9.5869327772813026E-2</v>
+          </cell>
+          <cell r="X20">
+            <v>4.6668652566775888E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="W21">
+            <v>0.12684771399106223</v>
+          </cell>
+          <cell r="X21">
+            <v>9.0351781826515418E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="W22">
+            <v>0.13215388268819758</v>
+          </cell>
+          <cell r="X22">
+            <v>6.4236523391118502E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="W23">
+            <v>0.12632637563368429</v>
+          </cell>
+          <cell r="X23">
+            <v>0.24308847977341297</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="W24">
+            <v>0.112055315106091</v>
+          </cell>
+          <cell r="X24">
+            <v>0.10492980048559063</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="W25">
+            <v>0.10269372972157248</v>
+          </cell>
+          <cell r="X25">
+            <v>0.10495736814306195</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="W26">
+            <v>0.13895104513453038</v>
+          </cell>
+          <cell r="X26">
+            <v>6.9148065273153966E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="W27">
+            <v>0.10155301058476487</v>
+          </cell>
+          <cell r="X27">
+            <v>8.845219503730696E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="W28">
+            <v>0.11822420151694385</v>
+          </cell>
+          <cell r="X28">
+            <v>5.2953865423422168E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="W29">
+            <v>9.6976300735494417E-2</v>
+          </cell>
+          <cell r="X29">
+            <v>5.8730591119585944E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="W30">
+            <v>0.10605487398439893</v>
+          </cell>
+          <cell r="X30">
+            <v>0.17916013619413068</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="W31">
+            <v>9.2679408582762357E-2</v>
+          </cell>
+          <cell r="X31">
+            <v>0.11756220699603318</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="W32">
+            <v>8.8204148584954636E-2</v>
+          </cell>
+          <cell r="X32">
+            <v>0.25281867070866471</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="W33">
+            <v>8.932452767095804E-2</v>
+          </cell>
+          <cell r="X33">
+            <v>0.11423674970740678</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="W34">
+            <v>0.10716007069030151</v>
+          </cell>
+          <cell r="X34">
+            <v>8.8041557328763453E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="W35">
+            <v>9.3262374702903786E-2</v>
+          </cell>
+          <cell r="X35">
+            <v>8.4478660741965486E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="W36">
+            <v>0.1140578956491593</v>
+          </cell>
+          <cell r="X36">
+            <v>7.9505402438319758E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="W37">
+            <v>0.11450092377658819</v>
+          </cell>
+          <cell r="X37">
+            <v>6.0590269553271119E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="W38">
+            <v>0.16464651461930441</v>
+          </cell>
+          <cell r="X38">
+            <v>6.807500123682779E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="W39">
+            <v>0.10120292887029289</v>
+          </cell>
+          <cell r="X39">
+            <v>0.10251046025104603</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="W40">
+            <v>0.10085326619107568</v>
+          </cell>
+          <cell r="X40">
+            <v>6.9590152468876759E-2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="W41">
+            <v>9.9061197460169059E-2</v>
+          </cell>
+          <cell r="X41">
+            <v>4.1058003194265905E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="W42">
+            <v>8.3193824404761904E-2</v>
+          </cell>
+          <cell r="X42">
+            <v>8.1008184523809521E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="W43">
+            <v>0.1345534655143196</v>
+          </cell>
+          <cell r="X43">
+            <v>0.10105631813816868</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="W44">
+            <v>0.12070315047942078</v>
+          </cell>
+          <cell r="X44">
+            <v>0.16851477398734591</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="W45">
+            <v>0.1286869792616919</v>
+          </cell>
+          <cell r="X45">
+            <v>8.7575259989053092E-2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="W46">
+            <v>0.1286869792616919</v>
+          </cell>
+          <cell r="X46">
+            <v>8.7575259989053092E-2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="W47">
+            <v>9.2410334058862495E-2</v>
+          </cell>
+          <cell r="X47">
+            <v>9.983912179426517E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="W48">
+            <v>0.16065102920057445</v>
+          </cell>
+          <cell r="X48">
+            <v>7.9463858305409293E-2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="W49">
+            <v>8.223443927569106E-2</v>
+          </cell>
+          <cell r="X49">
+            <v>9.4613817231171432E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="W50">
+            <v>0.110063510770641</v>
+          </cell>
+          <cell r="X50">
+            <v>7.2742748641393309E-2</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="W51">
+            <v>0.11302888649166966</v>
+          </cell>
+          <cell r="X51">
+            <v>4.9682368452594987E-2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="W52">
+            <v>8.0520640592101067E-2</v>
+          </cell>
+          <cell r="X52">
+            <v>5.6083710840298603E-2</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="W53">
+            <v>8.4701009578048145E-2</v>
+          </cell>
+          <cell r="X53">
+            <v>6.4354128915350764E-2</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="W54">
+            <v>0.12440715067493616</v>
+          </cell>
+          <cell r="X54">
+            <v>0.12142770278487171</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="W55">
+            <v>0.13938357790758418</v>
+          </cell>
+          <cell r="X55">
+            <v>4.4403286318089E-2</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="W56">
+            <v>0.111397918851335</v>
+          </cell>
+          <cell r="X56">
+            <v>6.3805759457933375E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -339,7 +4202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,9 +4234,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,6 +4286,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -580,14 +4479,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -637,7 +4548,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -666,28 +4577,28 @@
         <v>2417</v>
       </c>
       <c r="J2">
-        <v>0.04860728075013789</v>
+        <v>4.8607280750137892E-2</v>
       </c>
       <c r="K2">
         <v>0.1953254274682846</v>
       </c>
       <c r="L2">
-        <v>0.03578323221180364</v>
+        <v>3.5783232211803642E-2</v>
       </c>
       <c r="M2">
         <v>0.1032129067843354</v>
       </c>
       <c r="N2">
-        <v>0.3066740209597352</v>
+        <v>0.30667402095973523</v>
       </c>
       <c r="O2">
-        <v>0.1437534473248759</v>
+        <v>0.14375344732487591</v>
       </c>
       <c r="P2">
-        <v>0.1666436845008274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>0.16664368450082739</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -716,28 +4627,28 @@
         <v>2890</v>
       </c>
       <c r="J3">
-        <v>0.05905336012502791</v>
+        <v>5.9053360125027911E-2</v>
       </c>
       <c r="K3">
-        <v>0.1998772047331994</v>
+        <v>0.19987720473319939</v>
       </c>
       <c r="L3">
-        <v>0.03415941058271936</v>
+        <v>3.415941058271936E-2</v>
       </c>
       <c r="M3">
-        <v>0.1366934583612414</v>
+        <v>0.13669345836124139</v>
       </c>
       <c r="N3">
-        <v>0.3170908684974325</v>
+        <v>0.31709086849743251</v>
       </c>
       <c r="O3">
-        <v>0.09181736994864925</v>
+        <v>9.1817369948649252E-2</v>
       </c>
       <c r="P3">
-        <v>0.1613083277517303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.16130832775173029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -766,28 +4677,28 @@
         <v>3247</v>
       </c>
       <c r="J4">
-        <v>0.06477732793522267</v>
+        <v>6.4777327935222673E-2</v>
       </c>
       <c r="K4">
-        <v>0.1395101878277029</v>
+        <v>0.13951018782770289</v>
       </c>
       <c r="L4">
-        <v>0.03218955332846619</v>
+        <v>3.2189553328466187E-2</v>
       </c>
       <c r="M4">
-        <v>0.08966615782836664</v>
+        <v>8.9666157828366636E-2</v>
       </c>
       <c r="N4">
-        <v>0.3440631844428221</v>
+        <v>0.34406318444282208</v>
       </c>
       <c r="O4">
-        <v>0.114289506869317</v>
+        <v>0.11428950686931701</v>
       </c>
       <c r="P4">
-        <v>0.2155040817681025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.21550408176810251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -816,28 +4727,28 @@
         <v>4275</v>
       </c>
       <c r="J5">
-        <v>0.05882061446977205</v>
+        <v>5.8820614469772048E-2</v>
       </c>
       <c r="K5">
         <v>0.1229435084241824</v>
       </c>
       <c r="L5">
-        <v>0.02200198216055501</v>
+        <v>2.200198216055501E-2</v>
       </c>
       <c r="M5">
         <v>0.1016352824578791</v>
       </c>
       <c r="N5">
-        <v>0.3097125867195243</v>
+        <v>0.30971258671952429</v>
       </c>
       <c r="O5">
-        <v>0.1730426164519326</v>
+        <v>0.17304261645193261</v>
       </c>
       <c r="P5">
-        <v>0.2118434093161546</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.21184340931615461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -866,28 +4777,28 @@
         <v>2345</v>
       </c>
       <c r="J6">
-        <v>0.07887817703768624</v>
+        <v>7.8878177037686237E-2</v>
       </c>
       <c r="K6">
-        <v>0.126132047911189</v>
+        <v>0.12613204791118901</v>
       </c>
       <c r="L6">
-        <v>0.04849547180835524</v>
+        <v>4.8495471808355242E-2</v>
       </c>
       <c r="M6">
-        <v>0.1741893076248905</v>
+        <v>0.17418930762489049</v>
       </c>
       <c r="N6">
-        <v>0.2926526438796377</v>
+        <v>0.29265264387963769</v>
       </c>
       <c r="O6">
-        <v>0.1083844580777096</v>
+        <v>0.10838445807770961</v>
       </c>
       <c r="P6">
-        <v>0.1712678936605317</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>0.17126789366053169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -916,28 +4827,28 @@
         <v>8215</v>
       </c>
       <c r="J7">
-        <v>0.02463720587029597</v>
+        <v>2.463720587029597E-2</v>
       </c>
       <c r="K7">
-        <v>0.08391407723210625</v>
+        <v>8.3914077232106254E-2</v>
       </c>
       <c r="L7">
-        <v>0.01080183651717635</v>
+        <v>1.0801836517176351E-2</v>
       </c>
       <c r="M7">
         <v>0.331085512831024</v>
       </c>
       <c r="N7">
-        <v>0.2851110928916947</v>
+        <v>0.28511109289169467</v>
       </c>
       <c r="O7">
-        <v>0.09606870541936542</v>
+        <v>9.6068705419365422E-2</v>
       </c>
       <c r="P7">
         <v>0.1683815692383373</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -966,19 +4877,19 @@
         <v>9938</v>
       </c>
       <c r="J8">
-        <v>0.07963789031750197</v>
+        <v>7.9637890317501972E-2</v>
       </c>
       <c r="K8">
         <v>0.1562581999475203</v>
       </c>
       <c r="L8">
-        <v>0.01337038715679492</v>
+        <v>1.337038715679492E-2</v>
       </c>
       <c r="M8">
-        <v>0.2954724362491353</v>
+        <v>0.29547243624913527</v>
       </c>
       <c r="N8">
-        <v>0.2179218053004461</v>
+        <v>0.21792180530044611</v>
       </c>
       <c r="O8">
         <v>0.1188068032728227</v>
@@ -987,7 +4898,7 @@
         <v>0.1185324777557787</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,28 +4927,28 @@
         <v>2418</v>
       </c>
       <c r="J9">
-        <v>0.04558579881656805</v>
+        <v>4.5585798816568053E-2</v>
       </c>
       <c r="K9">
         <v>0.1247337278106509</v>
       </c>
       <c r="L9">
-        <v>0.02125443786982249</v>
+        <v>2.1254437869822489E-2</v>
       </c>
       <c r="M9">
         <v>0.4282130177514793</v>
       </c>
       <c r="N9">
-        <v>0.1952189349112426</v>
+        <v>0.19521893491124259</v>
       </c>
       <c r="O9">
-        <v>0.07053254437869823</v>
+        <v>7.0532544378698228E-2</v>
       </c>
       <c r="P9">
         <v>0.1144615384615385</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1066,28 +4977,28 @@
         <v>3075</v>
       </c>
       <c r="J10">
-        <v>0.03393897840246829</v>
+        <v>3.3938978402468289E-2</v>
       </c>
       <c r="K10">
-        <v>0.1334704605187979</v>
+        <v>0.13347046051879791</v>
       </c>
       <c r="L10">
-        <v>0.01988344189235516</v>
+        <v>1.988344189235516E-2</v>
       </c>
       <c r="M10">
-        <v>0.2839104102388298</v>
+        <v>0.28391041023882979</v>
       </c>
       <c r="N10">
-        <v>0.2758541880927894</v>
+        <v>0.27585418809278939</v>
       </c>
       <c r="O10">
-        <v>0.07724831447834533</v>
+        <v>7.7248314478345334E-2</v>
       </c>
       <c r="P10">
-        <v>0.1756942063764141</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>0.17569420637641411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -1116,28 +5027,28 @@
         <v>2395</v>
       </c>
       <c r="J11">
-        <v>0.03394015965083558</v>
+        <v>3.3940159650835577E-2</v>
       </c>
       <c r="K11">
-        <v>0.0890713834491472</v>
+        <v>8.9071383449147196E-2</v>
       </c>
       <c r="L11">
-        <v>0.0200424969850112</v>
+        <v>2.0042496985011201E-2</v>
       </c>
       <c r="M11">
         <v>0.2471142250043071</v>
       </c>
       <c r="N11">
-        <v>0.4024005053695515</v>
+        <v>0.40240050536955152</v>
       </c>
       <c r="O11">
-        <v>0.06989031183598461</v>
+        <v>6.9890311835984611E-2</v>
       </c>
       <c r="P11">
         <v>0.1375409177051628</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1166,28 +5077,28 @@
         <v>2262</v>
       </c>
       <c r="J12">
-        <v>0.04146911046635058</v>
+        <v>4.146911046635058E-2</v>
       </c>
       <c r="K12">
         <v>0.1285825490057321</v>
       </c>
       <c r="L12">
-        <v>0.02816502724506404</v>
+        <v>2.8165027245064041E-2</v>
       </c>
       <c r="M12">
-        <v>0.223338758757342</v>
+        <v>0.22333875875734199</v>
       </c>
       <c r="N12">
-        <v>0.3275776661241243</v>
+        <v>0.32757766612412431</v>
       </c>
       <c r="O12">
-        <v>0.09079329134526927</v>
+        <v>9.079329134526927E-2</v>
       </c>
       <c r="P12">
-        <v>0.1600735970561178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>0.16007359705611779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -1216,28 +5127,28 @@
         <v>2908</v>
       </c>
       <c r="J13">
-        <v>0.04436728395061729</v>
+        <v>4.4367283950617287E-2</v>
       </c>
       <c r="K13">
-        <v>0.1058641975308642</v>
+        <v>0.10586419753086421</v>
       </c>
       <c r="L13">
-        <v>0.04189814814814815</v>
+        <v>4.189814814814815E-2</v>
       </c>
       <c r="M13">
         <v>0.1760030864197531</v>
       </c>
       <c r="N13">
-        <v>0.3208333333333334</v>
+        <v>0.32083333333333341</v>
       </c>
       <c r="O13">
-        <v>0.08665123456790123</v>
+        <v>8.6651234567901234E-2</v>
       </c>
       <c r="P13">
         <v>0.2243827160493827</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -1266,13 +5177,13 @@
         <v>2445</v>
       </c>
       <c r="J14">
-        <v>0.04279069767441861</v>
+        <v>4.2790697674418607E-2</v>
       </c>
       <c r="K14">
         <v>0.1150626118067979</v>
       </c>
       <c r="L14">
-        <v>0.05016100178890877</v>
+        <v>5.0161001788908768E-2</v>
       </c>
       <c r="M14">
         <v>0.1644364937388193</v>
@@ -1281,13 +5192,13 @@
         <v>0.3706618962432916</v>
       </c>
       <c r="O14">
-        <v>0.08193202146690519</v>
+        <v>8.1932021466905189E-2</v>
       </c>
       <c r="P14">
-        <v>0.1749552772808587</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>0.17495527728085869</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -1316,28 +5227,28 @@
         <v>3247</v>
       </c>
       <c r="J15">
-        <v>0.03294081029205789</v>
+        <v>3.2940810292057893E-2</v>
       </c>
       <c r="K15">
-        <v>0.1225813145198942</v>
+        <v>0.12258131451989419</v>
       </c>
       <c r="L15">
-        <v>0.0237588836437205</v>
+        <v>2.3758883643720499E-2</v>
       </c>
       <c r="M15">
-        <v>0.1473258287077865</v>
+        <v>0.14732582870778649</v>
       </c>
       <c r="N15">
-        <v>0.4409399802873891</v>
+        <v>0.44093998028738912</v>
       </c>
       <c r="O15">
-        <v>0.06401411007936919</v>
+        <v>6.4014110079369191E-2</v>
       </c>
       <c r="P15">
-        <v>0.1684390724697827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>0.16843907246978271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1366,28 +5277,28 @@
         <v>1729</v>
       </c>
       <c r="J16">
-        <v>0.06827245174669007</v>
+        <v>6.8272451746690069E-2</v>
       </c>
       <c r="K16">
-        <v>0.07537087254745574</v>
+        <v>7.5370872547455739E-2</v>
       </c>
       <c r="L16">
-        <v>0.03477428617004307</v>
+        <v>3.4774286170043071E-2</v>
       </c>
       <c r="M16">
-        <v>0.2159834104322859</v>
+        <v>0.21598341043228589</v>
       </c>
       <c r="N16">
-        <v>0.3573935236879885</v>
+        <v>0.35739352368798849</v>
       </c>
       <c r="O16">
         <v>0.1103046737916733</v>
       </c>
       <c r="P16">
-        <v>0.1379007816238635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>0.13790078162386349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1416,19 +5327,19 @@
         <v>1812</v>
       </c>
       <c r="J17">
-        <v>0.0960850743459439</v>
+        <v>9.6085074345943905E-2</v>
       </c>
       <c r="K17">
         <v>0.1040843214756258</v>
       </c>
       <c r="L17">
-        <v>0.04046677959721438</v>
+        <v>4.0466779597214383E-2</v>
       </c>
       <c r="M17">
-        <v>0.1671372106154715</v>
+        <v>0.16713721061547149</v>
       </c>
       <c r="N17">
-        <v>0.2968191229060794</v>
+        <v>0.29681912290607942</v>
       </c>
       <c r="O17">
         <v>0.1248823640127988</v>
@@ -1437,7 +5348,7 @@
         <v>0.1705251270468662</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1466,28 +5377,28 @@
         <v>1861</v>
       </c>
       <c r="J18">
-        <v>0.05060065526028395</v>
+        <v>5.0600655260283948E-2</v>
       </c>
       <c r="K18">
         <v>0.1152165999271933</v>
       </c>
       <c r="L18">
-        <v>0.03731343283582089</v>
+        <v>3.7313432835820892E-2</v>
       </c>
       <c r="M18">
-        <v>0.1773753185293047</v>
+        <v>0.17737531852930469</v>
       </c>
       <c r="N18">
-        <v>0.3151619949035311</v>
+        <v>0.31516199490353108</v>
       </c>
       <c r="O18">
-        <v>0.1349654168183473</v>
+        <v>0.13496541681834731</v>
       </c>
       <c r="P18">
-        <v>0.1693665817255187</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>0.16936658172551869</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1516,28 +5427,28 @@
         <v>1567</v>
       </c>
       <c r="J19">
-        <v>0.05172944678230525</v>
+        <v>5.1729446782305247E-2</v>
       </c>
       <c r="K19">
-        <v>0.07636251667864108</v>
+        <v>7.6362516678641079E-2</v>
       </c>
       <c r="L19">
-        <v>0.03192035307400184</v>
+        <v>3.1920353074001838E-2</v>
       </c>
       <c r="M19">
-        <v>0.1897772759930206</v>
+        <v>0.18977727599302061</v>
       </c>
       <c r="N19">
-        <v>0.4044955352560813</v>
+        <v>0.40449553525608128</v>
       </c>
       <c r="O19">
-        <v>0.08488145335112389</v>
+        <v>8.4881453351123889E-2</v>
       </c>
       <c r="P19">
-        <v>0.160833418864826</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>0.16083341886482599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -1566,28 +5477,28 @@
         <v>3202</v>
       </c>
       <c r="J20">
-        <v>0.07520244258595513</v>
+        <v>7.5202442585955126E-2</v>
       </c>
       <c r="K20">
-        <v>0.07427319792911191</v>
+        <v>7.4273197929111912E-2</v>
       </c>
       <c r="L20">
-        <v>0.02528872958980486</v>
+        <v>2.5288729589804861E-2</v>
       </c>
       <c r="M20">
-        <v>0.1179476968007434</v>
+        <v>0.11794769680074341</v>
       </c>
       <c r="N20">
-        <v>0.419819461038099</v>
+        <v>0.41981946103809897</v>
       </c>
       <c r="O20">
-        <v>0.07493694411257135</v>
+        <v>7.4936944112571346E-2</v>
       </c>
       <c r="P20">
         <v>0.2125315279437143</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1616,28 +5527,28 @@
         <v>1858</v>
       </c>
       <c r="J21">
-        <v>0.08060623612317791</v>
+        <v>8.060623612317791E-2</v>
       </c>
       <c r="K21">
         <v>0.1096630948933295</v>
       </c>
       <c r="L21">
-        <v>0.03784149049136017</v>
+        <v>3.7841490491360173E-2</v>
       </c>
       <c r="M21">
-        <v>0.1354377835698427</v>
+        <v>0.13543778356984271</v>
       </c>
       <c r="N21">
-        <v>0.3658654310261608</v>
+        <v>0.36586543102616081</v>
       </c>
       <c r="O21">
-        <v>0.09122502172024327</v>
+        <v>9.1225021720243271E-2</v>
       </c>
       <c r="P21">
-        <v>0.1793609421758857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>0.17936094217588569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -1666,28 +5577,28 @@
         <v>2755</v>
       </c>
       <c r="J22">
-        <v>0.07785288270377734</v>
+        <v>7.785288270377734E-2</v>
       </c>
       <c r="K22">
         <v>0.1320874751491054</v>
       </c>
       <c r="L22">
-        <v>0.03228628230616302</v>
+        <v>3.2286282306163018E-2</v>
       </c>
       <c r="M22">
-        <v>0.1391650099403579</v>
+        <v>0.13916500994035791</v>
       </c>
       <c r="N22">
-        <v>0.2953479125248509</v>
+        <v>0.29534791252485088</v>
       </c>
       <c r="O22">
-        <v>0.1041749502982107</v>
+        <v>0.10417495029821069</v>
       </c>
       <c r="P22">
-        <v>0.2190854870775348</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>0.21908548707753481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
@@ -1716,28 +5627,28 @@
         <v>5949</v>
       </c>
       <c r="J23">
-        <v>0.02314751403917271</v>
+        <v>2.3147514039172711E-2</v>
       </c>
       <c r="K23">
-        <v>0.2364287997078026</v>
+        <v>0.23642879970780259</v>
       </c>
       <c r="L23">
-        <v>0.01344564671506186</v>
+        <v>1.3445646715061861E-2</v>
       </c>
       <c r="M23">
-        <v>0.07656485412957129</v>
+        <v>7.6564854129571286E-2</v>
       </c>
       <c r="N23">
-        <v>0.4643199561703876</v>
+        <v>0.46431995617038763</v>
       </c>
       <c r="O23">
-        <v>0.05028991462356755</v>
+        <v>5.028991462356755E-2</v>
       </c>
       <c r="P23">
         <v>0.1358033146144364</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1766,28 +5677,28 @@
         <v>2611</v>
       </c>
       <c r="J24">
-        <v>0.0463718820861678</v>
+        <v>4.6371882086167798E-2</v>
       </c>
       <c r="K24">
-        <v>0.1869047619047619</v>
+        <v>0.18690476190476191</v>
       </c>
       <c r="L24">
-        <v>0.02046485260770975</v>
+        <v>2.0464852607709749E-2</v>
       </c>
       <c r="M24">
         <v>0.1191043083900227</v>
       </c>
       <c r="N24">
-        <v>0.4007369614512472</v>
+        <v>0.40073696145124721</v>
       </c>
       <c r="O24">
-        <v>0.07840136054421769</v>
+        <v>7.8401360544217688E-2</v>
       </c>
       <c r="P24">
-        <v>0.148015873015873</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>0.14801587301587299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>39</v>
       </c>
@@ -1816,16 +5727,16 @@
         <v>1781</v>
       </c>
       <c r="J25">
-        <v>0.06555936374022321</v>
+        <v>6.5559363740223212E-2</v>
       </c>
       <c r="K25">
-        <v>0.151507162316548</v>
+        <v>0.15150716231654801</v>
       </c>
       <c r="L25">
-        <v>0.03295544423938835</v>
+        <v>3.295544423938835E-2</v>
       </c>
       <c r="M25">
-        <v>0.1647772211969417</v>
+        <v>0.16477722119694169</v>
       </c>
       <c r="N25">
         <v>0.3263907197469022</v>
@@ -1834,10 +5745,10 @@
         <v>0.1022936989190614</v>
       </c>
       <c r="P25">
-        <v>0.156516389840935</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>0.15651638984093499</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>40</v>
       </c>
@@ -1866,28 +5777,28 @@
         <v>1823</v>
       </c>
       <c r="J26">
-        <v>0.06789401909214884</v>
+        <v>6.7894019092148844E-2</v>
       </c>
       <c r="K26">
-        <v>0.1330605883498928</v>
+        <v>0.13306058834989279</v>
       </c>
       <c r="L26">
-        <v>0.03964543152152737</v>
+        <v>3.9645431521527372E-2</v>
       </c>
       <c r="M26">
-        <v>0.144847067991428</v>
+        <v>0.14484706799142799</v>
       </c>
       <c r="N26">
-        <v>0.3545684784726281</v>
+        <v>0.35456847847262812</v>
       </c>
       <c r="O26">
-        <v>0.08240794856808883</v>
+        <v>8.2407948568088835E-2</v>
       </c>
       <c r="P26">
         <v>0.177576466004286</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>41</v>
       </c>
@@ -1916,16 +5827,16 @@
         <v>3199</v>
       </c>
       <c r="J27">
-        <v>0.03137536421603818</v>
+        <v>3.1375364216038183E-2</v>
       </c>
       <c r="K27">
-        <v>0.09547738693467336</v>
+        <v>9.5477386934673364E-2</v>
       </c>
       <c r="L27">
-        <v>0.01068367045310586</v>
+        <v>1.0683670453105859E-2</v>
       </c>
       <c r="M27">
-        <v>0.4710105147586673</v>
+        <v>0.47101051475866729</v>
       </c>
       <c r="N27">
         <v>0.1547231958109877</v>
@@ -1934,10 +5845,10 @@
         <v>0.1016426671170981</v>
       </c>
       <c r="P27">
-        <v>0.1350872007094295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
+        <v>0.13508720070942951</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>42</v>
       </c>
@@ -1966,28 +5877,28 @@
         <v>1669</v>
       </c>
       <c r="J28">
-        <v>0.05725490196078432</v>
+        <v>5.7254901960784317E-2</v>
       </c>
       <c r="K28">
-        <v>0.08840336134453781</v>
+        <v>8.8403361344537815E-2</v>
       </c>
       <c r="L28">
-        <v>0.03126050420168067</v>
+        <v>3.1260504201680667E-2</v>
       </c>
       <c r="M28">
-        <v>0.2528851540616247</v>
+        <v>0.25288515406162471</v>
       </c>
       <c r="N28">
-        <v>0.2615126050420168</v>
+        <v>0.26151260504201679</v>
       </c>
       <c r="O28">
-        <v>0.1216806722689076</v>
+        <v>0.12168067226890759</v>
       </c>
       <c r="P28">
         <v>0.1870028011204482</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>43</v>
       </c>
@@ -2016,28 +5927,28 @@
         <v>2013</v>
       </c>
       <c r="J29">
-        <v>0.05790456783834267</v>
+        <v>5.790456783834267E-2</v>
       </c>
       <c r="K29">
-        <v>0.07845134997452878</v>
+        <v>7.8451349974528781E-2</v>
       </c>
       <c r="L29">
-        <v>0.03582951265070471</v>
+        <v>3.5829512650704713E-2</v>
       </c>
       <c r="M29">
-        <v>0.2655798947189676</v>
+        <v>0.26557989471896759</v>
       </c>
       <c r="N29">
-        <v>0.2925793852946171</v>
+        <v>0.29257938529461708</v>
       </c>
       <c r="O29">
-        <v>0.09874341993547292</v>
+        <v>9.874341993547292E-2</v>
       </c>
       <c r="P29">
-        <v>0.1709118695873663</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
+        <v>0.17091186958736629</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>44</v>
       </c>
@@ -2066,28 +5977,28 @@
         <v>5470</v>
       </c>
       <c r="J30">
-        <v>0.05202603824998738</v>
+        <v>5.2026038249987382E-2</v>
       </c>
       <c r="K30">
         <v>0.2198365040117071</v>
       </c>
       <c r="L30">
-        <v>0.01009234495635061</v>
+        <v>1.0092344956350609E-2</v>
       </c>
       <c r="M30">
-        <v>0.09242064893778069</v>
+        <v>9.2420648937780694E-2</v>
       </c>
       <c r="N30">
         <v>0.2377251854468386</v>
       </c>
       <c r="O30">
-        <v>0.2498864611192411</v>
+        <v>0.24988646111924109</v>
       </c>
       <c r="P30">
-        <v>0.1380128172780946</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
+        <v>0.13801281727809461</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
@@ -2116,28 +6027,28 @@
         <v>2894</v>
       </c>
       <c r="J31">
-        <v>0.06798087333092746</v>
+        <v>6.7980873330927463E-2</v>
       </c>
       <c r="K31">
-        <v>0.1891014074341393</v>
+        <v>0.18910140743413931</v>
       </c>
       <c r="L31">
-        <v>0.01434500180440274</v>
+        <v>1.434500180440274E-2</v>
       </c>
       <c r="M31">
-        <v>0.1453446409238542</v>
+        <v>0.14534464092385421</v>
       </c>
       <c r="N31">
-        <v>0.2843738722482858</v>
+        <v>0.28437387224828581</v>
       </c>
       <c r="O31">
-        <v>0.1683056658246121</v>
+        <v>0.16830566582461209</v>
       </c>
       <c r="P31">
-        <v>0.1305485384337784</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
+        <v>0.13054853843377839</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>46</v>
       </c>
@@ -2166,28 +6077,28 @@
         <v>1907</v>
       </c>
       <c r="J32">
-        <v>0.06572129806381238</v>
+        <v>6.5721298063812383E-2</v>
       </c>
       <c r="K32">
-        <v>0.1861194436869376</v>
+        <v>0.18611944368693761</v>
       </c>
       <c r="L32">
-        <v>0.0264521407144805</v>
+        <v>2.6452140714480502E-2</v>
       </c>
       <c r="M32">
         <v>0.1206708481047178</v>
       </c>
       <c r="N32">
-        <v>0.2538860103626943</v>
+        <v>0.25388601036269431</v>
       </c>
       <c r="O32">
-        <v>0.2171393509680938</v>
+        <v>0.21713935096809381</v>
       </c>
       <c r="P32">
-        <v>0.1300109080992637</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+        <v>0.13001090809926369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2216,28 +6127,28 @@
         <v>4961</v>
       </c>
       <c r="J33">
-        <v>0.0280862565368118</v>
+        <v>2.80862565368118E-2</v>
       </c>
       <c r="K33">
-        <v>0.239771236069491</v>
+        <v>0.23977123606949099</v>
       </c>
       <c r="L33">
-        <v>0.02657813815931214</v>
+        <v>2.6578138159312141E-2</v>
       </c>
       <c r="M33">
-        <v>0.06898172630589341</v>
+        <v>6.8981726305893415E-2</v>
       </c>
       <c r="N33">
-        <v>0.4667724308126212</v>
+        <v>0.46677243081262121</v>
       </c>
       <c r="O33">
-        <v>0.07264429950839259</v>
+        <v>7.2644299508392587E-2</v>
       </c>
       <c r="P33">
-        <v>0.09716591260747792</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>9.7165912607477922E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2266,28 +6177,28 @@
         <v>1952</v>
       </c>
       <c r="J34">
-        <v>0.04669581194956599</v>
+        <v>4.6695811949565992E-2</v>
       </c>
       <c r="K34">
-        <v>0.1296965089019831</v>
+        <v>0.12969650890198309</v>
       </c>
       <c r="L34">
-        <v>0.02344294494075904</v>
+        <v>2.344294494075904E-2</v>
       </c>
       <c r="M34">
-        <v>0.1836786415763796</v>
+        <v>0.18367864157637959</v>
       </c>
       <c r="N34">
-        <v>0.4069568523094469</v>
+        <v>0.40695685230944689</v>
       </c>
       <c r="O34">
-        <v>0.08585186593169866</v>
+        <v>8.5851865931698662E-2</v>
       </c>
       <c r="P34">
         <v>0.1236773743901666</v>
       </c>
     </row>
-    <row r="35" spans="1:16">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>49</v>
       </c>
@@ -2316,28 +6227,28 @@
         <v>1821</v>
       </c>
       <c r="J35">
-        <v>0.08385605810498514</v>
+        <v>8.3856058104985143E-2</v>
       </c>
       <c r="K35">
-        <v>0.1337900297127765</v>
+        <v>0.13379002971277651</v>
       </c>
       <c r="L35">
-        <v>0.02731924727632882</v>
+        <v>2.7319247276328819E-2</v>
       </c>
       <c r="M35">
-        <v>0.1795146913172664</v>
+        <v>0.17951469131726641</v>
       </c>
       <c r="N35">
-        <v>0.3263453284912513</v>
+        <v>0.32634532849125131</v>
       </c>
       <c r="O35">
-        <v>0.09887751733245295</v>
+        <v>9.8877517332452952E-2</v>
       </c>
       <c r="P35">
-        <v>0.1502971277649389</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>0.15029712776493889</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,28 +6277,28 @@
         <v>3788</v>
       </c>
       <c r="J36">
-        <v>0.03782080144079244</v>
+        <v>3.7820801440792438E-2</v>
       </c>
       <c r="K36">
-        <v>0.09054070647947281</v>
+        <v>9.0540706479472807E-2</v>
       </c>
       <c r="L36">
-        <v>0.01739593139863288</v>
+        <v>1.739593139863288E-2</v>
       </c>
       <c r="M36">
-        <v>0.1691293847980025</v>
+        <v>0.16912938479800249</v>
       </c>
       <c r="N36">
-        <v>0.3856575662068683</v>
+        <v>0.38565756620686831</v>
       </c>
       <c r="O36">
-        <v>0.1444066964102984</v>
+        <v>0.14440669641029841</v>
       </c>
       <c r="P36">
-        <v>0.1550489132659326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>0.15504891326593259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
@@ -2416,28 +6327,28 @@
         <v>3173</v>
       </c>
       <c r="J37">
-        <v>0.05418601881624389</v>
+        <v>5.4186018816243887E-2</v>
       </c>
       <c r="K37">
-        <v>0.1294509944027629</v>
+        <v>0.12945099440276289</v>
       </c>
       <c r="L37">
-        <v>0.0218530427533643</v>
+        <v>2.1853042753364301E-2</v>
       </c>
       <c r="M37">
-        <v>0.08526854829105633</v>
+        <v>8.5268548291056331E-2</v>
       </c>
       <c r="N37">
-        <v>0.428367274026438</v>
+        <v>0.42836727402643798</v>
       </c>
       <c r="O37">
-        <v>0.09193759676074789</v>
+        <v>9.1937596760747892E-2</v>
       </c>
       <c r="P37">
         <v>0.1889365249493867</v>
       </c>
     </row>
-    <row r="38" spans="1:16">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
@@ -2466,28 +6377,28 @@
         <v>3386</v>
       </c>
       <c r="J38">
-        <v>0.06639060484692146</v>
+        <v>6.6390604846921455E-2</v>
       </c>
       <c r="K38">
-        <v>0.1071889213223814</v>
+        <v>0.10718892132238141</v>
       </c>
       <c r="L38">
-        <v>0.01866811485981943</v>
+        <v>1.866811485981943E-2</v>
       </c>
       <c r="M38">
         <v>0.1086144864571312</v>
       </c>
       <c r="N38">
-        <v>0.3837485574638517</v>
+        <v>0.38374855746385172</v>
       </c>
       <c r="O38">
-        <v>0.08553390808499084</v>
+        <v>8.553390808499084E-2</v>
       </c>
       <c r="P38">
-        <v>0.2298554069649039</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>0.22985540696490389</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -2516,28 +6427,28 @@
         <v>3242</v>
       </c>
       <c r="J39">
-        <v>0.04981954567971127</v>
+        <v>4.9819545679711273E-2</v>
       </c>
       <c r="K39">
-        <v>0.1527138914443422</v>
+        <v>0.15271389144434219</v>
       </c>
       <c r="L39">
-        <v>0.01762083362819333</v>
+        <v>1.762083362819333E-2</v>
       </c>
       <c r="M39">
         <v>0.1259641922015427</v>
       </c>
       <c r="N39">
-        <v>0.3186610997098578</v>
+        <v>0.31866109970985779</v>
       </c>
       <c r="O39">
         <v>0.1057957681692732</v>
       </c>
       <c r="P39">
-        <v>0.2294246691670795</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>0.22942466916707949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
@@ -2566,28 +6477,28 @@
         <v>1801</v>
       </c>
       <c r="J40">
-        <v>0.08182415313878202</v>
+        <v>8.1824153138782024E-2</v>
       </c>
       <c r="K40">
-        <v>0.1278971567983485</v>
+        <v>0.12789715679834851</v>
       </c>
       <c r="L40">
-        <v>0.03537580932720278</v>
+        <v>3.537580932720278E-2</v>
       </c>
       <c r="M40">
-        <v>0.1482593600450408</v>
+        <v>0.14825936004504081</v>
       </c>
       <c r="N40">
-        <v>0.3107816458665666</v>
+        <v>0.31078164586656659</v>
       </c>
       <c r="O40">
-        <v>0.1268649713803134</v>
+        <v>0.12686497138031341</v>
       </c>
       <c r="P40">
-        <v>0.1689969034437459</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>0.16899690344374591</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
@@ -2616,19 +6527,19 @@
         <v>2045</v>
       </c>
       <c r="J41">
-        <v>0.03926120827529278</v>
+        <v>3.926120827529278E-2</v>
       </c>
       <c r="K41">
-        <v>0.06185832946396327</v>
+        <v>6.1858329463963267E-2</v>
       </c>
       <c r="L41">
-        <v>0.03105814373420007</v>
+        <v>3.1058143734200069E-2</v>
       </c>
       <c r="M41">
-        <v>0.07841923334881082</v>
+        <v>7.8419233348810818E-2</v>
       </c>
       <c r="N41">
-        <v>0.492648196873549</v>
+        <v>0.49264819687354899</v>
       </c>
       <c r="O41">
         <v>0.1912500644895011</v>
@@ -2637,7 +6548,7 @@
         <v>0.105504823814683</v>
       </c>
     </row>
-    <row r="42" spans="1:16">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
@@ -2666,19 +6577,19 @@
         <v>2020</v>
       </c>
       <c r="J42">
-        <v>0.03737653663042706</v>
+        <v>3.737653663042706E-2</v>
       </c>
       <c r="K42">
-        <v>0.07859020820009949</v>
+        <v>7.8590208200099487E-2</v>
       </c>
       <c r="L42">
-        <v>0.02522560932281674</v>
+        <v>2.5225609322816742E-2</v>
       </c>
       <c r="M42">
         <v>0.1352945356356143</v>
       </c>
       <c r="N42">
-        <v>0.4648617920841328</v>
+        <v>0.46486179208413281</v>
       </c>
       <c r="O42">
         <v>0.1151140481773609</v>
@@ -2687,7 +6598,7 @@
         <v>0.1435372699495488</v>
       </c>
     </row>
-    <row r="43" spans="1:16">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
@@ -2716,28 +6627,28 @@
         <v>2384</v>
       </c>
       <c r="J43">
-        <v>0.04819025036613432</v>
+        <v>4.8190250366134321E-2</v>
       </c>
       <c r="K43">
-        <v>0.1491038426668526</v>
+        <v>0.14910384266685259</v>
       </c>
       <c r="L43">
-        <v>0.04247158100285933</v>
+        <v>4.2471581002859332E-2</v>
       </c>
       <c r="M43">
         <v>0.1185577794825302</v>
       </c>
       <c r="N43">
-        <v>0.3802915126577864</v>
+        <v>0.38029151265778638</v>
       </c>
       <c r="O43">
-        <v>0.09512518306715949</v>
+        <v>9.5125183067159488E-2</v>
       </c>
       <c r="P43">
         <v>0.1662598507566776</v>
       </c>
     </row>
-    <row r="44" spans="1:16">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>58</v>
       </c>
@@ -2766,28 +6677,28 @@
         <v>4927</v>
       </c>
       <c r="J44">
-        <v>0.0227302037657983</v>
+        <v>2.2730203765798301E-2</v>
       </c>
       <c r="K44">
-        <v>0.184259736909982</v>
+        <v>0.18425973690998201</v>
       </c>
       <c r="L44">
-        <v>0.02921072994583441</v>
+        <v>2.9210729945834409E-2</v>
       </c>
       <c r="M44">
-        <v>0.0581957699251999</v>
+        <v>5.8195769925199897E-2</v>
       </c>
       <c r="N44">
-        <v>0.4438676811968016</v>
+        <v>0.44386768119680159</v>
       </c>
       <c r="O44">
         <v>0.1028823832860459</v>
       </c>
       <c r="P44">
-        <v>0.1588534949703379</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>0.15885349497033791</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
@@ -2816,28 +6727,28 @@
         <v>1671</v>
       </c>
       <c r="J45">
-        <v>0.07505260696750059</v>
+        <v>7.5052606967500587E-2</v>
       </c>
       <c r="K45">
-        <v>0.1027979113085496</v>
+        <v>0.10279791130854959</v>
       </c>
       <c r="L45">
-        <v>0.03740939911152677</v>
+        <v>3.740939911152677E-2</v>
       </c>
       <c r="M45">
-        <v>0.1322578131088769</v>
+        <v>0.13225781310887691</v>
       </c>
       <c r="N45">
-        <v>0.4010599329748266</v>
+        <v>0.40105993297482662</v>
       </c>
       <c r="O45">
         <v>0.1211908658717169</v>
       </c>
       <c r="P45">
-        <v>0.1302314706570026</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>0.13023147065700261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
@@ -2866,28 +6777,28 @@
         <v>2194</v>
       </c>
       <c r="J46">
-        <v>0.06115498876892979</v>
+        <v>6.1154988768929788E-2</v>
       </c>
       <c r="K46">
-        <v>0.1356423447576263</v>
+        <v>0.13564234475762629</v>
       </c>
       <c r="L46">
-        <v>0.02231722338960945</v>
+        <v>2.2317223389609449E-2</v>
       </c>
       <c r="M46">
-        <v>0.09673212086080719</v>
+        <v>9.6732120860807194E-2</v>
       </c>
       <c r="N46">
-        <v>0.4091007897978408</v>
+        <v>0.40910078979784081</v>
       </c>
       <c r="O46">
-        <v>0.1160785450329686</v>
+        <v>0.11607854503296861</v>
       </c>
       <c r="P46">
-        <v>0.158973987392218</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16">
+        <v>0.15897398739221799</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -2916,28 +6827,28 @@
         <v>3421</v>
       </c>
       <c r="J47">
-        <v>0.06288730778058298</v>
+        <v>6.2887307780582977E-2</v>
       </c>
       <c r="K47">
-        <v>0.1496442506311682</v>
+        <v>0.14964425063116821</v>
       </c>
       <c r="L47">
-        <v>0.03113763292785556</v>
+        <v>3.1137632927855562E-2</v>
       </c>
       <c r="M47">
-        <v>0.09899778134802234</v>
+        <v>9.899778134802234E-2</v>
       </c>
       <c r="N47">
         <v>0.3033432790146125</v>
       </c>
       <c r="O47">
-        <v>0.09226532017443195</v>
+        <v>9.2265320174431953E-2</v>
       </c>
       <c r="P47">
-        <v>0.2617244281233265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>0.26172442812332652</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
@@ -2966,28 +6877,28 @@
         <v>2183</v>
       </c>
       <c r="J48">
-        <v>0.04692487763353905</v>
+        <v>4.6924877633539051E-2</v>
       </c>
       <c r="K48">
-        <v>0.1620025537348372</v>
+        <v>0.16200255373483721</v>
       </c>
       <c r="L48">
-        <v>0.01654607363268781</v>
+        <v>1.654607363268781E-2</v>
       </c>
       <c r="M48">
-        <v>0.090019153011279</v>
+        <v>9.0019153011278996E-2</v>
       </c>
       <c r="N48">
-        <v>0.4583954032772931</v>
+        <v>0.45839540327729311</v>
       </c>
       <c r="O48">
-        <v>0.1099702064268993</v>
+        <v>0.10997020642689929</v>
       </c>
       <c r="P48">
         <v>0.1161417322834646</v>
       </c>
     </row>
-    <row r="49" spans="1:16">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
@@ -3016,28 +6927,28 @@
         <v>2006</v>
       </c>
       <c r="J49">
-        <v>0.08455175871000084</v>
+        <v>8.4551758710000841E-2</v>
       </c>
       <c r="K49">
         <v>0.1063580917369872</v>
       </c>
       <c r="L49">
-        <v>0.02991060238950622</v>
+        <v>2.991060238950622E-2</v>
       </c>
       <c r="M49">
-        <v>0.1619182889130253</v>
+        <v>0.16191828891302529</v>
       </c>
       <c r="N49">
-        <v>0.2978527863647757</v>
+        <v>0.29785278636477569</v>
       </c>
       <c r="O49">
-        <v>0.151808839502047</v>
+        <v>0.15180883950204699</v>
       </c>
       <c r="P49">
         <v>0.1675996323836578</v>
       </c>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3066,28 +6977,28 @@
         <v>1877</v>
       </c>
       <c r="J50">
-        <v>0.07699574870099198</v>
+        <v>7.6995748700991976E-2</v>
       </c>
       <c r="K50">
-        <v>0.08001889466225791</v>
+        <v>8.0018894662257908E-2</v>
       </c>
       <c r="L50">
-        <v>0.02815304676428909</v>
+        <v>2.8153046764289091E-2</v>
       </c>
       <c r="M50">
         <v>0.1519130845536136</v>
       </c>
       <c r="N50">
-        <v>0.3529522909777988</v>
+        <v>0.35295229097779879</v>
       </c>
       <c r="O50">
-        <v>0.1326405290505432</v>
+        <v>0.13264052905054319</v>
       </c>
       <c r="P50">
-        <v>0.1773264052905054</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16">
+        <v>0.17732640529050539</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
@@ -3122,22 +7033,22 @@
         <v>0.1079080201906898</v>
       </c>
       <c r="L51">
-        <v>0.03477285473920359</v>
+        <v>3.4772854739203593E-2</v>
       </c>
       <c r="M51">
-        <v>0.1311273135165451</v>
+        <v>0.13112731351654511</v>
       </c>
       <c r="N51">
-        <v>0.3243970835670218</v>
+        <v>0.32439708356702179</v>
       </c>
       <c r="O51">
-        <v>0.1398766124509254</v>
+        <v>0.13987661245092539</v>
       </c>
       <c r="P51">
-        <v>0.1442512619181155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16">
+        <v>0.14425126191811549</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -3166,19 +7077,19 @@
         <v>1645</v>
       </c>
       <c r="J52">
-        <v>0.09131342470727058</v>
+        <v>9.131342470727058E-2</v>
       </c>
       <c r="K52">
-        <v>0.08868112916401924</v>
+        <v>8.868112916401924E-2</v>
       </c>
       <c r="L52">
-        <v>0.03040755196514477</v>
+        <v>3.0407551965144771E-2</v>
       </c>
       <c r="M52">
         <v>0.1058364346010711</v>
       </c>
       <c r="N52">
-        <v>0.4011981483162386</v>
+        <v>0.40119814831623862</v>
       </c>
       <c r="O52">
         <v>0.1332486157756195</v>
@@ -3187,7 +7098,7 @@
         <v>0.1493146954706363</v>
       </c>
     </row>
-    <row r="53" spans="1:16">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>67</v>
       </c>
@@ -3216,28 +7127,28 @@
         <v>1772</v>
       </c>
       <c r="J53">
-        <v>0.08684261595187269</v>
+        <v>8.684261595187269E-2</v>
       </c>
       <c r="K53">
-        <v>0.2192897341354551</v>
+        <v>0.21928973413545511</v>
       </c>
       <c r="L53">
-        <v>0.02648942363671648</v>
+        <v>2.648942363671648E-2</v>
       </c>
       <c r="M53">
-        <v>0.09217931302154085</v>
+        <v>9.2179313021540851E-2</v>
       </c>
       <c r="N53">
-        <v>0.2632447118183582</v>
+        <v>0.26324471181835818</v>
       </c>
       <c r="O53">
-        <v>0.14001552493693</v>
+        <v>0.14001552493693001</v>
       </c>
       <c r="P53">
         <v>0.1719386764991267</v>
       </c>
     </row>
-    <row r="54" spans="1:16">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>68</v>
       </c>
@@ -3266,28 +7177,28 @@
         <v>3212</v>
       </c>
       <c r="J54">
-        <v>0.03660695319691284</v>
+        <v>3.6606953196912838E-2</v>
       </c>
       <c r="K54">
-        <v>0.07533810097004885</v>
+        <v>7.5338100970048852E-2</v>
       </c>
       <c r="L54">
-        <v>0.01848049281314168</v>
+        <v>1.848049281314168E-2</v>
       </c>
       <c r="M54">
-        <v>0.1023153720880833</v>
+        <v>0.10231537208808331</v>
       </c>
       <c r="N54">
-        <v>0.4409119875380585</v>
+        <v>0.44091198753805849</v>
       </c>
       <c r="O54">
-        <v>0.09891666076612618</v>
+        <v>9.891666076612618E-2</v>
       </c>
       <c r="P54">
-        <v>0.2274304326276287</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16">
+        <v>0.22743043262762869</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>69</v>
       </c>
@@ -3316,25 +7227,2130 @@
         <v>1966</v>
       </c>
       <c r="J55">
-        <v>0.06560351413292589</v>
+        <v>6.5603514132925894E-2</v>
       </c>
       <c r="K55">
         <v>0.1010313216195569</v>
       </c>
       <c r="L55">
-        <v>0.02864782276546982</v>
+        <v>2.8647822765469819E-2</v>
       </c>
       <c r="M55">
         <v>0.1031321619556914</v>
       </c>
       <c r="N55">
-        <v>0.3801566080977846</v>
+        <v>0.38015660809778462</v>
       </c>
       <c r="O55">
-        <v>0.1336898395721925</v>
+        <v>0.13368983957219249</v>
       </c>
       <c r="P55">
         <v>0.1877387318563789</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC0175D-3D9A-42EE-A00E-453873854436}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8201E818-9202-4D5C-A871-271F977DA4F4}">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>22725</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2">
+        <v>0.11124312431243125</v>
+      </c>
+      <c r="G2">
+        <v>0.11559955995599559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28853</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <v>9.1983502582053858E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.12088864242886355</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>23580</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>0.1292620865139949</v>
+      </c>
+      <c r="G4">
+        <v>6.6793893129770993E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>27013</v>
+      </c>
+      <c r="E5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>0.15337059934105801</v>
+      </c>
+      <c r="G5">
+        <v>9.1918705808314516E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>22532</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6">
+        <v>0.10429611219598793</v>
+      </c>
+      <c r="G6">
+        <v>8.7431208947274991E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>57133</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7">
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="G7">
+        <v>8.0881452050478711E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>84150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8">
+        <v>8.1568627450980397E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.14587046939988116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>23982</v>
+      </c>
+      <c r="E9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>7.4555916937703276E-2</v>
+      </c>
+      <c r="G9">
+        <v>7.8350429488783249E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>30489</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10">
+        <v>9.4427498442061067E-2</v>
+      </c>
+      <c r="G10">
+        <v>7.6224212010889178E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>21235</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11">
+        <v>0.11273840357899693</v>
+      </c>
+      <c r="G11">
+        <v>6.569343065693431E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>22464</v>
+      </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>0.11342592592592593</v>
+      </c>
+      <c r="G12">
+        <v>6.7930911680911685E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>20811</v>
+      </c>
+      <c r="E13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13">
+        <v>0.13065205900725577</v>
+      </c>
+      <c r="G13">
+        <v>7.6594108884724427E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>28116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14">
+        <v>0.1108621425522834</v>
+      </c>
+      <c r="G14">
+        <v>8.4186939820742643E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>25615</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15">
+        <v>8.502830372828421E-2</v>
+      </c>
+      <c r="G15">
+        <v>4.239703298848331E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>17806</v>
+      </c>
+      <c r="E16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>8.3286532629450752E-2</v>
+      </c>
+      <c r="G16">
+        <v>4.5939570931146805E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16216</v>
+      </c>
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17">
+        <v>0.11377651702022694</v>
+      </c>
+      <c r="G17">
+        <v>7.8194375925012327E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>15236</v>
+      </c>
+      <c r="E18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18">
+        <v>0.10179837227618797</v>
+      </c>
+      <c r="G18">
+        <v>6.2746127592543971E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17770</v>
+      </c>
+      <c r="E19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19">
+        <v>0.14243106359032076</v>
+      </c>
+      <c r="G19">
+        <v>4.7608328643781651E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20">
+        <v>9.5869327772813026E-2</v>
+      </c>
+      <c r="G20">
+        <v>4.6668652566775888E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>17454</v>
+      </c>
+      <c r="E21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21">
+        <v>0.12684771399106223</v>
+      </c>
+      <c r="G21">
+        <v>9.0351781826515418E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>16844</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22">
+        <v>0.13215388268819758</v>
+      </c>
+      <c r="G22">
+        <v>6.4236523391118502E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>48723</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23">
+        <v>0.12632637563368429</v>
+      </c>
+      <c r="G23">
+        <v>0.24308847977341297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>18946</v>
+      </c>
+      <c r="E24" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24">
+        <v>0.112055315106091</v>
+      </c>
+      <c r="G24">
+        <v>0.10492980048559063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>13253</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>0.10269372972157248</v>
+      </c>
+      <c r="G25">
+        <v>0.10495736814306195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>18323</v>
+      </c>
+      <c r="E26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26">
+        <v>0.13895104513453038</v>
+      </c>
+      <c r="G26">
+        <v>6.9148065273153966E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>23052</v>
+      </c>
+      <c r="E27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27">
+        <v>0.10155301058476487</v>
+      </c>
+      <c r="G27">
+        <v>8.845219503730696E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>14371</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28">
+        <v>0.11822420151694385</v>
+      </c>
+      <c r="G28">
+        <v>5.2953865423422168E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>18355</v>
+      </c>
+      <c r="E29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29">
+        <v>9.6976300735494417E-2</v>
+      </c>
+      <c r="G29">
+        <v>5.8730591119585944E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>55509</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F30">
+        <v>0.10605487398439893</v>
+      </c>
+      <c r="G30">
+        <v>0.17916013619413068</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>19411</v>
+      </c>
+      <c r="F31">
+        <v>9.2679408582762357E-2</v>
+      </c>
+      <c r="G31">
+        <v>0.11756220699603318</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>48161</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32">
+        <v>8.8204148584954636E-2</v>
+      </c>
+      <c r="G32">
+        <v>0.25281867070866471</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>23924</v>
+      </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33">
+        <v>8.932452767095804E-2</v>
+      </c>
+      <c r="G33">
+        <v>0.11423674970740678</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>18673</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34">
+        <v>0.10716007069030151</v>
+      </c>
+      <c r="G34">
+        <v>8.8041557328763453E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>19354</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35">
+        <v>9.3262374702903786E-2</v>
+      </c>
+      <c r="G35">
+        <v>8.4478660741965486E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34614</v>
+      </c>
+      <c r="E36" t="s">
+        <v>106</v>
+      </c>
+      <c r="F36">
+        <v>0.1140578956491593</v>
+      </c>
+      <c r="G36">
+        <v>7.9505402438319758E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>21109</v>
+      </c>
+      <c r="E37" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37">
+        <v>0.11450092377658819</v>
+      </c>
+      <c r="G37">
+        <v>6.0590269553271119E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>20213</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38">
+        <v>0.16464651461930441</v>
+      </c>
+      <c r="G38">
+        <v>6.807500123682779E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>22944</v>
+      </c>
+      <c r="E39" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39">
+        <v>0.10120292887029289</v>
+      </c>
+      <c r="G39">
+        <v>0.10251046025104603</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>14298</v>
+      </c>
+      <c r="E40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F40">
+        <v>0.10085326619107568</v>
+      </c>
+      <c r="G40">
+        <v>6.9590152468876759E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>25671</v>
+      </c>
+      <c r="E41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F41">
+        <v>9.9061197460169059E-2</v>
+      </c>
+      <c r="G41">
+        <v>4.1058003194265905E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>21504</v>
+      </c>
+      <c r="E42" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42">
+        <v>8.3193824404761904E-2</v>
+      </c>
+      <c r="G42">
+        <v>8.1008184523809521E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>17703</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43">
+        <v>0.1345534655143196</v>
+      </c>
+      <c r="G43">
+        <v>0.10105631813816868</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>30662</v>
+      </c>
+      <c r="E44" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44">
+        <v>0.12070315047942078</v>
+      </c>
+      <c r="G44">
+        <v>0.16851477398734591</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>16443</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45">
+        <v>0.1286869792616919</v>
+      </c>
+      <c r="G45">
+        <v>8.7575259989053092E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>16443</v>
+      </c>
+      <c r="E46" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46">
+        <v>0.1286869792616919</v>
+      </c>
+      <c r="G46">
+        <v>8.7575259989053092E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>21134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47">
+        <v>9.2410334058862495E-2</v>
+      </c>
+      <c r="G47">
+        <v>9.983912179426517E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>20890</v>
+      </c>
+      <c r="E48" t="s">
+        <v>118</v>
+      </c>
+      <c r="F48">
+        <v>0.16065102920057445</v>
+      </c>
+      <c r="G48">
+        <v>7.9463858305409293E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>26011</v>
+      </c>
+      <c r="E49" t="s">
+        <v>119</v>
+      </c>
+      <c r="F49">
+        <v>8.223443927569106E-2</v>
+      </c>
+      <c r="G49">
+        <v>9.4613817231171432E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>15273</v>
+      </c>
+      <c r="E50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F50">
+        <v>0.110063510770641</v>
+      </c>
+      <c r="G50">
+        <v>7.2742748641393309E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>16686</v>
+      </c>
+      <c r="E51" t="s">
+        <v>121</v>
+      </c>
+      <c r="F51">
+        <v>0.11302888649166966</v>
+      </c>
+      <c r="G51">
+        <v>4.9682368452594987E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>15673</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52">
+        <v>8.0520640592101067E-2</v>
+      </c>
+      <c r="G52">
+        <v>5.6083710840298603E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>19315</v>
+      </c>
+      <c r="E53" t="s">
+        <v>123</v>
+      </c>
+      <c r="F53">
+        <v>8.4701009578048145E-2</v>
+      </c>
+      <c r="G53">
+        <v>6.4354128915350764E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>16446</v>
+      </c>
+      <c r="E54" t="s">
+        <v>124</v>
+      </c>
+      <c r="F54">
+        <v>0.12440715067493616</v>
+      </c>
+      <c r="G54">
+        <v>0.12142770278487171</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>21057</v>
+      </c>
+      <c r="E55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F55">
+        <v>0.13938357790758418</v>
+      </c>
+      <c r="G55">
+        <v>4.4403286318089E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>12397</v>
+      </c>
+      <c r="E56" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56">
+        <v>0.111397918851335</v>
+      </c>
+      <c r="G56">
+        <v>6.3805759457933375E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17220656-3589-41C1-B6F9-BA4AD71EC577}">
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2">
+        <v>319</v>
+      </c>
+      <c r="C2">
+        <v>347</v>
+      </c>
+      <c r="D2">
+        <v>4622</v>
+      </c>
+      <c r="F2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G2">
+        <v>6.9017741237559493E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.5075724794461271E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>988</v>
+      </c>
+      <c r="C3">
+        <v>511</v>
+      </c>
+      <c r="D3">
+        <v>7977</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3">
+        <v>0.12385608624796289</v>
+      </c>
+      <c r="H3">
+        <v>6.4059170114077968E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B4">
+        <v>1571</v>
+      </c>
+      <c r="C4">
+        <v>2608</v>
+      </c>
+      <c r="D4">
+        <v>16109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4">
+        <v>9.7523123719659821E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.16189707616860141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5">
+        <v>1330</v>
+      </c>
+      <c r="C5">
+        <v>1369</v>
+      </c>
+      <c r="D5">
+        <v>12082</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5">
+        <v>0.1100811123986095</v>
+      </c>
+      <c r="H5">
+        <v>0.11330905479225294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B6">
+        <v>489</v>
+      </c>
+      <c r="C6">
+        <v>552</v>
+      </c>
+      <c r="D6">
+        <v>5927</v>
+      </c>
+      <c r="F6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6">
+        <v>8.250379618694112E-2</v>
+      </c>
+      <c r="H6">
+        <v>9.3133119622068494E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B7">
+        <v>531</v>
+      </c>
+      <c r="C7">
+        <v>508</v>
+      </c>
+      <c r="D7">
+        <v>5910</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7">
+        <v>8.9847715736040612E-2</v>
+      </c>
+      <c r="H7">
+        <v>8.5956006768189513E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8">
+        <v>613</v>
+      </c>
+      <c r="D8">
+        <v>9341</v>
+      </c>
+      <c r="F8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8">
+        <v>0.10759019376940371</v>
+      </c>
+      <c r="H8">
+        <v>6.5624665453377584E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9">
+        <v>602</v>
+      </c>
+      <c r="C9">
+        <v>489</v>
+      </c>
+      <c r="D9">
+        <v>6440</v>
+      </c>
+      <c r="F9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G9">
+        <v>9.3478260869565219E-2</v>
+      </c>
+      <c r="H9">
+        <v>7.5931677018633542E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10">
+        <v>736</v>
+      </c>
+      <c r="C10">
+        <v>491</v>
+      </c>
+      <c r="D10">
+        <v>6836</v>
+      </c>
+      <c r="F10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10">
+        <v>0.10766530134581627</v>
+      </c>
+      <c r="H10">
+        <v>7.1825629022820359E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11">
+        <v>354</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>5305</v>
+      </c>
+      <c r="F11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11">
+        <v>6.6729500471253533E-2</v>
+      </c>
+      <c r="H11">
+        <v>7.5400565504241276E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12">
+        <v>1274</v>
+      </c>
+      <c r="C12">
+        <v>521</v>
+      </c>
+      <c r="D12">
+        <v>6718</v>
+      </c>
+      <c r="F12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12">
+        <v>0.18963977374218519</v>
+      </c>
+      <c r="H12">
+        <v>7.7552843108067884E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13">
+        <v>363</v>
+      </c>
+      <c r="C13">
+        <v>538</v>
+      </c>
+      <c r="D13">
+        <v>4935</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13">
+        <v>7.3556231003039513E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.10901722391084093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14">
+        <v>277</v>
+      </c>
+      <c r="C14">
+        <v>667</v>
+      </c>
+      <c r="D14">
+        <v>4135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14">
+        <v>6.6989117291414754E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.16130592503022975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15">
+        <v>1030</v>
+      </c>
+      <c r="C15">
+        <v>556</v>
+      </c>
+      <c r="D15">
+        <v>4707</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15">
+        <v>0.21882302953048652</v>
+      </c>
+      <c r="H15">
+        <v>0.11812194603781602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16">
+        <v>290</v>
+      </c>
+      <c r="C16">
+        <v>373</v>
+      </c>
+      <c r="D16">
+        <v>3519</v>
+      </c>
+      <c r="F16" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16">
+        <v>8.2409775504404661E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.10599602159704462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17">
+        <v>302</v>
+      </c>
+      <c r="C17">
+        <v>340</v>
+      </c>
+      <c r="D17">
+        <v>3546</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17">
+        <v>8.5166384658770439E-2</v>
+      </c>
+      <c r="H17">
+        <v>9.5882684715172029E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18">
+        <v>293</v>
+      </c>
+      <c r="C18">
+        <v>406</v>
+      </c>
+      <c r="D18">
+        <v>3963</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18">
+        <v>7.3933888468332071E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.10244764067625536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19">
+        <v>356</v>
+      </c>
+      <c r="C19">
+        <v>605</v>
+      </c>
+      <c r="D19">
+        <v>4145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19">
+        <v>8.5886610373944516E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.14595898673100122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20">
+        <v>621</v>
+      </c>
+      <c r="C20">
+        <v>443</v>
+      </c>
+      <c r="D20">
+        <v>4333</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20">
+        <v>0.14331871682437111</v>
+      </c>
+      <c r="H20">
+        <v>0.102238633741057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>321</v>
+      </c>
+      <c r="C21">
+        <v>630</v>
+      </c>
+      <c r="D21">
+        <v>4228</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21">
+        <v>7.5922421948912008E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.1490066225165563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22">
+        <v>340</v>
+      </c>
+      <c r="C22">
+        <v>446</v>
+      </c>
+      <c r="D22">
+        <v>4313</v>
+      </c>
+      <c r="F22" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22">
+        <v>7.883143983306283E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.10340830048690007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23">
+        <v>376</v>
+      </c>
+      <c r="C23">
+        <v>621</v>
+      </c>
+      <c r="D23">
+        <v>4124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G23">
+        <v>9.1173617846750724E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.15058195926285159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24">
+        <v>375</v>
+      </c>
+      <c r="C24">
+        <v>364</v>
+      </c>
+      <c r="D24">
+        <v>3405</v>
+      </c>
+      <c r="F24" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24">
+        <v>0.11013215859030837</v>
+      </c>
+      <c r="H24">
+        <v>0.10690161527165933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25">
+        <v>371</v>
+      </c>
+      <c r="C25">
+        <v>792</v>
+      </c>
+      <c r="D25">
+        <v>5292</v>
+      </c>
+      <c r="F25" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25">
+        <v>7.0105820105820102E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.14965986394557823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26">
+        <v>934</v>
+      </c>
+      <c r="C26">
+        <v>1808</v>
+      </c>
+      <c r="D26">
+        <v>10035</v>
+      </c>
+      <c r="F26" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26">
+        <v>9.3074240159441948E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.18016940707523668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27">
+        <v>371</v>
+      </c>
+      <c r="C27">
+        <v>625</v>
+      </c>
+      <c r="D27">
+        <v>3935</v>
+      </c>
+      <c r="F27" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27">
+        <v>9.4282083862770011E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.15883100381194409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28">
+        <v>240</v>
+      </c>
+      <c r="C28">
+        <v>313</v>
+      </c>
+      <c r="D28">
+        <v>3491</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28">
+        <v>6.8748209682039527E-2</v>
+      </c>
+      <c r="H28">
+        <v>8.9659123460326548E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29">
+        <v>433</v>
+      </c>
+      <c r="C29">
+        <v>845</v>
+      </c>
+      <c r="D29">
+        <v>5455</v>
+      </c>
+      <c r="F29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29">
+        <v>7.9376718606782762E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.15490375802016498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B30">
+        <v>860</v>
+      </c>
+      <c r="C30">
+        <v>813</v>
+      </c>
+      <c r="D30">
+        <v>9613</v>
+      </c>
+      <c r="F30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30">
+        <v>8.9462186622282322E-2</v>
+      </c>
+      <c r="H30">
+        <v>8.4572974097576192E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>160</v>
+      </c>
+      <c r="B31">
+        <v>1812</v>
+      </c>
+      <c r="C31">
+        <v>563</v>
+      </c>
+      <c r="D31">
+        <v>7690</v>
+      </c>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31">
+        <v>0.23563068920676203</v>
+      </c>
+      <c r="H31">
+        <v>7.3211963589076723E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B32">
+        <v>507</v>
+      </c>
+      <c r="C32">
+        <v>446</v>
+      </c>
+      <c r="D32">
+        <v>5114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32">
+        <v>9.9139616738365272E-2</v>
+      </c>
+      <c r="H32">
+        <v>8.7211576065701998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33">
+        <v>398</v>
+      </c>
+      <c r="C33">
+        <v>737</v>
+      </c>
+      <c r="D33">
+        <v>5104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33">
+        <v>7.7978056426332293E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.14439655172413793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34">
+        <v>2269</v>
+      </c>
+      <c r="C34">
+        <v>1039</v>
+      </c>
+      <c r="D34">
+        <v>21924</v>
+      </c>
+      <c r="F34" t="s">
+        <v>163</v>
+      </c>
+      <c r="G34">
+        <v>0.1034938879766466</v>
+      </c>
+      <c r="H34">
+        <v>4.7390987046159461E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35">
+        <v>494</v>
+      </c>
+      <c r="C35">
+        <v>790</v>
+      </c>
+      <c r="D35">
+        <v>7997</v>
+      </c>
+      <c r="F35" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35">
+        <v>6.1773164936851317E-2</v>
+      </c>
+      <c r="H35">
+        <v>9.8787045141928223E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36">
+        <v>881</v>
+      </c>
+      <c r="C36">
+        <v>446</v>
+      </c>
+      <c r="D36">
+        <v>11396</v>
+      </c>
+      <c r="F36" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36">
+        <v>7.7307827307827301E-2</v>
+      </c>
+      <c r="H36">
+        <v>3.9136539136539139E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37">
+        <v>421</v>
+      </c>
+      <c r="C37">
+        <v>364</v>
+      </c>
+      <c r="D37">
+        <v>4652</v>
+      </c>
+      <c r="F37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37">
+        <v>9.0498710232158205E-2</v>
+      </c>
+      <c r="H37">
+        <v>7.8245915735167676E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38">
+        <v>410</v>
+      </c>
+      <c r="C38">
+        <v>407</v>
+      </c>
+      <c r="D38">
+        <v>5851</v>
+      </c>
+      <c r="F38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38">
+        <v>7.0073491710818669E-2</v>
+      </c>
+      <c r="H38">
+        <v>6.956075884464194E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39">
+        <v>433</v>
+      </c>
+      <c r="C39">
+        <v>832</v>
+      </c>
+      <c r="D39">
+        <v>6064</v>
+      </c>
+      <c r="F39" t="s">
+        <v>168</v>
+      </c>
+      <c r="G39">
+        <v>7.1405013192612138E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.13720316622691292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40">
+        <v>391</v>
+      </c>
+      <c r="C40">
+        <v>1303</v>
+      </c>
+      <c r="D40">
+        <v>7593</v>
+      </c>
+      <c r="F40" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40">
+        <v>5.1494797840115895E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.17160542605030948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41">
+        <v>298</v>
+      </c>
+      <c r="C41">
+        <v>905</v>
+      </c>
+      <c r="D41">
+        <v>4766</v>
+      </c>
+      <c r="F41" t="s">
+        <v>170</v>
+      </c>
+      <c r="G41">
+        <v>6.2526227444397814E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.18988669744020142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42">
+        <v>191</v>
+      </c>
+      <c r="C42">
+        <v>560</v>
+      </c>
+      <c r="D42">
+        <v>3890</v>
+      </c>
+      <c r="F42" t="s">
+        <v>171</v>
+      </c>
+      <c r="G42">
+        <v>4.9100257069408737E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.14395886889460155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43">
+        <v>380</v>
+      </c>
+      <c r="C43">
+        <v>859</v>
+      </c>
+      <c r="D43">
+        <v>5833</v>
+      </c>
+      <c r="F43" t="s">
+        <v>172</v>
+      </c>
+      <c r="G43">
+        <v>6.5146579804560262E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.14726555803188754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44">
+        <v>518</v>
+      </c>
+      <c r="C44">
+        <v>826</v>
+      </c>
+      <c r="D44">
+        <v>4335</v>
+      </c>
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44">
+        <v>0.11949250288350634</v>
+      </c>
+      <c r="H44">
+        <v>0.19054209919261822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45">
+        <v>349</v>
+      </c>
+      <c r="C45">
+        <v>569</v>
+      </c>
+      <c r="D45">
+        <v>4284</v>
+      </c>
+      <c r="F45" t="s">
+        <v>174</v>
+      </c>
+      <c r="G45">
+        <v>8.1465919701213821E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.13281979458450047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B46">
+        <v>344</v>
+      </c>
+      <c r="C46">
+        <v>366</v>
+      </c>
+      <c r="D46">
+        <v>3679</v>
+      </c>
+      <c r="F46" t="s">
+        <v>175</v>
+      </c>
+      <c r="G46">
+        <v>9.3503669475400925E-2</v>
+      </c>
+      <c r="H46">
+        <v>9.9483555313944011E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>176</v>
+      </c>
+      <c r="B47">
+        <v>405</v>
+      </c>
+      <c r="C47">
+        <v>664</v>
+      </c>
+      <c r="D47">
+        <v>3907</v>
+      </c>
+      <c r="F47" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47">
+        <v>0.10366009726132583</v>
+      </c>
+      <c r="H47">
+        <v>0.16995136933708727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B48">
+        <v>299</v>
+      </c>
+      <c r="C48">
+        <v>1465</v>
+      </c>
+      <c r="D48">
+        <v>7200</v>
+      </c>
+      <c r="F48" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48">
+        <v>4.1527777777777775E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.20347222222222222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>178</v>
+      </c>
+      <c r="B49">
+        <v>426</v>
+      </c>
+      <c r="C49">
+        <v>721</v>
+      </c>
+      <c r="D49">
+        <v>5551</v>
+      </c>
+      <c r="F49" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49">
+        <v>7.6742929201945601E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.12988650693568726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50">
+        <v>187</v>
+      </c>
+      <c r="C50">
+        <v>571</v>
+      </c>
+      <c r="D50">
+        <v>4379</v>
+      </c>
+      <c r="F50" t="s">
+        <v>179</v>
+      </c>
+      <c r="G50">
+        <v>4.2703813656085866E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.13039506736697876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>180</v>
+      </c>
+      <c r="B51">
+        <v>211</v>
+      </c>
+      <c r="C51">
+        <v>679</v>
+      </c>
+      <c r="D51">
+        <v>3426</v>
+      </c>
+      <c r="F51" t="s">
+        <v>180</v>
+      </c>
+      <c r="G51">
+        <v>6.1587857559836541E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.19819030939871571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>181</v>
+      </c>
+      <c r="B52">
+        <v>198</v>
+      </c>
+      <c r="C52">
+        <v>607</v>
+      </c>
+      <c r="D52">
+        <v>3741</v>
+      </c>
+      <c r="F52" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52">
+        <v>5.2927024859663191E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.16225608126169475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>182</v>
+      </c>
+      <c r="B53">
+        <v>201</v>
+      </c>
+      <c r="C53">
+        <v>520</v>
+      </c>
+      <c r="D53">
+        <v>3701</v>
+      </c>
+      <c r="F53" t="s">
+        <v>182</v>
+      </c>
+      <c r="G53">
+        <v>5.4309646041610378E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.14050256687381787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54">
+        <v>148</v>
+      </c>
+      <c r="C54">
+        <v>444</v>
+      </c>
+      <c r="D54">
+        <v>4400</v>
+      </c>
+      <c r="F54" t="s">
+        <v>183</v>
+      </c>
+      <c r="G54">
+        <v>3.3636363636363638E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.10090909090909091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55">
+        <v>285</v>
+      </c>
+      <c r="C55">
+        <v>838</v>
+      </c>
+      <c r="D55">
+        <v>5655</v>
+      </c>
+      <c r="F55" t="s">
+        <v>184</v>
+      </c>
+      <c r="G55">
+        <v>5.0397877984084884E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.14818744473916887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56">
+        <v>203</v>
+      </c>
+      <c r="C56">
+        <v>487</v>
+      </c>
+      <c r="D56">
+        <v>3482</v>
+      </c>
+      <c r="F56" t="s">
+        <v>185</v>
+      </c>
+      <c r="G56">
+        <v>5.8299827685238371E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.13986214819069501</v>
       </c>
     </row>
   </sheetData>

--- a/Web Scraping/Pie Charts Colombia/Histórico_Pie_Charts.xlsx
+++ b/Web Scraping/Pie Charts Colombia/Histórico_Pie_Charts.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\Barómetro\BX\Web Scraping\Pie Charts Colombia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0B498-2934-4BD7-AD1E-6ABAA97B9526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62081429-8B39-43B2-95A3-CE8F2A6F46FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Pie Charts" sheetId="1" r:id="rId1"/>
-    <sheet name="Tasas" sheetId="2" r:id="rId2"/>
-    <sheet name="Colombia" sheetId="3" r:id="rId3"/>
-    <sheet name="Ecuador" sheetId="4" r:id="rId4"/>
+    <sheet name="Pie Charts Colombia" sheetId="1" r:id="rId1"/>
+    <sheet name="Pie Charts Ecuador" sheetId="5" r:id="rId2"/>
+    <sheet name="Ecuador" sheetId="4" r:id="rId3"/>
+    <sheet name="Tasas" sheetId="2" r:id="rId4"/>
+    <sheet name="Colombia" sheetId="3" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="133">
   <si>
     <t xml:space="preserve">Educación </t>
   </si>
@@ -248,177 +249,6 @@
     <t>2022-01-12 - 2022-01-26</t>
   </si>
   <si>
-    <t>Uncategorised</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa xenofobia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa Integracion </t>
-  </si>
-  <si>
-    <t>2020-01-13 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-01-27 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-02-10 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-02-24 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-03-09 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-03-23 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-04-06 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-04-20 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-05-04 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-05-18 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-06-01 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-06-15 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-06-29 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-07-13 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-07-27 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-08-10 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-08-24 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-09-07 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-09-21 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-10-05 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-10-19 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-11-02 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-11-16 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-11-30 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-12-14 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2020-12-28 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-01-11 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-01-25 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-02-08 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-02-22 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-03-08 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-03-22 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-04-05 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-04-19 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-05-03 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-05-17 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-05-31 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-06-14 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-06-28 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-07-12 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-07-26 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-08-09 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-08-23 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-09-06 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-09-20 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-10-04 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-10-18 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-11-01 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-11-15 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-11-29 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-12-13 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2021-12-27 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2022-01-10 05:00:00.0</t>
-  </si>
-  <si>
-    <t>2022-01-24 05:00:00.0</t>
-  </si>
-  <si>
     <t>Xenofobia</t>
   </si>
   <si>
@@ -594,6 +424,18 @@
   </si>
   <si>
     <t>2022-01-31 05:00:00.0</t>
+  </si>
+  <si>
+    <t>Tasa xenofobia</t>
+  </si>
+  <si>
+    <t>Tasa integración</t>
+  </si>
+  <si>
+    <t>Educación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integración </t>
   </si>
 </sst>
 </file>
@@ -2051,6 +1893,1683 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tasa Integración y Xenofobia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Colombia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Colombia!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa xenofobia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Colombia!$A$2:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>2020-01-01 - 2020-01-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-01-15 - 2020-01-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-01-29 - 2020-02-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-02-12 - 2020-02-26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-26 - 2020-03-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-03-11 - 2020-03-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-03-25 - 2020-04-08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-04-08 - 2020-04-22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-04-22 - 2020-05-06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-05-06 - 2020-05-20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-05-20 - 2020-06-03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-06-03 - 2020-06-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-06-17 - 2020-07-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-07-01 - 2020-07-15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-07-15 - 2020-07-29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-07-29 - 2020-08-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-08-12 - 2020-08-26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-08-26 - 2020-09-09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-09-09 - 2020-09-23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-09-23 - 2020-10-07</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-10-07 - 2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-10-21 - 2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-11-04 - 2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-11-18 - 2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-12-02 - 2020-12-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-12-16 - 2020-12-30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-12-30 - 2021-01-13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021-01-13 - 2021-01-27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021-01-27 - 2021-02-10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021-02-10 - 2021-02-24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021-02-24 - 2021-03-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021-03-10 - 2021-03-24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021-03-24 - 2021-04-07</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021-04-07 - 2021-04-21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021-04-21 - 2021-05-05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021-05-05 - 2021-05-19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021-05-19 - 2021-06-02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2021-06-02 - 2021-06-16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021-06-16 - 2021-06-30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2021-06-30 - 2021-07-14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2021-07-14 - 2021-07-28</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2021-07-28 - 2021-08-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2021-08-11 - 2021-08-25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2021-08-25 - 2021-09-08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2021-09-08 - 2021-09-22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2021-09-22 - 2021-10-06</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2021-10-06 - 2021-10-20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2021-10-20 - 2021-11-03</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2021-11-03 - 2021-11-17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2021-11-17 - 2021-12-01</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2021-12-01 - 2021-12-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2021-12-15 - 2021-12-29</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2021-12-29 - 2022-01-12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2022-01-12 - 2022-01-26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colombia!$B$2:$B$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>0.16664368450082737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16130832775173029</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21550408176810248</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21184340931615461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17126789366053169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1683815692383373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11853247775577873</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11446153846153846</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17569420637641411</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1375409177051628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16007359705611776</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2243827160493827</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17495527728085869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16843907246978265</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13790078162386346</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17052512704686618</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16936658172551874</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.16083341886482602</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.21253152794371433</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.17936094217588569</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21908548707753478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.13580331461443637</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.14801587301587302</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15651638984093505</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.177576466004286</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.13508720070942951</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18700280112044818</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17091186958736629</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.13801281727809456</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.13054853843377842</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.13001090809926372</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.7165912607477922E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.12367737439016664</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.15029712776493892</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.15504891326593262</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.18893652494938667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.22985540696490395</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.22942466916707946</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.16899690344374591</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.10550482381468297</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.14353726994954877</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1662598507566776</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15885349497033788</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.13023147065700258</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.15897398739221796</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.26172442812332647</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.11614173228346457</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.16759963238365777</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.17732640529050545</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.14425126191811555</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.14931469547063628</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.17193867649912672</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.22743043262762869</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.1877387318563789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-933E-4037-A45D-0EED605B249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Colombia!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa integración</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Colombia!$A$2:$A$55</c:f>
+              <c:strCache>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>2020-01-01 - 2020-01-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2020-01-15 - 2020-01-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2020-01-29 - 2020-02-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020-02-12 - 2020-02-26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2020-02-26 - 2020-03-11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2020-03-11 - 2020-03-25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2020-03-25 - 2020-04-08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2020-04-08 - 2020-04-22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2020-04-22 - 2020-05-06</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2020-05-06 - 2020-05-20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020-05-20 - 2020-06-03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020-06-03 - 2020-06-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2020-06-17 - 2020-07-01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2020-07-01 - 2020-07-15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2020-07-15 - 2020-07-29</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2020-07-29 - 2020-08-12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2020-08-12 - 2020-08-26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2020-08-26 - 2020-09-09</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020-09-09 - 2020-09-23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2020-09-23 - 2020-10-07</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2020-10-07 - 2020-10-21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2020-10-21 - 2020-11-04</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2020-11-04 - 2020-11-18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2020-11-18 - 2020-12-02</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2020-12-02 - 2020-12-16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2020-12-16 - 2020-12-30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2020-12-30 - 2021-01-13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2021-01-13 - 2021-01-27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2021-01-27 - 2021-02-10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2021-02-10 - 2021-02-24</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2021-02-24 - 2021-03-10</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2021-03-10 - 2021-03-24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2021-03-24 - 2021-04-07</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2021-04-07 - 2021-04-21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2021-04-21 - 2021-05-05</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2021-05-05 - 2021-05-19</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2021-05-19 - 2021-06-02</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2021-06-02 - 2021-06-16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2021-06-16 - 2021-06-30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2021-06-30 - 2021-07-14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2021-07-14 - 2021-07-28</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2021-07-28 - 2021-08-11</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2021-08-11 - 2021-08-25</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2021-08-25 - 2021-09-08</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2021-09-08 - 2021-09-22</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2021-09-22 - 2021-10-06</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2021-10-06 - 2021-10-20</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2021-10-20 - 2021-11-03</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2021-11-03 - 2021-11-17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2021-11-17 - 2021-12-01</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2021-12-01 - 2021-12-15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2021-12-15 - 2021-12-29</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2021-12-29 - 2022-01-12</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2022-01-12 - 2022-01-26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Colombia!$C$2:$C$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>0.1953254274682846</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19987720473319937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13951018782770291</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12294350842418236</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12613204791118901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3914077232106254E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.15625819994752033</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12473372781065088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13347046051879785</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9071383449147196E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12858254900573207</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10586419753086419</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.11506261180679786</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12258131451989418</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5370872547455739E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.10408432147562582</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.1152165999271933</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6362516678641079E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.4273197929111912E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.10966309489332947</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13208747514910538</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.23642879970780259</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18690476190476191</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.15150716231654804</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13306058834989284</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5477386934673364E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8403361344537815E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.8451349974528781E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.21983650401170712</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18910140743413931</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.18611944368693756</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.23977123606949097</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.12969650890198314</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13379002971277648</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.0540706479472807E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.12945099440276289</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.10718892132238138</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.15271389144434222</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.12789715679834851</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.1858329463963267E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8590208200099487E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.14910384266685264</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.18425973690998196</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.10279791130854961</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.13564234475762627</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.14964425063116824</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.16200255373483721</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.10635809173698722</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.0018894662257908E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.10790802019068985</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.868112916401924E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.21928973413545508</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.5338100970048852E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.10103132161955691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-933E-4037-A45D-0EED605B249E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="138958416"/>
+        <c:axId val="606832768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="138958416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="606832768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606832768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138958416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tasa Integración y Xenofobia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Colombia</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Colombia!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa xenofobia </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Colombia!$W$2:$W$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0.11124312431243125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1983502582053858E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1292620865139949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15337059934105801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10429611219598793</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16129032258064516</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1568627450980397E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4555916937703276E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4427498442061067E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11273840357899693</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.11342592592592593</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13065205900725577</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.1108621425522834</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.502830372828421E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3286532629450752E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11377651702022694</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.10179837227618797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14243106359032076</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5869327772813026E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12684771399106223</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.13215388268819758</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12632637563368429</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.112055315106091</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10269372972157248</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.13895104513453038</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10155301058476487</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.11822420151694385</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.6976300735494417E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10605487398439893</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2679408582762357E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.8204148584954636E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.932452767095804E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.10716007069030151</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3262374702903786E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.1140578956491593</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.11450092377658819</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16464651461930441</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.10120292887029289</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.10085326619107568</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.9061197460169059E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.3193824404761904E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.1345534655143196</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.12070315047942078</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.1286869792616919</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.1286869792616919</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2410334058862495E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.16065102920057445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.223443927569106E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.110063510770641</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.11302888649166966</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8.0520640592101067E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.4701009578048145E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.12440715067493616</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.13938357790758418</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.111397918851335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C8D0-474A-9AAA-0F0084E17D25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>[1]Colombia!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tasa Integracion </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>[1]Colombia!$X$2:$X$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>0.11559955995599559</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12088864242886355</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.6793893129770993E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.1918705808314516E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.7431208947274991E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0881452050478711E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14587046939988116</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.8350429488783249E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6224212010889178E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.569343065693431E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7930911680911685E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6594108884724427E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.4186939820742643E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.239703298848331E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5939570931146805E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8194375925012327E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2746127592543971E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.7608328643781651E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.6668652566775888E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.0351781826515418E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4236523391118502E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24308847977341297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10492980048559063</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.10495736814306195</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9148065273153966E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.845219503730696E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.2953865423422168E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.8730591119585944E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.17916013619413068</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.11756220699603318</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.25281867070866471</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.11423674970740678</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.8041557328763453E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.4478660741965486E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.9505402438319758E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.0590269553271119E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.807500123682779E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.10251046025104603</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9590152468876759E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1058003194265905E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.1008184523809521E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.10105631813816868</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.16851477398734591</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8.7575259989053092E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.7575259989053092E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.983912179426517E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>7.9463858305409293E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.4613817231171432E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.2742748641393309E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9682368452594987E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.6083710840298603E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.4354128915350764E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.12142770278487171</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.4403286318089E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3805759457933375E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8D0-474A-9AAA-0F0084E17D25}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="138958416"/>
+        <c:axId val="606832768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="138958416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="606832768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="606832768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138958416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2092,6 +3611,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3163,6 +4762,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3244,6 +5875,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>71120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A0ED561-788C-409F-8285-5C447B06052D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>535940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2A460C5-30B7-4F5D-9C7C-83004712FD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -3253,7 +5965,7 @@
       <sheetName val="Colombia"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="4">
           <cell r="R4" t="str">
@@ -4482,8 +7194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7254,6 +9966,3745 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED843D9-211D-45CC-AAED-66218BF07192}">
+  <dimension ref="A1:N55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>247</v>
+      </c>
+      <c r="C2">
+        <v>583</v>
+      </c>
+      <c r="D2">
+        <v>271</v>
+      </c>
+      <c r="E2">
+        <v>1353</v>
+      </c>
+      <c r="F2">
+        <v>3358</v>
+      </c>
+      <c r="G2">
+        <v>455</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="I2">
+        <v>7.3555687909469925E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.1736152471709351</v>
+      </c>
+      <c r="K2">
+        <v>8.0702799285288868E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.40291840381179272</v>
+      </c>
+      <c r="M2">
+        <v>0.1354973198332341</v>
+      </c>
+      <c r="N2">
+        <v>0.13371054198927931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>253</v>
+      </c>
+      <c r="C3">
+        <v>931</v>
+      </c>
+      <c r="D3">
+        <v>371</v>
+      </c>
+      <c r="E3">
+        <v>2953</v>
+      </c>
+      <c r="F3">
+        <v>6112</v>
+      </c>
+      <c r="G3">
+        <v>1048</v>
+      </c>
+      <c r="H3">
+        <v>556</v>
+      </c>
+      <c r="I3">
+        <v>4.1393979057591623E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.15232329842931941</v>
+      </c>
+      <c r="K3">
+        <v>6.0700261780104722E-2</v>
+      </c>
+      <c r="L3">
+        <v>0.48314790575916228</v>
+      </c>
+      <c r="M3">
+        <v>0.17146596858638741</v>
+      </c>
+      <c r="N3">
+        <v>9.0968586387434561E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>419</v>
+      </c>
+      <c r="C4">
+        <v>1694</v>
+      </c>
+      <c r="D4">
+        <v>334</v>
+      </c>
+      <c r="E4">
+        <v>9395</v>
+      </c>
+      <c r="F4">
+        <v>15686</v>
+      </c>
+      <c r="G4">
+        <v>976</v>
+      </c>
+      <c r="H4">
+        <v>2868</v>
+      </c>
+      <c r="I4">
+        <v>2.6711717455055461E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.10799438990182331</v>
+      </c>
+      <c r="K4">
+        <v>2.129287262527094E-2</v>
+      </c>
+      <c r="L4">
+        <v>0.59894173148030094</v>
+      </c>
+      <c r="M4">
+        <v>6.2221088869055211E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.18283819966849421</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>365</v>
+      </c>
+      <c r="C5">
+        <v>1281</v>
+      </c>
+      <c r="D5">
+        <v>416</v>
+      </c>
+      <c r="E5">
+        <v>3329</v>
+      </c>
+      <c r="F5">
+        <v>7260</v>
+      </c>
+      <c r="G5">
+        <v>555</v>
+      </c>
+      <c r="H5">
+        <v>1314</v>
+      </c>
+      <c r="I5">
+        <v>5.0275482093663913E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.17644628099173551</v>
+      </c>
+      <c r="K5">
+        <v>5.7300275482093661E-2</v>
+      </c>
+      <c r="L5">
+        <v>0.45853994490358119</v>
+      </c>
+      <c r="M5">
+        <v>7.6446280991735532E-2</v>
+      </c>
+      <c r="N5">
+        <v>0.18099173553719011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>629</v>
+      </c>
+      <c r="D6">
+        <v>651</v>
+      </c>
+      <c r="E6">
+        <v>1755</v>
+      </c>
+      <c r="F6">
+        <v>4140</v>
+      </c>
+      <c r="G6">
+        <v>318</v>
+      </c>
+      <c r="H6">
+        <v>587</v>
+      </c>
+      <c r="I6">
+        <v>4.8309178743961352E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.15193236714975841</v>
+      </c>
+      <c r="K6">
+        <v>0.1572463768115942</v>
+      </c>
+      <c r="L6">
+        <v>0.42391304347826092</v>
+      </c>
+      <c r="M6">
+        <v>7.6811594202898556E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.14178743961352661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <v>176</v>
+      </c>
+      <c r="C7">
+        <v>536</v>
+      </c>
+      <c r="D7">
+        <v>1991</v>
+      </c>
+      <c r="E7">
+        <v>775</v>
+      </c>
+      <c r="F7">
+        <v>4194</v>
+      </c>
+      <c r="G7">
+        <v>235</v>
+      </c>
+      <c r="H7">
+        <v>481</v>
+      </c>
+      <c r="I7">
+        <v>4.196471149260849E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.12780162136385309</v>
+      </c>
+      <c r="K7">
+        <v>0.47472579876013349</v>
+      </c>
+      <c r="L7">
+        <v>0.1847877920839294</v>
+      </c>
+      <c r="M7">
+        <v>5.6032427277062473E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.114687649022413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>160</v>
+      </c>
+      <c r="C8">
+        <v>1047</v>
+      </c>
+      <c r="D8">
+        <v>2528</v>
+      </c>
+      <c r="E8">
+        <v>1586</v>
+      </c>
+      <c r="F8">
+        <v>6392</v>
+      </c>
+      <c r="G8">
+        <v>426</v>
+      </c>
+      <c r="H8">
+        <v>645</v>
+      </c>
+      <c r="I8">
+        <v>2.503128911138924E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.16379849812265329</v>
+      </c>
+      <c r="K8">
+        <v>0.39549436795994991</v>
+      </c>
+      <c r="L8">
+        <v>0.24812265331664579</v>
+      </c>
+      <c r="M8">
+        <v>6.6645807259073847E-2</v>
+      </c>
+      <c r="N8">
+        <v>0.1009073842302879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>173</v>
+      </c>
+      <c r="C9">
+        <v>594</v>
+      </c>
+      <c r="D9">
+        <v>1696</v>
+      </c>
+      <c r="E9">
+        <v>1263</v>
+      </c>
+      <c r="F9">
+        <v>4619</v>
+      </c>
+      <c r="G9">
+        <v>356</v>
+      </c>
+      <c r="H9">
+        <v>537</v>
+      </c>
+      <c r="I9">
+        <v>3.7453994371075987E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.1285992639099372</v>
+      </c>
+      <c r="K9">
+        <v>0.36717904308291838</v>
+      </c>
+      <c r="L9">
+        <v>0.27343580861658368</v>
+      </c>
+      <c r="M9">
+        <v>7.7072959515046544E-2</v>
+      </c>
+      <c r="N9">
+        <v>0.1162589305044382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>142</v>
+      </c>
+      <c r="C10">
+        <v>788</v>
+      </c>
+      <c r="D10">
+        <v>1288</v>
+      </c>
+      <c r="E10">
+        <v>1192</v>
+      </c>
+      <c r="F10">
+        <v>4211</v>
+      </c>
+      <c r="G10">
+        <v>341</v>
+      </c>
+      <c r="H10">
+        <v>460</v>
+      </c>
+      <c r="I10">
+        <v>3.3721206364284023E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.18712894799335081</v>
+      </c>
+      <c r="K10">
+        <v>0.30586559012111142</v>
+      </c>
+      <c r="L10">
+        <v>0.28306815483258141</v>
+      </c>
+      <c r="M10">
+        <v>8.0978389931132752E-2</v>
+      </c>
+      <c r="N10">
+        <v>0.1092377107575398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>145</v>
+      </c>
+      <c r="C11">
+        <v>350</v>
+      </c>
+      <c r="D11">
+        <v>1455</v>
+      </c>
+      <c r="E11">
+        <v>1167</v>
+      </c>
+      <c r="F11">
+        <v>3835</v>
+      </c>
+      <c r="G11">
+        <v>272</v>
+      </c>
+      <c r="H11">
+        <v>446</v>
+      </c>
+      <c r="I11">
+        <v>3.7809647979139507E-2</v>
+      </c>
+      <c r="J11">
+        <v>9.126466753585398E-2</v>
+      </c>
+      <c r="K11">
+        <v>0.37940026075619299</v>
+      </c>
+      <c r="L11">
+        <v>0.30430247718383308</v>
+      </c>
+      <c r="M11">
+        <v>7.0925684485006524E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.1162972620599739</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>285</v>
+      </c>
+      <c r="C12">
+        <v>1331</v>
+      </c>
+      <c r="D12">
+        <v>1283</v>
+      </c>
+      <c r="E12">
+        <v>977</v>
+      </c>
+      <c r="F12">
+        <v>4778</v>
+      </c>
+      <c r="G12">
+        <v>282</v>
+      </c>
+      <c r="H12">
+        <v>620</v>
+      </c>
+      <c r="I12">
+        <v>5.9648388447048978E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.27856843867727082</v>
+      </c>
+      <c r="K12">
+        <v>0.26852239430724151</v>
+      </c>
+      <c r="L12">
+        <v>0.20447886144830471</v>
+      </c>
+      <c r="M12">
+        <v>5.9020510673922152E-2</v>
+      </c>
+      <c r="N12">
+        <v>0.12976140644621181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>342</v>
+      </c>
+      <c r="C13">
+        <v>347</v>
+      </c>
+      <c r="D13">
+        <v>940</v>
+      </c>
+      <c r="E13">
+        <v>646</v>
+      </c>
+      <c r="F13">
+        <v>2965</v>
+      </c>
+      <c r="G13">
+        <v>184</v>
+      </c>
+      <c r="H13">
+        <v>506</v>
+      </c>
+      <c r="I13">
+        <v>0.1153456998313659</v>
+      </c>
+      <c r="J13">
+        <v>0.1170320404721754</v>
+      </c>
+      <c r="K13">
+        <v>0.31703204047217542</v>
+      </c>
+      <c r="L13">
+        <v>0.2178752107925801</v>
+      </c>
+      <c r="M13">
+        <v>6.2057335581787519E-2</v>
+      </c>
+      <c r="N13">
+        <v>0.1706576728499157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>131</v>
+      </c>
+      <c r="C14">
+        <v>323</v>
+      </c>
+      <c r="D14">
+        <v>386</v>
+      </c>
+      <c r="E14">
+        <v>422</v>
+      </c>
+      <c r="F14">
+        <v>2168</v>
+      </c>
+      <c r="G14">
+        <v>232</v>
+      </c>
+      <c r="H14">
+        <v>674</v>
+      </c>
+      <c r="I14">
+        <v>6.0424354243542443E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.1489852398523985</v>
+      </c>
+      <c r="K14">
+        <v>0.1780442804428044</v>
+      </c>
+      <c r="L14">
+        <v>0.19464944649446489</v>
+      </c>
+      <c r="M14">
+        <v>0.1070110701107011</v>
+      </c>
+      <c r="N14">
+        <v>0.31088560885608862</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>135</v>
+      </c>
+      <c r="C15">
+        <v>1039</v>
+      </c>
+      <c r="D15">
+        <v>499</v>
+      </c>
+      <c r="E15">
+        <v>762</v>
+      </c>
+      <c r="F15">
+        <v>3290</v>
+      </c>
+      <c r="G15">
+        <v>218</v>
+      </c>
+      <c r="H15">
+        <v>637</v>
+      </c>
+      <c r="I15">
+        <v>4.1033434650455933E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.31580547112461999</v>
+      </c>
+      <c r="K15">
+        <v>0.15167173252279639</v>
+      </c>
+      <c r="L15">
+        <v>0.23161094224924009</v>
+      </c>
+      <c r="M15">
+        <v>6.62613981762918E-2</v>
+      </c>
+      <c r="N15">
+        <v>0.19361702127659569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>387</v>
+      </c>
+      <c r="C16">
+        <v>325</v>
+      </c>
+      <c r="D16">
+        <v>558</v>
+      </c>
+      <c r="E16">
+        <v>463</v>
+      </c>
+      <c r="F16">
+        <v>2387</v>
+      </c>
+      <c r="G16">
+        <v>281</v>
+      </c>
+      <c r="H16">
+        <v>373</v>
+      </c>
+      <c r="I16">
+        <v>0.16212819438625889</v>
+      </c>
+      <c r="J16">
+        <v>0.13615416841223291</v>
+      </c>
+      <c r="K16">
+        <v>0.23376623376623379</v>
+      </c>
+      <c r="L16">
+        <v>0.19396732299958111</v>
+      </c>
+      <c r="M16">
+        <v>0.1177209886887306</v>
+      </c>
+      <c r="N16">
+        <v>0.15626309174696271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>140</v>
+      </c>
+      <c r="C17">
+        <v>284</v>
+      </c>
+      <c r="D17">
+        <v>296</v>
+      </c>
+      <c r="E17">
+        <v>982</v>
+      </c>
+      <c r="F17">
+        <v>2237</v>
+      </c>
+      <c r="G17">
+        <v>196</v>
+      </c>
+      <c r="H17">
+        <v>339</v>
+      </c>
+      <c r="I17">
+        <v>6.258381761287439E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.1269557443004023</v>
+      </c>
+      <c r="K17">
+        <v>0.13232007152436301</v>
+      </c>
+      <c r="L17">
+        <v>0.43898077782744749</v>
+      </c>
+      <c r="M17">
+        <v>8.7617344658024135E-2</v>
+      </c>
+      <c r="N17">
+        <v>0.15154224407688871</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <v>187</v>
+      </c>
+      <c r="C18">
+        <v>309</v>
+      </c>
+      <c r="D18">
+        <v>341</v>
+      </c>
+      <c r="E18">
+        <v>545</v>
+      </c>
+      <c r="F18">
+        <v>2413</v>
+      </c>
+      <c r="G18">
+        <v>409</v>
+      </c>
+      <c r="H18">
+        <v>622</v>
+      </c>
+      <c r="I18">
+        <v>7.749689183588894E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.12805636137588061</v>
+      </c>
+      <c r="K18">
+        <v>0.14131786158309159</v>
+      </c>
+      <c r="L18">
+        <v>0.2258599254040613</v>
+      </c>
+      <c r="M18">
+        <v>0.16949854952341481</v>
+      </c>
+      <c r="N18">
+        <v>0.25777041027766268</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <v>133</v>
+      </c>
+      <c r="C19">
+        <v>371</v>
+      </c>
+      <c r="D19">
+        <v>343</v>
+      </c>
+      <c r="E19">
+        <v>536</v>
+      </c>
+      <c r="F19">
+        <v>2149</v>
+      </c>
+      <c r="G19">
+        <v>273</v>
+      </c>
+      <c r="H19">
+        <v>493</v>
+      </c>
+      <c r="I19">
+        <v>6.1889250814332247E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.17263843648208471</v>
+      </c>
+      <c r="K19">
+        <v>0.1596091205211726</v>
+      </c>
+      <c r="L19">
+        <v>0.24941833410888789</v>
+      </c>
+      <c r="M19">
+        <v>0.12703583061889251</v>
+      </c>
+      <c r="N19">
+        <v>0.2294090274546301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>187</v>
+      </c>
+      <c r="C20">
+        <v>647</v>
+      </c>
+      <c r="D20">
+        <v>403</v>
+      </c>
+      <c r="E20">
+        <v>867</v>
+      </c>
+      <c r="F20">
+        <v>2859</v>
+      </c>
+      <c r="G20">
+        <v>160</v>
+      </c>
+      <c r="H20">
+        <v>595</v>
+      </c>
+      <c r="I20">
+        <v>6.5407485134662463E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.2263029031129766</v>
+      </c>
+      <c r="K20">
+        <v>0.14095837705491429</v>
+      </c>
+      <c r="L20">
+        <v>0.30325288562434422</v>
+      </c>
+      <c r="M20">
+        <v>5.5963623644630991E-2</v>
+      </c>
+      <c r="N20">
+        <v>0.20811472542847151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>205</v>
+      </c>
+      <c r="C21">
+        <v>360</v>
+      </c>
+      <c r="D21">
+        <v>421</v>
+      </c>
+      <c r="E21">
+        <v>822</v>
+      </c>
+      <c r="F21">
+        <v>2617</v>
+      </c>
+      <c r="G21">
+        <v>237</v>
+      </c>
+      <c r="H21">
+        <v>572</v>
+      </c>
+      <c r="I21">
+        <v>7.8333970194879629E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.13756209400076419</v>
+      </c>
+      <c r="K21">
+        <v>0.1608712265953382</v>
+      </c>
+      <c r="L21">
+        <v>0.31410011463507831</v>
+      </c>
+      <c r="M21">
+        <v>9.0561711883836452E-2</v>
+      </c>
+      <c r="N21">
+        <v>0.21857088269010319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <v>143</v>
+      </c>
+      <c r="C22">
+        <v>374</v>
+      </c>
+      <c r="D22">
+        <v>254</v>
+      </c>
+      <c r="E22">
+        <v>1062</v>
+      </c>
+      <c r="F22">
+        <v>2656</v>
+      </c>
+      <c r="G22">
+        <v>249</v>
+      </c>
+      <c r="H22">
+        <v>574</v>
+      </c>
+      <c r="I22">
+        <v>5.3840361445783143E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.1408132530120482</v>
+      </c>
+      <c r="K22">
+        <v>9.5632530120481923E-2</v>
+      </c>
+      <c r="L22">
+        <v>0.39984939759036142</v>
+      </c>
+      <c r="M22">
+        <v>9.375E-2</v>
+      </c>
+      <c r="N22">
+        <v>0.2161144578313253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <v>126</v>
+      </c>
+      <c r="C23">
+        <v>360</v>
+      </c>
+      <c r="D23">
+        <v>267</v>
+      </c>
+      <c r="E23">
+        <v>785</v>
+      </c>
+      <c r="F23">
+        <v>2407</v>
+      </c>
+      <c r="G23">
+        <v>330</v>
+      </c>
+      <c r="H23">
+        <v>539</v>
+      </c>
+      <c r="I23">
+        <v>5.2347320315745738E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.14956377233070209</v>
+      </c>
+      <c r="K23">
+        <v>0.1109264644786041</v>
+      </c>
+      <c r="L23">
+        <v>0.3261321146655588</v>
+      </c>
+      <c r="M23">
+        <v>0.13710012463647689</v>
+      </c>
+      <c r="N23">
+        <v>0.22393020357291241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <v>135</v>
+      </c>
+      <c r="C24">
+        <v>394</v>
+      </c>
+      <c r="D24">
+        <v>274</v>
+      </c>
+      <c r="E24">
+        <v>537</v>
+      </c>
+      <c r="F24">
+        <v>1982</v>
+      </c>
+      <c r="G24">
+        <v>241</v>
+      </c>
+      <c r="H24">
+        <v>401</v>
+      </c>
+      <c r="I24">
+        <v>6.8113017154389499E-2</v>
+      </c>
+      <c r="J24">
+        <v>0.1987891019172553</v>
+      </c>
+      <c r="K24">
+        <v>0.1382441977800202</v>
+      </c>
+      <c r="L24">
+        <v>0.27093844601412709</v>
+      </c>
+      <c r="M24">
+        <v>0.1215943491422805</v>
+      </c>
+      <c r="N24">
+        <v>0.20232088799192741</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <v>128</v>
+      </c>
+      <c r="C25">
+        <v>397</v>
+      </c>
+      <c r="D25">
+        <v>195</v>
+      </c>
+      <c r="E25">
+        <v>1466</v>
+      </c>
+      <c r="F25">
+        <v>3764</v>
+      </c>
+      <c r="G25">
+        <v>679</v>
+      </c>
+      <c r="H25">
+        <v>899</v>
+      </c>
+      <c r="I25">
+        <v>3.4006376195536661E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.10547290116896919</v>
+      </c>
+      <c r="K25">
+        <v>5.1806588735387883E-2</v>
+      </c>
+      <c r="L25">
+        <v>0.38947927736450583</v>
+      </c>
+      <c r="M25">
+        <v>0.18039319872476089</v>
+      </c>
+      <c r="N25">
+        <v>0.23884165781083949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>380</v>
+      </c>
+      <c r="C26">
+        <v>995</v>
+      </c>
+      <c r="D26">
+        <v>467</v>
+      </c>
+      <c r="E26">
+        <v>2311</v>
+      </c>
+      <c r="F26">
+        <v>6900</v>
+      </c>
+      <c r="G26">
+        <v>1136</v>
+      </c>
+      <c r="H26">
+        <v>1611</v>
+      </c>
+      <c r="I26">
+        <v>5.5072463768115941E-2</v>
+      </c>
+      <c r="J26">
+        <v>0.1442028985507246</v>
+      </c>
+      <c r="K26">
+        <v>6.7681159420289849E-2</v>
+      </c>
+      <c r="L26">
+        <v>0.33492753623188398</v>
+      </c>
+      <c r="M26">
+        <v>0.16463768115942029</v>
+      </c>
+      <c r="N26">
+        <v>0.23347826086956519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <v>128</v>
+      </c>
+      <c r="C27">
+        <v>360</v>
+      </c>
+      <c r="D27">
+        <v>464</v>
+      </c>
+      <c r="E27">
+        <v>788</v>
+      </c>
+      <c r="F27">
+        <v>2690</v>
+      </c>
+      <c r="G27">
+        <v>320</v>
+      </c>
+      <c r="H27">
+        <v>630</v>
+      </c>
+      <c r="I27">
+        <v>4.7583643122676579E-2</v>
+      </c>
+      <c r="J27">
+        <v>0.1338289962825279</v>
+      </c>
+      <c r="K27">
+        <v>0.17249070631970259</v>
+      </c>
+      <c r="L27">
+        <v>0.29293680297397767</v>
+      </c>
+      <c r="M27">
+        <v>0.1189591078066914</v>
+      </c>
+      <c r="N27">
+        <v>0.2342007434944238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <v>58</v>
+      </c>
+      <c r="C28">
+        <v>258</v>
+      </c>
+      <c r="D28">
+        <v>264</v>
+      </c>
+      <c r="E28">
+        <v>517</v>
+      </c>
+      <c r="F28">
+        <v>1566</v>
+      </c>
+      <c r="G28">
+        <v>135</v>
+      </c>
+      <c r="H28">
+        <v>334</v>
+      </c>
+      <c r="I28">
+        <v>3.7037037037037028E-2</v>
+      </c>
+      <c r="J28">
+        <v>0.1647509578544061</v>
+      </c>
+      <c r="K28">
+        <v>0.16858237547892721</v>
+      </c>
+      <c r="L28">
+        <v>0.33014048531289908</v>
+      </c>
+      <c r="M28">
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="N28">
+        <v>0.2132822477650064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <v>157</v>
+      </c>
+      <c r="C29">
+        <v>490</v>
+      </c>
+      <c r="D29">
+        <v>607</v>
+      </c>
+      <c r="E29">
+        <v>812</v>
+      </c>
+      <c r="F29">
+        <v>3493</v>
+      </c>
+      <c r="G29">
+        <v>528</v>
+      </c>
+      <c r="H29">
+        <v>899</v>
+      </c>
+      <c r="I29">
+        <v>4.4947036931004873E-2</v>
+      </c>
+      <c r="J29">
+        <v>0.14028056112224449</v>
+      </c>
+      <c r="K29">
+        <v>0.17377612367592329</v>
+      </c>
+      <c r="L29">
+        <v>0.23246492985971939</v>
+      </c>
+      <c r="M29">
+        <v>0.1511594617807043</v>
+      </c>
+      <c r="N29">
+        <v>0.25737188663040372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>309</v>
+      </c>
+      <c r="C30">
+        <v>982</v>
+      </c>
+      <c r="D30">
+        <v>585</v>
+      </c>
+      <c r="E30">
+        <v>1678</v>
+      </c>
+      <c r="F30">
+        <v>5339</v>
+      </c>
+      <c r="G30">
+        <v>898</v>
+      </c>
+      <c r="H30">
+        <v>887</v>
+      </c>
+      <c r="I30">
+        <v>5.7876006742835738E-2</v>
+      </c>
+      <c r="J30">
+        <v>0.1839295748267466</v>
+      </c>
+      <c r="K30">
+        <v>0.1095710807267278</v>
+      </c>
+      <c r="L30">
+        <v>0.31429106574264842</v>
+      </c>
+      <c r="M30">
+        <v>0.16819629144034459</v>
+      </c>
+      <c r="N30">
+        <v>0.16613598052069681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>1111</v>
+      </c>
+      <c r="C31">
+        <v>1787</v>
+      </c>
+      <c r="D31">
+        <v>464</v>
+      </c>
+      <c r="E31">
+        <v>2505</v>
+      </c>
+      <c r="F31">
+        <v>6904</v>
+      </c>
+      <c r="G31">
+        <v>441</v>
+      </c>
+      <c r="H31">
+        <v>596</v>
+      </c>
+      <c r="I31">
+        <v>0.16092120509849361</v>
+      </c>
+      <c r="J31">
+        <v>0.25883545770567778</v>
+      </c>
+      <c r="K31">
+        <v>6.7207415990730018E-2</v>
+      </c>
+      <c r="L31">
+        <v>0.36283314020857482</v>
+      </c>
+      <c r="M31">
+        <v>6.3876013904982612E-2</v>
+      </c>
+      <c r="N31">
+        <v>8.6326767091541134E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <v>190</v>
+      </c>
+      <c r="C32">
+        <v>477</v>
+      </c>
+      <c r="D32">
+        <v>335</v>
+      </c>
+      <c r="E32">
+        <v>803</v>
+      </c>
+      <c r="F32">
+        <v>2799</v>
+      </c>
+      <c r="G32">
+        <v>534</v>
+      </c>
+      <c r="H32">
+        <v>460</v>
+      </c>
+      <c r="I32">
+        <v>6.7881386209360489E-2</v>
+      </c>
+      <c r="J32">
+        <v>0.17041800643086821</v>
+      </c>
+      <c r="K32">
+        <v>0.1196856020007145</v>
+      </c>
+      <c r="L32">
+        <v>0.28688817434798142</v>
+      </c>
+      <c r="M32">
+        <v>0.19078242229367631</v>
+      </c>
+      <c r="N32">
+        <v>0.16434440871739911</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <v>185</v>
+      </c>
+      <c r="C33">
+        <v>518</v>
+      </c>
+      <c r="D33">
+        <v>492</v>
+      </c>
+      <c r="E33">
+        <v>998</v>
+      </c>
+      <c r="F33">
+        <v>3370</v>
+      </c>
+      <c r="G33">
+        <v>371</v>
+      </c>
+      <c r="H33">
+        <v>806</v>
+      </c>
+      <c r="I33">
+        <v>5.4896142433234422E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.15370919881305639</v>
+      </c>
+      <c r="K33">
+        <v>0.14599406528189909</v>
+      </c>
+      <c r="L33">
+        <v>0.29614243323442141</v>
+      </c>
+      <c r="M33">
+        <v>0.11008902077151329</v>
+      </c>
+      <c r="N33">
+        <v>0.2391691394658754</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <v>263</v>
+      </c>
+      <c r="C34">
+        <v>2207</v>
+      </c>
+      <c r="D34">
+        <v>2160</v>
+      </c>
+      <c r="E34">
+        <v>10187</v>
+      </c>
+      <c r="F34">
+        <v>17361</v>
+      </c>
+      <c r="G34">
+        <v>1515</v>
+      </c>
+      <c r="H34">
+        <v>1029</v>
+      </c>
+      <c r="I34">
+        <v>1.5148896952940499E-2</v>
+      </c>
+      <c r="J34">
+        <v>0.127124013593687</v>
+      </c>
+      <c r="K34">
+        <v>0.1244167962674961</v>
+      </c>
+      <c r="L34">
+        <v>0.58677495535971436</v>
+      </c>
+      <c r="M34">
+        <v>8.7264558493174355E-2</v>
+      </c>
+      <c r="N34">
+        <v>5.927077933298773E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <v>368</v>
+      </c>
+      <c r="C35">
+        <v>496</v>
+      </c>
+      <c r="D35">
+        <v>544</v>
+      </c>
+      <c r="E35">
+        <v>858</v>
+      </c>
+      <c r="F35">
+        <v>3406</v>
+      </c>
+      <c r="G35">
+        <v>335</v>
+      </c>
+      <c r="H35">
+        <v>805</v>
+      </c>
+      <c r="I35">
+        <v>0.1080446271285966</v>
+      </c>
+      <c r="J35">
+        <v>0.14562536699941281</v>
+      </c>
+      <c r="K35">
+        <v>0.15971814445096891</v>
+      </c>
+      <c r="L35">
+        <v>0.25190839694656492</v>
+      </c>
+      <c r="M35">
+        <v>9.8355842630651794E-2</v>
+      </c>
+      <c r="N35">
+        <v>0.23634762184380509</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>972</v>
+      </c>
+      <c r="C36">
+        <v>923</v>
+      </c>
+      <c r="D36">
+        <v>548</v>
+      </c>
+      <c r="E36">
+        <v>3232</v>
+      </c>
+      <c r="F36">
+        <v>6730</v>
+      </c>
+      <c r="G36">
+        <v>577</v>
+      </c>
+      <c r="H36">
+        <v>478</v>
+      </c>
+      <c r="I36">
+        <v>0.14442793462109951</v>
+      </c>
+      <c r="J36">
+        <v>0.13714710252600301</v>
+      </c>
+      <c r="K36">
+        <v>8.1426448736998516E-2</v>
+      </c>
+      <c r="L36">
+        <v>0.48023774145616638</v>
+      </c>
+      <c r="M36">
+        <v>8.573551263001486E-2</v>
+      </c>
+      <c r="N36">
+        <v>7.1025260029717679E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <v>719</v>
+      </c>
+      <c r="C37">
+        <v>407</v>
+      </c>
+      <c r="D37">
+        <v>297</v>
+      </c>
+      <c r="E37">
+        <v>995</v>
+      </c>
+      <c r="F37">
+        <v>2996</v>
+      </c>
+      <c r="G37">
+        <v>209</v>
+      </c>
+      <c r="H37">
+        <v>369</v>
+      </c>
+      <c r="I37">
+        <v>0.2399866488651535</v>
+      </c>
+      <c r="J37">
+        <v>0.1358477970627503</v>
+      </c>
+      <c r="K37">
+        <v>9.9132176234979968E-2</v>
+      </c>
+      <c r="L37">
+        <v>0.33210947930574097</v>
+      </c>
+      <c r="M37">
+        <v>6.9759679572763689E-2</v>
+      </c>
+      <c r="N37">
+        <v>0.1231642189586115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <v>357</v>
+      </c>
+      <c r="C38">
+        <v>420</v>
+      </c>
+      <c r="D38">
+        <v>305</v>
+      </c>
+      <c r="E38">
+        <v>1017</v>
+      </c>
+      <c r="F38">
+        <v>2870</v>
+      </c>
+      <c r="G38">
+        <v>315</v>
+      </c>
+      <c r="H38">
+        <v>456</v>
+      </c>
+      <c r="I38">
+        <v>0.124390243902439</v>
+      </c>
+      <c r="J38">
+        <v>0.14634146341463411</v>
+      </c>
+      <c r="K38">
+        <v>0.10627177700348429</v>
+      </c>
+      <c r="L38">
+        <v>0.35435540069686411</v>
+      </c>
+      <c r="M38">
+        <v>0.1097560975609756</v>
+      </c>
+      <c r="N38">
+        <v>0.1588850174216028</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <v>587</v>
+      </c>
+      <c r="C39">
+        <v>453</v>
+      </c>
+      <c r="D39">
+        <v>682</v>
+      </c>
+      <c r="E39">
+        <v>1835</v>
+      </c>
+      <c r="F39">
+        <v>5578</v>
+      </c>
+      <c r="G39">
+        <v>1098</v>
+      </c>
+      <c r="H39">
+        <v>923</v>
+      </c>
+      <c r="I39">
+        <v>0.10523485120114739</v>
+      </c>
+      <c r="J39">
+        <v>8.1211903908210828E-2</v>
+      </c>
+      <c r="K39">
+        <v>0.122266045177483</v>
+      </c>
+      <c r="L39">
+        <v>0.32897095733237719</v>
+      </c>
+      <c r="M39">
+        <v>0.19684474722122619</v>
+      </c>
+      <c r="N39">
+        <v>0.16547149515955539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <v>490</v>
+      </c>
+      <c r="C40">
+        <v>428</v>
+      </c>
+      <c r="D40">
+        <v>706</v>
+      </c>
+      <c r="E40">
+        <v>2548</v>
+      </c>
+      <c r="F40">
+        <v>7060</v>
+      </c>
+      <c r="G40">
+        <v>1435</v>
+      </c>
+      <c r="H40">
+        <v>1453</v>
+      </c>
+      <c r="I40">
+        <v>6.9405099150141647E-2</v>
+      </c>
+      <c r="J40">
+        <v>6.0623229461756377E-2</v>
+      </c>
+      <c r="K40">
+        <v>0.1</v>
+      </c>
+      <c r="L40">
+        <v>0.36090651558073661</v>
+      </c>
+      <c r="M40">
+        <v>0.20325779036827199</v>
+      </c>
+      <c r="N40">
+        <v>0.2058073654390935</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <v>168</v>
+      </c>
+      <c r="C41">
+        <v>317</v>
+      </c>
+      <c r="D41">
+        <v>321</v>
+      </c>
+      <c r="E41">
+        <v>1388</v>
+      </c>
+      <c r="F41">
+        <v>3534</v>
+      </c>
+      <c r="G41">
+        <v>480</v>
+      </c>
+      <c r="H41">
+        <v>860</v>
+      </c>
+      <c r="I41">
+        <v>4.7538200339558571E-2</v>
+      </c>
+      <c r="J41">
+        <v>8.9700056593095642E-2</v>
+      </c>
+      <c r="K41">
+        <v>9.0831918505942272E-2</v>
+      </c>
+      <c r="L41">
+        <v>0.39275608375778148</v>
+      </c>
+      <c r="M41">
+        <v>0.1358234295415959</v>
+      </c>
+      <c r="N41">
+        <v>0.243350311262026</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <v>130</v>
+      </c>
+      <c r="C42">
+        <v>206</v>
+      </c>
+      <c r="D42">
+        <v>376</v>
+      </c>
+      <c r="E42">
+        <v>934</v>
+      </c>
+      <c r="F42">
+        <v>2616</v>
+      </c>
+      <c r="G42">
+        <v>372</v>
+      </c>
+      <c r="H42">
+        <v>598</v>
+      </c>
+      <c r="I42">
+        <v>4.9694189602446481E-2</v>
+      </c>
+      <c r="J42">
+        <v>7.8746177370030576E-2</v>
+      </c>
+      <c r="K42">
+        <v>0.14373088685015289</v>
+      </c>
+      <c r="L42">
+        <v>0.35703363914373087</v>
+      </c>
+      <c r="M42">
+        <v>0.1422018348623853</v>
+      </c>
+      <c r="N42">
+        <v>0.2285932721712538</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <v>263</v>
+      </c>
+      <c r="C43">
+        <v>419</v>
+      </c>
+      <c r="D43">
+        <v>276</v>
+      </c>
+      <c r="E43">
+        <v>796</v>
+      </c>
+      <c r="F43">
+        <v>3319</v>
+      </c>
+      <c r="G43">
+        <v>623</v>
+      </c>
+      <c r="H43">
+        <v>942</v>
+      </c>
+      <c r="I43">
+        <v>7.9240735161193135E-2</v>
+      </c>
+      <c r="J43">
+        <v>0.1262428442301898</v>
+      </c>
+      <c r="K43">
+        <v>8.3157577583609518E-2</v>
+      </c>
+      <c r="L43">
+        <v>0.23983127448026509</v>
+      </c>
+      <c r="M43">
+        <v>0.18770714070503161</v>
+      </c>
+      <c r="N43">
+        <v>0.28382042783971068</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <v>394</v>
+      </c>
+      <c r="C44">
+        <v>578</v>
+      </c>
+      <c r="D44">
+        <v>722</v>
+      </c>
+      <c r="E44">
+        <v>698</v>
+      </c>
+      <c r="F44">
+        <v>4183</v>
+      </c>
+      <c r="G44">
+        <v>913</v>
+      </c>
+      <c r="H44">
+        <v>878</v>
+      </c>
+      <c r="I44">
+        <v>9.4190772173081527E-2</v>
+      </c>
+      <c r="J44">
+        <v>0.13817834090365769</v>
+      </c>
+      <c r="K44">
+        <v>0.1726033946928042</v>
+      </c>
+      <c r="L44">
+        <v>0.16686588572794639</v>
+      </c>
+      <c r="M44">
+        <v>0.21826440353813051</v>
+      </c>
+      <c r="N44">
+        <v>0.20989720296437961</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <v>522</v>
+      </c>
+      <c r="C45">
+        <v>377</v>
+      </c>
+      <c r="D45">
+        <v>309</v>
+      </c>
+      <c r="E45">
+        <v>795</v>
+      </c>
+      <c r="F45">
+        <v>2803</v>
+      </c>
+      <c r="G45">
+        <v>290</v>
+      </c>
+      <c r="H45">
+        <v>510</v>
+      </c>
+      <c r="I45">
+        <v>0.18622904031394941</v>
+      </c>
+      <c r="J45">
+        <v>0.1344987513378523</v>
+      </c>
+      <c r="K45">
+        <v>0.1102390296111309</v>
+      </c>
+      <c r="L45">
+        <v>0.2836246878344631</v>
+      </c>
+      <c r="M45">
+        <v>0.1034605779521941</v>
+      </c>
+      <c r="N45">
+        <v>0.1819479129504103</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <v>538</v>
+      </c>
+      <c r="C46">
+        <v>349</v>
+      </c>
+      <c r="D46">
+        <v>205</v>
+      </c>
+      <c r="E46">
+        <v>946</v>
+      </c>
+      <c r="F46">
+        <v>2899</v>
+      </c>
+      <c r="G46">
+        <v>361</v>
+      </c>
+      <c r="H46">
+        <v>500</v>
+      </c>
+      <c r="I46">
+        <v>0.18558123490858919</v>
+      </c>
+      <c r="J46">
+        <v>0.1203863401172818</v>
+      </c>
+      <c r="K46">
+        <v>7.0714039323904798E-2</v>
+      </c>
+      <c r="L46">
+        <v>0.3263194204898241</v>
+      </c>
+      <c r="M46">
+        <v>0.1245256985167299</v>
+      </c>
+      <c r="N46">
+        <v>0.17247326664367019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>160</v>
+      </c>
+      <c r="C47">
+        <v>480</v>
+      </c>
+      <c r="D47">
+        <v>229</v>
+      </c>
+      <c r="E47">
+        <v>970</v>
+      </c>
+      <c r="F47">
+        <v>3404</v>
+      </c>
+      <c r="G47">
+        <v>382</v>
+      </c>
+      <c r="H47">
+        <v>1183</v>
+      </c>
+      <c r="I47">
+        <v>4.700352526439483E-2</v>
+      </c>
+      <c r="J47">
+        <v>0.14101057579318449</v>
+      </c>
+      <c r="K47">
+        <v>6.7273795534665101E-2</v>
+      </c>
+      <c r="L47">
+        <v>0.28495887191539371</v>
+      </c>
+      <c r="M47">
+        <v>0.1122209165687427</v>
+      </c>
+      <c r="N47">
+        <v>0.34753231492361919</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48">
+        <v>137</v>
+      </c>
+      <c r="C48">
+        <v>391</v>
+      </c>
+      <c r="D48">
+        <v>230</v>
+      </c>
+      <c r="E48">
+        <v>2067</v>
+      </c>
+      <c r="F48">
+        <v>4303</v>
+      </c>
+      <c r="G48">
+        <v>350</v>
+      </c>
+      <c r="H48">
+        <v>1128</v>
+      </c>
+      <c r="I48">
+        <v>3.1838252382059028E-2</v>
+      </c>
+      <c r="J48">
+        <v>9.0866837090402039E-2</v>
+      </c>
+      <c r="K48">
+        <v>5.3451080641412969E-2</v>
+      </c>
+      <c r="L48">
+        <v>0.48036253776435051</v>
+      </c>
+      <c r="M48">
+        <v>8.1338600976063213E-2</v>
+      </c>
+      <c r="N48">
+        <v>0.26214269114571231</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <v>219</v>
+      </c>
+      <c r="C49">
+        <v>308</v>
+      </c>
+      <c r="D49">
+        <v>273</v>
+      </c>
+      <c r="E49">
+        <v>847</v>
+      </c>
+      <c r="F49">
+        <v>2736</v>
+      </c>
+      <c r="G49">
+        <v>491</v>
+      </c>
+      <c r="H49">
+        <v>598</v>
+      </c>
+      <c r="I49">
+        <v>8.0043859649122806E-2</v>
+      </c>
+      <c r="J49">
+        <v>0.1125730994152047</v>
+      </c>
+      <c r="K49">
+        <v>9.978070175438597E-2</v>
+      </c>
+      <c r="L49">
+        <v>0.30957602339181278</v>
+      </c>
+      <c r="M49">
+        <v>0.1794590643274854</v>
+      </c>
+      <c r="N49">
+        <v>0.2185672514619883</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>230</v>
+      </c>
+      <c r="C50">
+        <v>191</v>
+      </c>
+      <c r="D50">
+        <v>135</v>
+      </c>
+      <c r="E50">
+        <v>548</v>
+      </c>
+      <c r="F50">
+        <v>2003</v>
+      </c>
+      <c r="G50">
+        <v>303</v>
+      </c>
+      <c r="H50">
+        <v>596</v>
+      </c>
+      <c r="I50">
+        <v>0.1148277583624563</v>
+      </c>
+      <c r="J50">
+        <v>9.5356964553170248E-2</v>
+      </c>
+      <c r="K50">
+        <v>6.7398901647528708E-2</v>
+      </c>
+      <c r="L50">
+        <v>0.27358961557663503</v>
+      </c>
+      <c r="M50">
+        <v>0.1512730903644533</v>
+      </c>
+      <c r="N50">
+        <v>0.29755366949575629</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>283</v>
+      </c>
+      <c r="C51">
+        <v>244</v>
+      </c>
+      <c r="D51">
+        <v>143</v>
+      </c>
+      <c r="E51">
+        <v>424</v>
+      </c>
+      <c r="F51">
+        <v>2369</v>
+      </c>
+      <c r="G51">
+        <v>434</v>
+      </c>
+      <c r="H51">
+        <v>841</v>
+      </c>
+      <c r="I51">
+        <v>0.1194596876319122</v>
+      </c>
+      <c r="J51">
+        <v>0.10299704516673699</v>
+      </c>
+      <c r="K51">
+        <v>6.0363022372308991E-2</v>
+      </c>
+      <c r="L51">
+        <v>0.178978471929084</v>
+      </c>
+      <c r="M51">
+        <v>0.18319966230476989</v>
+      </c>
+      <c r="N51">
+        <v>0.35500211059518783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>258</v>
+      </c>
+      <c r="C52">
+        <v>199</v>
+      </c>
+      <c r="D52">
+        <v>158</v>
+      </c>
+      <c r="E52">
+        <v>512</v>
+      </c>
+      <c r="F52">
+        <v>2324</v>
+      </c>
+      <c r="G52">
+        <v>656</v>
+      </c>
+      <c r="H52">
+        <v>541</v>
+      </c>
+      <c r="I52">
+        <v>0.1110154905335628</v>
+      </c>
+      <c r="J52">
+        <v>8.5628227194492257E-2</v>
+      </c>
+      <c r="K52">
+        <v>6.7986230636833053E-2</v>
+      </c>
+      <c r="L52">
+        <v>0.22030981067125649</v>
+      </c>
+      <c r="M52">
+        <v>0.28227194492254731</v>
+      </c>
+      <c r="N52">
+        <v>0.2327882960413081</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>195</v>
+      </c>
+      <c r="C53">
+        <v>221</v>
+      </c>
+      <c r="D53">
+        <v>161</v>
+      </c>
+      <c r="E53">
+        <v>481</v>
+      </c>
+      <c r="F53">
+        <v>3034</v>
+      </c>
+      <c r="G53">
+        <v>1430</v>
+      </c>
+      <c r="H53">
+        <v>546</v>
+      </c>
+      <c r="I53">
+        <v>6.4271588661832565E-2</v>
+      </c>
+      <c r="J53">
+        <v>7.2841133816743578E-2</v>
+      </c>
+      <c r="K53">
+        <v>5.306526038233355E-2</v>
+      </c>
+      <c r="L53">
+        <v>0.15853658536585369</v>
+      </c>
+      <c r="M53">
+        <v>0.47132498352010549</v>
+      </c>
+      <c r="N53">
+        <v>0.17996044825313121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <v>696</v>
+      </c>
+      <c r="C54">
+        <v>162</v>
+      </c>
+      <c r="D54">
+        <v>160</v>
+      </c>
+      <c r="E54">
+        <v>395</v>
+      </c>
+      <c r="F54">
+        <v>2547</v>
+      </c>
+      <c r="G54">
+        <v>461</v>
+      </c>
+      <c r="H54">
+        <v>673</v>
+      </c>
+      <c r="I54">
+        <v>0.27326266195524151</v>
+      </c>
+      <c r="J54">
+        <v>6.3604240282685506E-2</v>
+      </c>
+      <c r="K54">
+        <v>6.2819002748331368E-2</v>
+      </c>
+      <c r="L54">
+        <v>0.15508441303494311</v>
+      </c>
+      <c r="M54">
+        <v>0.18099725166862979</v>
+      </c>
+      <c r="N54">
+        <v>0.26423243031016891</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <v>172</v>
+      </c>
+      <c r="C55">
+        <v>316</v>
+      </c>
+      <c r="D55">
+        <v>653</v>
+      </c>
+      <c r="E55">
+        <v>2006</v>
+      </c>
+      <c r="F55">
+        <v>4680</v>
+      </c>
+      <c r="G55">
+        <v>784</v>
+      </c>
+      <c r="H55">
+        <v>749</v>
+      </c>
+      <c r="I55">
+        <v>3.6752136752136753E-2</v>
+      </c>
+      <c r="J55">
+        <v>6.7521367521367517E-2</v>
+      </c>
+      <c r="K55">
+        <v>0.13952991452991451</v>
+      </c>
+      <c r="L55">
+        <v>0.42863247863247861</v>
+      </c>
+      <c r="M55">
+        <v>0.16752136752136751</v>
+      </c>
+      <c r="N55">
+        <v>0.160042735042735</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17220656-3589-41C1-B6F9-BA4AD71EC577}">
+  <dimension ref="A1:H56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>319</v>
+      </c>
+      <c r="C2">
+        <v>347</v>
+      </c>
+      <c r="D2">
+        <v>4622</v>
+      </c>
+      <c r="F2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2">
+        <v>6.9017741237559493E-2</v>
+      </c>
+      <c r="H2">
+        <v>7.5075724794461271E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>988</v>
+      </c>
+      <c r="C3">
+        <v>511</v>
+      </c>
+      <c r="D3">
+        <v>7977</v>
+      </c>
+      <c r="F3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3">
+        <v>0.12385608624796289</v>
+      </c>
+      <c r="H3">
+        <v>6.4059170114077968E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>1571</v>
+      </c>
+      <c r="C4">
+        <v>2608</v>
+      </c>
+      <c r="D4">
+        <v>16109</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4">
+        <v>9.7523123719659821E-2</v>
+      </c>
+      <c r="H4">
+        <v>0.16189707616860141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>1330</v>
+      </c>
+      <c r="C5">
+        <v>1369</v>
+      </c>
+      <c r="D5">
+        <v>12082</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>0.1100811123986095</v>
+      </c>
+      <c r="H5">
+        <v>0.11330905479225294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>489</v>
+      </c>
+      <c r="C6">
+        <v>552</v>
+      </c>
+      <c r="D6">
+        <v>5927</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>8.250379618694112E-2</v>
+      </c>
+      <c r="H6">
+        <v>9.3133119622068494E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7">
+        <v>531</v>
+      </c>
+      <c r="C7">
+        <v>508</v>
+      </c>
+      <c r="D7">
+        <v>5910</v>
+      </c>
+      <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7">
+        <v>8.9847715736040612E-2</v>
+      </c>
+      <c r="H7">
+        <v>8.5956006768189513E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8">
+        <v>1005</v>
+      </c>
+      <c r="C8">
+        <v>613</v>
+      </c>
+      <c r="D8">
+        <v>9341</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8">
+        <v>0.10759019376940371</v>
+      </c>
+      <c r="H8">
+        <v>6.5624665453377584E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9">
+        <v>602</v>
+      </c>
+      <c r="C9">
+        <v>489</v>
+      </c>
+      <c r="D9">
+        <v>6440</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9">
+        <v>9.3478260869565219E-2</v>
+      </c>
+      <c r="H9">
+        <v>7.5931677018633542E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>736</v>
+      </c>
+      <c r="C10">
+        <v>491</v>
+      </c>
+      <c r="D10">
+        <v>6836</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10">
+        <v>0.10766530134581627</v>
+      </c>
+      <c r="H10">
+        <v>7.1825629022820359E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11">
+        <v>354</v>
+      </c>
+      <c r="C11">
+        <v>400</v>
+      </c>
+      <c r="D11">
+        <v>5305</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11">
+        <v>6.6729500471253533E-2</v>
+      </c>
+      <c r="H11">
+        <v>7.5400565504241276E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12">
+        <v>1274</v>
+      </c>
+      <c r="C12">
+        <v>521</v>
+      </c>
+      <c r="D12">
+        <v>6718</v>
+      </c>
+      <c r="F12" t="s">
+        <v>84</v>
+      </c>
+      <c r="G12">
+        <v>0.18963977374218519</v>
+      </c>
+      <c r="H12">
+        <v>7.7552843108067884E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13">
+        <v>363</v>
+      </c>
+      <c r="C13">
+        <v>538</v>
+      </c>
+      <c r="D13">
+        <v>4935</v>
+      </c>
+      <c r="F13" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13">
+        <v>7.3556231003039513E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.10901722391084093</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14">
+        <v>277</v>
+      </c>
+      <c r="C14">
+        <v>667</v>
+      </c>
+      <c r="D14">
+        <v>4135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14">
+        <v>6.6989117291414754E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.16130592503022975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>1030</v>
+      </c>
+      <c r="C15">
+        <v>556</v>
+      </c>
+      <c r="D15">
+        <v>4707</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15">
+        <v>0.21882302953048652</v>
+      </c>
+      <c r="H15">
+        <v>0.11812194603781602</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16">
+        <v>290</v>
+      </c>
+      <c r="C16">
+        <v>373</v>
+      </c>
+      <c r="D16">
+        <v>3519</v>
+      </c>
+      <c r="F16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16">
+        <v>8.2409775504404661E-2</v>
+      </c>
+      <c r="H16">
+        <v>0.10599602159704462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B17">
+        <v>302</v>
+      </c>
+      <c r="C17">
+        <v>340</v>
+      </c>
+      <c r="D17">
+        <v>3546</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17">
+        <v>8.5166384658770439E-2</v>
+      </c>
+      <c r="H17">
+        <v>9.5882684715172029E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18">
+        <v>293</v>
+      </c>
+      <c r="C18">
+        <v>406</v>
+      </c>
+      <c r="D18">
+        <v>3963</v>
+      </c>
+      <c r="F18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18">
+        <v>7.3933888468332071E-2</v>
+      </c>
+      <c r="H18">
+        <v>0.10244764067625536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19">
+        <v>356</v>
+      </c>
+      <c r="C19">
+        <v>605</v>
+      </c>
+      <c r="D19">
+        <v>4145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19">
+        <v>8.5886610373944516E-2</v>
+      </c>
+      <c r="H19">
+        <v>0.14595898673100122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>621</v>
+      </c>
+      <c r="C20">
+        <v>443</v>
+      </c>
+      <c r="D20">
+        <v>4333</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20">
+        <v>0.14331871682437111</v>
+      </c>
+      <c r="H20">
+        <v>0.102238633741057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21">
+        <v>321</v>
+      </c>
+      <c r="C21">
+        <v>630</v>
+      </c>
+      <c r="D21">
+        <v>4228</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21">
+        <v>7.5922421948912008E-2</v>
+      </c>
+      <c r="H21">
+        <v>0.1490066225165563</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22">
+        <v>340</v>
+      </c>
+      <c r="C22">
+        <v>446</v>
+      </c>
+      <c r="D22">
+        <v>4313</v>
+      </c>
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22">
+        <v>7.883143983306283E-2</v>
+      </c>
+      <c r="H22">
+        <v>0.10340830048690007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>376</v>
+      </c>
+      <c r="C23">
+        <v>621</v>
+      </c>
+      <c r="D23">
+        <v>4124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>9.1173617846750724E-2</v>
+      </c>
+      <c r="H23">
+        <v>0.15058195926285159</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24">
+        <v>375</v>
+      </c>
+      <c r="C24">
+        <v>364</v>
+      </c>
+      <c r="D24">
+        <v>3405</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24">
+        <v>0.11013215859030837</v>
+      </c>
+      <c r="H24">
+        <v>0.10690161527165933</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25">
+        <v>371</v>
+      </c>
+      <c r="C25">
+        <v>792</v>
+      </c>
+      <c r="D25">
+        <v>5292</v>
+      </c>
+      <c r="F25" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25">
+        <v>7.0105820105820102E-2</v>
+      </c>
+      <c r="H25">
+        <v>0.14965986394557823</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26">
+        <v>934</v>
+      </c>
+      <c r="C26">
+        <v>1808</v>
+      </c>
+      <c r="D26">
+        <v>10035</v>
+      </c>
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26">
+        <v>9.3074240159441948E-2</v>
+      </c>
+      <c r="H26">
+        <v>0.18016940707523668</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27">
+        <v>371</v>
+      </c>
+      <c r="C27">
+        <v>625</v>
+      </c>
+      <c r="D27">
+        <v>3935</v>
+      </c>
+      <c r="F27" t="s">
+        <v>99</v>
+      </c>
+      <c r="G27">
+        <v>9.4282083862770011E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.15883100381194409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28">
+        <v>240</v>
+      </c>
+      <c r="C28">
+        <v>313</v>
+      </c>
+      <c r="D28">
+        <v>3491</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>6.8748209682039527E-2</v>
+      </c>
+      <c r="H28">
+        <v>8.9659123460326548E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29">
+        <v>433</v>
+      </c>
+      <c r="C29">
+        <v>845</v>
+      </c>
+      <c r="D29">
+        <v>5455</v>
+      </c>
+      <c r="F29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G29">
+        <v>7.9376718606782762E-2</v>
+      </c>
+      <c r="H29">
+        <v>0.15490375802016498</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30">
+        <v>860</v>
+      </c>
+      <c r="C30">
+        <v>813</v>
+      </c>
+      <c r="D30">
+        <v>9613</v>
+      </c>
+      <c r="F30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30">
+        <v>8.9462186622282322E-2</v>
+      </c>
+      <c r="H30">
+        <v>8.4572974097576192E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31">
+        <v>1812</v>
+      </c>
+      <c r="C31">
+        <v>563</v>
+      </c>
+      <c r="D31">
+        <v>7690</v>
+      </c>
+      <c r="F31" t="s">
+        <v>103</v>
+      </c>
+      <c r="G31">
+        <v>0.23563068920676203</v>
+      </c>
+      <c r="H31">
+        <v>7.3211963589076723E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32">
+        <v>507</v>
+      </c>
+      <c r="C32">
+        <v>446</v>
+      </c>
+      <c r="D32">
+        <v>5114</v>
+      </c>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32">
+        <v>9.9139616738365272E-2</v>
+      </c>
+      <c r="H32">
+        <v>8.7211576065701998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33">
+        <v>398</v>
+      </c>
+      <c r="C33">
+        <v>737</v>
+      </c>
+      <c r="D33">
+        <v>5104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>105</v>
+      </c>
+      <c r="G33">
+        <v>7.7978056426332293E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.14439655172413793</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34">
+        <v>2269</v>
+      </c>
+      <c r="C34">
+        <v>1039</v>
+      </c>
+      <c r="D34">
+        <v>21924</v>
+      </c>
+      <c r="F34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G34">
+        <v>0.1034938879766466</v>
+      </c>
+      <c r="H34">
+        <v>4.7390987046159461E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35">
+        <v>494</v>
+      </c>
+      <c r="C35">
+        <v>790</v>
+      </c>
+      <c r="D35">
+        <v>7997</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35">
+        <v>6.1773164936851317E-2</v>
+      </c>
+      <c r="H35">
+        <v>9.8787045141928223E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36">
+        <v>881</v>
+      </c>
+      <c r="C36">
+        <v>446</v>
+      </c>
+      <c r="D36">
+        <v>11396</v>
+      </c>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+      <c r="G36">
+        <v>7.7307827307827301E-2</v>
+      </c>
+      <c r="H36">
+        <v>3.9136539136539139E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37">
+        <v>421</v>
+      </c>
+      <c r="C37">
+        <v>364</v>
+      </c>
+      <c r="D37">
+        <v>4652</v>
+      </c>
+      <c r="F37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37">
+        <v>9.0498710232158205E-2</v>
+      </c>
+      <c r="H37">
+        <v>7.8245915735167676E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38">
+        <v>410</v>
+      </c>
+      <c r="C38">
+        <v>407</v>
+      </c>
+      <c r="D38">
+        <v>5851</v>
+      </c>
+      <c r="F38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38">
+        <v>7.0073491710818669E-2</v>
+      </c>
+      <c r="H38">
+        <v>6.956075884464194E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39">
+        <v>433</v>
+      </c>
+      <c r="C39">
+        <v>832</v>
+      </c>
+      <c r="D39">
+        <v>6064</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39">
+        <v>7.1405013192612138E-2</v>
+      </c>
+      <c r="H39">
+        <v>0.13720316622691292</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40">
+        <v>391</v>
+      </c>
+      <c r="C40">
+        <v>1303</v>
+      </c>
+      <c r="D40">
+        <v>7593</v>
+      </c>
+      <c r="F40" t="s">
+        <v>112</v>
+      </c>
+      <c r="G40">
+        <v>5.1494797840115895E-2</v>
+      </c>
+      <c r="H40">
+        <v>0.17160542605030948</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>298</v>
+      </c>
+      <c r="C41">
+        <v>905</v>
+      </c>
+      <c r="D41">
+        <v>4766</v>
+      </c>
+      <c r="F41" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41">
+        <v>6.2526227444397814E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.18988669744020142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42">
+        <v>191</v>
+      </c>
+      <c r="C42">
+        <v>560</v>
+      </c>
+      <c r="D42">
+        <v>3890</v>
+      </c>
+      <c r="F42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42">
+        <v>4.9100257069408737E-2</v>
+      </c>
+      <c r="H42">
+        <v>0.14395886889460155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43">
+        <v>380</v>
+      </c>
+      <c r="C43">
+        <v>859</v>
+      </c>
+      <c r="D43">
+        <v>5833</v>
+      </c>
+      <c r="F43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43">
+        <v>6.5146579804560262E-2</v>
+      </c>
+      <c r="H43">
+        <v>0.14726555803188754</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44">
+        <v>518</v>
+      </c>
+      <c r="C44">
+        <v>826</v>
+      </c>
+      <c r="D44">
+        <v>4335</v>
+      </c>
+      <c r="F44" t="s">
+        <v>116</v>
+      </c>
+      <c r="G44">
+        <v>0.11949250288350634</v>
+      </c>
+      <c r="H44">
+        <v>0.19054209919261822</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45">
+        <v>349</v>
+      </c>
+      <c r="C45">
+        <v>569</v>
+      </c>
+      <c r="D45">
+        <v>4284</v>
+      </c>
+      <c r="F45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G45">
+        <v>8.1465919701213821E-2</v>
+      </c>
+      <c r="H45">
+        <v>0.13281979458450047</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46">
+        <v>344</v>
+      </c>
+      <c r="C46">
+        <v>366</v>
+      </c>
+      <c r="D46">
+        <v>3679</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46">
+        <v>9.3503669475400925E-2</v>
+      </c>
+      <c r="H46">
+        <v>9.9483555313944011E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47">
+        <v>405</v>
+      </c>
+      <c r="C47">
+        <v>664</v>
+      </c>
+      <c r="D47">
+        <v>3907</v>
+      </c>
+      <c r="F47" t="s">
+        <v>119</v>
+      </c>
+      <c r="G47">
+        <v>0.10366009726132583</v>
+      </c>
+      <c r="H47">
+        <v>0.16995136933708727</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48">
+        <v>299</v>
+      </c>
+      <c r="C48">
+        <v>1465</v>
+      </c>
+      <c r="D48">
+        <v>7200</v>
+      </c>
+      <c r="F48" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48">
+        <v>4.1527777777777775E-2</v>
+      </c>
+      <c r="H48">
+        <v>0.20347222222222222</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49">
+        <v>426</v>
+      </c>
+      <c r="C49">
+        <v>721</v>
+      </c>
+      <c r="D49">
+        <v>5551</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
+      </c>
+      <c r="G49">
+        <v>7.6742929201945601E-2</v>
+      </c>
+      <c r="H49">
+        <v>0.12988650693568726</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50">
+        <v>187</v>
+      </c>
+      <c r="C50">
+        <v>571</v>
+      </c>
+      <c r="D50">
+        <v>4379</v>
+      </c>
+      <c r="F50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50">
+        <v>4.2703813656085866E-2</v>
+      </c>
+      <c r="H50">
+        <v>0.13039506736697876</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51">
+        <v>211</v>
+      </c>
+      <c r="C51">
+        <v>679</v>
+      </c>
+      <c r="D51">
+        <v>3426</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51">
+        <v>6.1587857559836541E-2</v>
+      </c>
+      <c r="H51">
+        <v>0.19819030939871571</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52">
+        <v>198</v>
+      </c>
+      <c r="C52">
+        <v>607</v>
+      </c>
+      <c r="D52">
+        <v>3741</v>
+      </c>
+      <c r="F52" t="s">
+        <v>124</v>
+      </c>
+      <c r="G52">
+        <v>5.2927024859663191E-2</v>
+      </c>
+      <c r="H52">
+        <v>0.16225608126169475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>125</v>
+      </c>
+      <c r="B53">
+        <v>201</v>
+      </c>
+      <c r="C53">
+        <v>520</v>
+      </c>
+      <c r="D53">
+        <v>3701</v>
+      </c>
+      <c r="F53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G53">
+        <v>5.4309646041610378E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.14050256687381787</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54">
+        <v>148</v>
+      </c>
+      <c r="C54">
+        <v>444</v>
+      </c>
+      <c r="D54">
+        <v>4400</v>
+      </c>
+      <c r="F54" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54">
+        <v>3.3636363636363638E-2</v>
+      </c>
+      <c r="H54">
+        <v>0.10090909090909091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>127</v>
+      </c>
+      <c r="B55">
+        <v>285</v>
+      </c>
+      <c r="C55">
+        <v>838</v>
+      </c>
+      <c r="D55">
+        <v>5655</v>
+      </c>
+      <c r="F55" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55">
+        <v>5.0397877984084884E-2</v>
+      </c>
+      <c r="H55">
+        <v>0.14818744473916887</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56">
+        <v>203</v>
+      </c>
+      <c r="C56">
+        <v>487</v>
+      </c>
+      <c r="D56">
+        <v>3482</v>
+      </c>
+      <c r="F56" t="s">
+        <v>128</v>
+      </c>
+      <c r="G56">
+        <v>5.8299827685238371E-2</v>
+      </c>
+      <c r="H56">
+        <v>0.13986214819069501</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC0175D-3D9A-42EE-A00E-453873854436}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -7268,2092 +13719,737 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8201E818-9202-4D5C-A871-271F977DA4F4}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>22725</v>
-      </c>
-      <c r="E2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2">
-        <v>0.11124312431243125</v>
-      </c>
-      <c r="G2">
-        <v>0.11559955995599559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>28853</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3">
-        <v>9.1983502582053858E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.12088864242886355</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>23580</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4">
-        <v>0.1292620865139949</v>
-      </c>
-      <c r="G4">
-        <v>6.6793893129770993E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>27013</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5">
-        <v>0.15337059934105801</v>
-      </c>
-      <c r="G5">
-        <v>9.1918705808314516E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>22532</v>
-      </c>
-      <c r="E6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6">
-        <v>0.10429611219598793</v>
-      </c>
-      <c r="G6">
-        <v>8.7431208947274991E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>57133</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7">
-        <v>0.16129032258064516</v>
-      </c>
-      <c r="G7">
-        <v>8.0881452050478711E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>84150</v>
-      </c>
-      <c r="E8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8">
-        <v>8.1568627450980397E-2</v>
-      </c>
-      <c r="G8">
-        <v>0.14587046939988116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>23982</v>
-      </c>
-      <c r="E9" t="s">
-        <v>80</v>
-      </c>
-      <c r="F9">
-        <v>7.4555916937703276E-2</v>
-      </c>
-      <c r="G9">
-        <v>7.8350429488783249E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>30489</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10">
-        <v>9.4427498442061067E-2</v>
-      </c>
-      <c r="G10">
-        <v>7.6224212010889178E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>21235</v>
-      </c>
-      <c r="E11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11">
-        <v>0.11273840357899693</v>
-      </c>
-      <c r="G11">
-        <v>6.569343065693431E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>22464</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12">
-        <v>0.11342592592592593</v>
-      </c>
-      <c r="G12">
-        <v>6.7930911680911685E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>20811</v>
-      </c>
-      <c r="E13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F13">
-        <v>0.13065205900725577</v>
-      </c>
-      <c r="G13">
-        <v>7.6594108884724427E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>28116</v>
-      </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14">
-        <v>0.1108621425522834</v>
-      </c>
-      <c r="G14">
-        <v>8.4186939820742643E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>25615</v>
-      </c>
-      <c r="E15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15">
-        <v>8.502830372828421E-2</v>
-      </c>
-      <c r="G15">
-        <v>4.239703298848331E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>17806</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16">
-        <v>8.3286532629450752E-2</v>
-      </c>
-      <c r="G16">
-        <v>4.5939570931146805E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16216</v>
-      </c>
-      <c r="E17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17">
-        <v>0.11377651702022694</v>
-      </c>
-      <c r="G17">
-        <v>7.8194375925012327E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15236</v>
-      </c>
-      <c r="E18" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18">
-        <v>0.10179837227618797</v>
-      </c>
-      <c r="G18">
-        <v>6.2746127592543971E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>17770</v>
-      </c>
-      <c r="E19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19">
-        <v>0.14243106359032076</v>
-      </c>
-      <c r="G19">
-        <v>4.7608328643781651E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>20142</v>
-      </c>
-      <c r="E20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20">
-        <v>9.5869327772813026E-2</v>
-      </c>
-      <c r="G20">
-        <v>4.6668652566775888E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>17454</v>
-      </c>
-      <c r="E21" t="s">
-        <v>92</v>
-      </c>
-      <c r="F21">
-        <v>0.12684771399106223</v>
-      </c>
-      <c r="G21">
-        <v>9.0351781826515418E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>16844</v>
-      </c>
-      <c r="E22" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22">
-        <v>0.13215388268819758</v>
-      </c>
-      <c r="G22">
-        <v>6.4236523391118502E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>48723</v>
-      </c>
-      <c r="E23" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23">
-        <v>0.12632637563368429</v>
-      </c>
-      <c r="G23">
-        <v>0.24308847977341297</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>18946</v>
-      </c>
-      <c r="E24" t="s">
-        <v>95</v>
-      </c>
-      <c r="F24">
-        <v>0.112055315106091</v>
-      </c>
-      <c r="G24">
-        <v>0.10492980048559063</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>13253</v>
-      </c>
-      <c r="E25" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25">
-        <v>0.10269372972157248</v>
-      </c>
-      <c r="G25">
-        <v>0.10495736814306195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>18323</v>
-      </c>
-      <c r="E26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26">
-        <v>0.13895104513453038</v>
-      </c>
-      <c r="G26">
-        <v>6.9148065273153966E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>23052</v>
-      </c>
-      <c r="E27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F27">
-        <v>0.10155301058476487</v>
-      </c>
-      <c r="G27">
-        <v>8.845219503730696E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>14371</v>
-      </c>
-      <c r="E28" t="s">
-        <v>99</v>
-      </c>
-      <c r="F28">
-        <v>0.11822420151694385</v>
-      </c>
-      <c r="G28">
-        <v>5.2953865423422168E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>18355</v>
-      </c>
-      <c r="E29" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29">
-        <v>9.6976300735494417E-2</v>
-      </c>
-      <c r="G29">
-        <v>5.8730591119585944E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>55509</v>
-      </c>
-      <c r="E30" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30">
-        <v>0.10605487398439893</v>
-      </c>
-      <c r="G30">
-        <v>0.17916013619413068</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>19411</v>
-      </c>
-      <c r="F31">
-        <v>9.2679408582762357E-2</v>
-      </c>
-      <c r="G31">
-        <v>0.11756220699603318</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>48161</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F32">
-        <v>8.8204148584954636E-2</v>
-      </c>
-      <c r="G32">
-        <v>0.25281867070866471</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>23924</v>
-      </c>
-      <c r="E33" t="s">
-        <v>103</v>
-      </c>
-      <c r="F33">
-        <v>8.932452767095804E-2</v>
-      </c>
-      <c r="G33">
-        <v>0.11423674970740678</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>18673</v>
-      </c>
-      <c r="E34" t="s">
-        <v>104</v>
-      </c>
-      <c r="F34">
-        <v>0.10716007069030151</v>
-      </c>
-      <c r="G34">
-        <v>8.8041557328763453E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>19354</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35">
-        <v>9.3262374702903786E-2</v>
-      </c>
-      <c r="G35">
-        <v>8.4478660741965486E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34614</v>
-      </c>
-      <c r="E36" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36">
-        <v>0.1140578956491593</v>
-      </c>
-      <c r="G36">
-        <v>7.9505402438319758E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>21109</v>
-      </c>
-      <c r="E37" t="s">
-        <v>107</v>
-      </c>
-      <c r="F37">
-        <v>0.11450092377658819</v>
-      </c>
-      <c r="G37">
-        <v>6.0590269553271119E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>20213</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38">
-        <v>0.16464651461930441</v>
-      </c>
-      <c r="G38">
-        <v>6.807500123682779E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>22944</v>
-      </c>
-      <c r="E39" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39">
-        <v>0.10120292887029289</v>
-      </c>
-      <c r="G39">
-        <v>0.10251046025104603</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>14298</v>
-      </c>
-      <c r="E40" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40">
-        <v>0.10085326619107568</v>
-      </c>
-      <c r="G40">
-        <v>6.9590152468876759E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>25671</v>
-      </c>
-      <c r="E41" t="s">
-        <v>111</v>
-      </c>
-      <c r="F41">
-        <v>9.9061197460169059E-2</v>
-      </c>
-      <c r="G41">
-        <v>4.1058003194265905E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>21504</v>
-      </c>
-      <c r="E42" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42">
-        <v>8.3193824404761904E-2</v>
-      </c>
-      <c r="G42">
-        <v>8.1008184523809521E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>17703</v>
-      </c>
-      <c r="E43" t="s">
-        <v>113</v>
-      </c>
-      <c r="F43">
-        <v>0.1345534655143196</v>
-      </c>
-      <c r="G43">
-        <v>0.10105631813816868</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>30662</v>
-      </c>
-      <c r="E44" t="s">
-        <v>114</v>
-      </c>
-      <c r="F44">
-        <v>0.12070315047942078</v>
-      </c>
-      <c r="G44">
-        <v>0.16851477398734591</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>16443</v>
-      </c>
-      <c r="E45" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45">
-        <v>0.1286869792616919</v>
-      </c>
-      <c r="G45">
-        <v>8.7575259989053092E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>16443</v>
-      </c>
-      <c r="E46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46">
-        <v>0.1286869792616919</v>
-      </c>
-      <c r="G46">
-        <v>8.7575259989053092E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>21134</v>
-      </c>
-      <c r="E47" t="s">
-        <v>117</v>
-      </c>
-      <c r="F47">
-        <v>9.2410334058862495E-2</v>
-      </c>
-      <c r="G47">
-        <v>9.983912179426517E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>20890</v>
-      </c>
-      <c r="E48" t="s">
-        <v>118</v>
-      </c>
-      <c r="F48">
-        <v>0.16065102920057445</v>
-      </c>
-      <c r="G48">
-        <v>7.9463858305409293E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>26011</v>
-      </c>
-      <c r="E49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49">
-        <v>8.223443927569106E-2</v>
-      </c>
-      <c r="G49">
-        <v>9.4613817231171432E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>15273</v>
-      </c>
-      <c r="E50" t="s">
-        <v>120</v>
-      </c>
-      <c r="F50">
-        <v>0.110063510770641</v>
-      </c>
-      <c r="G50">
-        <v>7.2742748641393309E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>16686</v>
-      </c>
-      <c r="E51" t="s">
-        <v>121</v>
-      </c>
-      <c r="F51">
-        <v>0.11302888649166966</v>
-      </c>
-      <c r="G51">
-        <v>4.9682368452594987E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>15673</v>
-      </c>
-      <c r="E52" t="s">
-        <v>122</v>
-      </c>
-      <c r="F52">
-        <v>8.0520640592101067E-2</v>
-      </c>
-      <c r="G52">
-        <v>5.6083710840298603E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>19315</v>
-      </c>
-      <c r="E53" t="s">
-        <v>123</v>
-      </c>
-      <c r="F53">
-        <v>8.4701009578048145E-2</v>
-      </c>
-      <c r="G53">
-        <v>6.4354128915350764E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>16446</v>
-      </c>
-      <c r="E54" t="s">
-        <v>124</v>
-      </c>
-      <c r="F54">
-        <v>0.12440715067493616</v>
-      </c>
-      <c r="G54">
-        <v>0.12142770278487171</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>21057</v>
-      </c>
-      <c r="E55" t="s">
-        <v>125</v>
-      </c>
-      <c r="F55">
-        <v>0.13938357790758418</v>
-      </c>
-      <c r="G55">
-        <v>4.4403286318089E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>12397</v>
-      </c>
-      <c r="E56" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56">
-        <v>0.111397918851335</v>
-      </c>
-      <c r="G56">
-        <v>6.3805759457933375E-2</v>
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <f>'Pie Charts Colombia'!I2/'Pie Charts Colombia'!G2</f>
+        <v>0.16664368450082737</v>
+      </c>
+      <c r="C2">
+        <f>'Pie Charts Colombia'!C2/'Pie Charts Colombia'!G2</f>
+        <v>0.1953254274682846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <f>'Pie Charts Colombia'!I3/'Pie Charts Colombia'!G3</f>
+        <v>0.16130832775173029</v>
+      </c>
+      <c r="C3">
+        <f>'Pie Charts Colombia'!C3/'Pie Charts Colombia'!G3</f>
+        <v>0.19987720473319937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <f>'Pie Charts Colombia'!I4/'Pie Charts Colombia'!G4</f>
+        <v>0.21550408176810248</v>
+      </c>
+      <c r="C4">
+        <f>'Pie Charts Colombia'!C4/'Pie Charts Colombia'!G4</f>
+        <v>0.13951018782770291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <f>'Pie Charts Colombia'!I5/'Pie Charts Colombia'!G5</f>
+        <v>0.21184340931615461</v>
+      </c>
+      <c r="C5">
+        <f>'Pie Charts Colombia'!C5/'Pie Charts Colombia'!G5</f>
+        <v>0.12294350842418236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <f>'Pie Charts Colombia'!I6/'Pie Charts Colombia'!G6</f>
+        <v>0.17126789366053169</v>
+      </c>
+      <c r="C6">
+        <f>'Pie Charts Colombia'!C6/'Pie Charts Colombia'!G6</f>
+        <v>0.12613204791118901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7">
+        <f>'Pie Charts Colombia'!I7/'Pie Charts Colombia'!G7</f>
+        <v>0.1683815692383373</v>
+      </c>
+      <c r="C7">
+        <f>'Pie Charts Colombia'!C7/'Pie Charts Colombia'!G7</f>
+        <v>8.3914077232106254E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f>'Pie Charts Colombia'!I8/'Pie Charts Colombia'!G8</f>
+        <v>0.11853247775577873</v>
+      </c>
+      <c r="C8">
+        <f>'Pie Charts Colombia'!C8/'Pie Charts Colombia'!G8</f>
+        <v>0.15625819994752033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <f>'Pie Charts Colombia'!I9/'Pie Charts Colombia'!G9</f>
+        <v>0.11446153846153846</v>
+      </c>
+      <c r="C9">
+        <f>'Pie Charts Colombia'!C9/'Pie Charts Colombia'!G9</f>
+        <v>0.12473372781065088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <f>'Pie Charts Colombia'!I10/'Pie Charts Colombia'!G10</f>
+        <v>0.17569420637641411</v>
+      </c>
+      <c r="C10">
+        <f>'Pie Charts Colombia'!C10/'Pie Charts Colombia'!G10</f>
+        <v>0.13347046051879785</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <f>'Pie Charts Colombia'!I11/'Pie Charts Colombia'!G11</f>
+        <v>0.1375409177051628</v>
+      </c>
+      <c r="C11">
+        <f>'Pie Charts Colombia'!C11/'Pie Charts Colombia'!G11</f>
+        <v>8.9071383449147196E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <f>'Pie Charts Colombia'!I12/'Pie Charts Colombia'!G12</f>
+        <v>0.16007359705611776</v>
+      </c>
+      <c r="C12">
+        <f>'Pie Charts Colombia'!C12/'Pie Charts Colombia'!G12</f>
+        <v>0.12858254900573207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <f>'Pie Charts Colombia'!I13/'Pie Charts Colombia'!G13</f>
+        <v>0.2243827160493827</v>
+      </c>
+      <c r="C13">
+        <f>'Pie Charts Colombia'!C13/'Pie Charts Colombia'!G13</f>
+        <v>0.10586419753086419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <f>'Pie Charts Colombia'!I14/'Pie Charts Colombia'!G14</f>
+        <v>0.17495527728085869</v>
+      </c>
+      <c r="C14">
+        <f>'Pie Charts Colombia'!C14/'Pie Charts Colombia'!G14</f>
+        <v>0.11506261180679786</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <f>'Pie Charts Colombia'!I15/'Pie Charts Colombia'!G15</f>
+        <v>0.16843907246978265</v>
+      </c>
+      <c r="C15">
+        <f>'Pie Charts Colombia'!C15/'Pie Charts Colombia'!G15</f>
+        <v>0.12258131451989418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <f>'Pie Charts Colombia'!I16/'Pie Charts Colombia'!G16</f>
+        <v>0.13790078162386346</v>
+      </c>
+      <c r="C16">
+        <f>'Pie Charts Colombia'!C16/'Pie Charts Colombia'!G16</f>
+        <v>7.5370872547455739E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <f>'Pie Charts Colombia'!I17/'Pie Charts Colombia'!G17</f>
+        <v>0.17052512704686618</v>
+      </c>
+      <c r="C17">
+        <f>'Pie Charts Colombia'!C17/'Pie Charts Colombia'!G17</f>
+        <v>0.10408432147562582</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18">
+        <f>'Pie Charts Colombia'!I18/'Pie Charts Colombia'!G18</f>
+        <v>0.16936658172551874</v>
+      </c>
+      <c r="C18">
+        <f>'Pie Charts Colombia'!C18/'Pie Charts Colombia'!G18</f>
+        <v>0.1152165999271933</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19">
+        <f>'Pie Charts Colombia'!I19/'Pie Charts Colombia'!G19</f>
+        <v>0.16083341886482602</v>
+      </c>
+      <c r="C19">
+        <f>'Pie Charts Colombia'!C19/'Pie Charts Colombia'!G19</f>
+        <v>7.6362516678641079E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <f>'Pie Charts Colombia'!I20/'Pie Charts Colombia'!G20</f>
+        <v>0.21253152794371433</v>
+      </c>
+      <c r="C20">
+        <f>'Pie Charts Colombia'!C20/'Pie Charts Colombia'!G20</f>
+        <v>7.4273197929111912E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <f>'Pie Charts Colombia'!I21/'Pie Charts Colombia'!G21</f>
+        <v>0.17936094217588569</v>
+      </c>
+      <c r="C21">
+        <f>'Pie Charts Colombia'!C21/'Pie Charts Colombia'!G21</f>
+        <v>0.10966309489332947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22">
+        <f>'Pie Charts Colombia'!I22/'Pie Charts Colombia'!G22</f>
+        <v>0.21908548707753478</v>
+      </c>
+      <c r="C22">
+        <f>'Pie Charts Colombia'!C22/'Pie Charts Colombia'!G22</f>
+        <v>0.13208747514910538</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23">
+        <f>'Pie Charts Colombia'!I23/'Pie Charts Colombia'!G23</f>
+        <v>0.13580331461443637</v>
+      </c>
+      <c r="C23">
+        <f>'Pie Charts Colombia'!C23/'Pie Charts Colombia'!G23</f>
+        <v>0.23642879970780259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24">
+        <f>'Pie Charts Colombia'!I24/'Pie Charts Colombia'!G24</f>
+        <v>0.14801587301587302</v>
+      </c>
+      <c r="C24">
+        <f>'Pie Charts Colombia'!C24/'Pie Charts Colombia'!G24</f>
+        <v>0.18690476190476191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25">
+        <f>'Pie Charts Colombia'!I25/'Pie Charts Colombia'!G25</f>
+        <v>0.15651638984093505</v>
+      </c>
+      <c r="C25">
+        <f>'Pie Charts Colombia'!C25/'Pie Charts Colombia'!G25</f>
+        <v>0.15150716231654804</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <f>'Pie Charts Colombia'!I26/'Pie Charts Colombia'!G26</f>
+        <v>0.177576466004286</v>
+      </c>
+      <c r="C26">
+        <f>'Pie Charts Colombia'!C26/'Pie Charts Colombia'!G26</f>
+        <v>0.13306058834989284</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27">
+        <f>'Pie Charts Colombia'!I27/'Pie Charts Colombia'!G27</f>
+        <v>0.13508720070942951</v>
+      </c>
+      <c r="C27">
+        <f>'Pie Charts Colombia'!C27/'Pie Charts Colombia'!G27</f>
+        <v>9.5477386934673364E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28">
+        <f>'Pie Charts Colombia'!I28/'Pie Charts Colombia'!G28</f>
+        <v>0.18700280112044818</v>
+      </c>
+      <c r="C28">
+        <f>'Pie Charts Colombia'!C28/'Pie Charts Colombia'!G28</f>
+        <v>8.8403361344537815E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29">
+        <f>'Pie Charts Colombia'!I29/'Pie Charts Colombia'!G29</f>
+        <v>0.17091186958736629</v>
+      </c>
+      <c r="C29">
+        <f>'Pie Charts Colombia'!C29/'Pie Charts Colombia'!G29</f>
+        <v>7.8451349974528781E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <f>'Pie Charts Colombia'!I30/'Pie Charts Colombia'!G30</f>
+        <v>0.13801281727809456</v>
+      </c>
+      <c r="C30">
+        <f>'Pie Charts Colombia'!C30/'Pie Charts Colombia'!G30</f>
+        <v>0.21983650401170712</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <f>'Pie Charts Colombia'!I31/'Pie Charts Colombia'!G31</f>
+        <v>0.13054853843377842</v>
+      </c>
+      <c r="C31">
+        <f>'Pie Charts Colombia'!C31/'Pie Charts Colombia'!G31</f>
+        <v>0.18910140743413931</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32">
+        <f>'Pie Charts Colombia'!I32/'Pie Charts Colombia'!G32</f>
+        <v>0.13001090809926372</v>
+      </c>
+      <c r="C32">
+        <f>'Pie Charts Colombia'!C32/'Pie Charts Colombia'!G32</f>
+        <v>0.18611944368693756</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33">
+        <f>'Pie Charts Colombia'!I33/'Pie Charts Colombia'!G33</f>
+        <v>9.7165912607477922E-2</v>
+      </c>
+      <c r="C33">
+        <f>'Pie Charts Colombia'!C33/'Pie Charts Colombia'!G33</f>
+        <v>0.23977123606949097</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34">
+        <f>'Pie Charts Colombia'!I34/'Pie Charts Colombia'!G34</f>
+        <v>0.12367737439016664</v>
+      </c>
+      <c r="C34">
+        <f>'Pie Charts Colombia'!C34/'Pie Charts Colombia'!G34</f>
+        <v>0.12969650890198314</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35">
+        <f>'Pie Charts Colombia'!I35/'Pie Charts Colombia'!G35</f>
+        <v>0.15029712776493892</v>
+      </c>
+      <c r="C35">
+        <f>'Pie Charts Colombia'!C35/'Pie Charts Colombia'!G35</f>
+        <v>0.13379002971277648</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <f>'Pie Charts Colombia'!I36/'Pie Charts Colombia'!G36</f>
+        <v>0.15504891326593262</v>
+      </c>
+      <c r="C36">
+        <f>'Pie Charts Colombia'!C36/'Pie Charts Colombia'!G36</f>
+        <v>9.0540706479472807E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37">
+        <f>'Pie Charts Colombia'!I37/'Pie Charts Colombia'!G37</f>
+        <v>0.18893652494938667</v>
+      </c>
+      <c r="C37">
+        <f>'Pie Charts Colombia'!C37/'Pie Charts Colombia'!G37</f>
+        <v>0.12945099440276289</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38">
+        <f>'Pie Charts Colombia'!I38/'Pie Charts Colombia'!G38</f>
+        <v>0.22985540696490395</v>
+      </c>
+      <c r="C38">
+        <f>'Pie Charts Colombia'!C38/'Pie Charts Colombia'!G38</f>
+        <v>0.10718892132238138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39">
+        <f>'Pie Charts Colombia'!I39/'Pie Charts Colombia'!G39</f>
+        <v>0.22942466916707946</v>
+      </c>
+      <c r="C39">
+        <f>'Pie Charts Colombia'!C39/'Pie Charts Colombia'!G39</f>
+        <v>0.15271389144434222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40">
+        <f>'Pie Charts Colombia'!I40/'Pie Charts Colombia'!G40</f>
+        <v>0.16899690344374591</v>
+      </c>
+      <c r="C40">
+        <f>'Pie Charts Colombia'!C40/'Pie Charts Colombia'!G40</f>
+        <v>0.12789715679834851</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41">
+        <f>'Pie Charts Colombia'!I41/'Pie Charts Colombia'!G41</f>
+        <v>0.10550482381468297</v>
+      </c>
+      <c r="C41">
+        <f>'Pie Charts Colombia'!C41/'Pie Charts Colombia'!G41</f>
+        <v>6.1858329463963267E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42">
+        <f>'Pie Charts Colombia'!I42/'Pie Charts Colombia'!G42</f>
+        <v>0.14353726994954877</v>
+      </c>
+      <c r="C42">
+        <f>'Pie Charts Colombia'!C42/'Pie Charts Colombia'!G42</f>
+        <v>7.8590208200099487E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43">
+        <f>'Pie Charts Colombia'!I43/'Pie Charts Colombia'!G43</f>
+        <v>0.1662598507566776</v>
+      </c>
+      <c r="C43">
+        <f>'Pie Charts Colombia'!C43/'Pie Charts Colombia'!G43</f>
+        <v>0.14910384266685264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44">
+        <f>'Pie Charts Colombia'!I44/'Pie Charts Colombia'!G44</f>
+        <v>0.15885349497033788</v>
+      </c>
+      <c r="C44">
+        <f>'Pie Charts Colombia'!C44/'Pie Charts Colombia'!G44</f>
+        <v>0.18425973690998196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45">
+        <f>'Pie Charts Colombia'!I45/'Pie Charts Colombia'!G45</f>
+        <v>0.13023147065700258</v>
+      </c>
+      <c r="C45">
+        <f>'Pie Charts Colombia'!C45/'Pie Charts Colombia'!G45</f>
+        <v>0.10279791130854961</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46">
+        <f>'Pie Charts Colombia'!I46/'Pie Charts Colombia'!G46</f>
+        <v>0.15897398739221796</v>
+      </c>
+      <c r="C46">
+        <f>'Pie Charts Colombia'!C46/'Pie Charts Colombia'!G46</f>
+        <v>0.13564234475762627</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <f>'Pie Charts Colombia'!I47/'Pie Charts Colombia'!G47</f>
+        <v>0.26172442812332647</v>
+      </c>
+      <c r="C47">
+        <f>'Pie Charts Colombia'!C47/'Pie Charts Colombia'!G47</f>
+        <v>0.14964425063116824</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>62</v>
+      </c>
+      <c r="B48">
+        <f>'Pie Charts Colombia'!I48/'Pie Charts Colombia'!G48</f>
+        <v>0.11614173228346457</v>
+      </c>
+      <c r="C48">
+        <f>'Pie Charts Colombia'!C48/'Pie Charts Colombia'!G48</f>
+        <v>0.16200255373483721</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49">
+        <f>'Pie Charts Colombia'!I49/'Pie Charts Colombia'!G49</f>
+        <v>0.16759963238365777</v>
+      </c>
+      <c r="C49">
+        <f>'Pie Charts Colombia'!C49/'Pie Charts Colombia'!G49</f>
+        <v>0.10635809173698722</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <f>'Pie Charts Colombia'!I50/'Pie Charts Colombia'!G50</f>
+        <v>0.17732640529050545</v>
+      </c>
+      <c r="C50">
+        <f>'Pie Charts Colombia'!C50/'Pie Charts Colombia'!G50</f>
+        <v>8.0018894662257908E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <f>'Pie Charts Colombia'!I51/'Pie Charts Colombia'!G51</f>
+        <v>0.14425126191811555</v>
+      </c>
+      <c r="C51">
+        <f>'Pie Charts Colombia'!C51/'Pie Charts Colombia'!G51</f>
+        <v>0.10790802019068985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <f>'Pie Charts Colombia'!I52/'Pie Charts Colombia'!G52</f>
+        <v>0.14931469547063628</v>
+      </c>
+      <c r="C52">
+        <f>'Pie Charts Colombia'!C52/'Pie Charts Colombia'!G52</f>
+        <v>8.868112916401924E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <f>'Pie Charts Colombia'!I53/'Pie Charts Colombia'!G53</f>
+        <v>0.17193867649912672</v>
+      </c>
+      <c r="C53">
+        <f>'Pie Charts Colombia'!C53/'Pie Charts Colombia'!G53</f>
+        <v>0.21928973413545508</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54">
+        <f>'Pie Charts Colombia'!I54/'Pie Charts Colombia'!G54</f>
+        <v>0.22743043262762869</v>
+      </c>
+      <c r="C54">
+        <f>'Pie Charts Colombia'!C54/'Pie Charts Colombia'!G54</f>
+        <v>7.5338100970048852E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55">
+        <f>'Pie Charts Colombia'!I55/'Pie Charts Colombia'!G55</f>
+        <v>0.1877387318563789</v>
+      </c>
+      <c r="C55">
+        <f>'Pie Charts Colombia'!C55/'Pie Charts Colombia'!G55</f>
+        <v>0.10103132161955691</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17220656-3589-41C1-B6F9-BA4AD71EC577}">
-  <dimension ref="A1:H56"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B2">
-        <v>319</v>
-      </c>
-      <c r="C2">
-        <v>347</v>
-      </c>
-      <c r="D2">
-        <v>4622</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2">
-        <v>6.9017741237559493E-2</v>
-      </c>
-      <c r="H2">
-        <v>7.5075724794461271E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3">
-        <v>988</v>
-      </c>
-      <c r="C3">
-        <v>511</v>
-      </c>
-      <c r="D3">
-        <v>7977</v>
-      </c>
-      <c r="F3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3">
-        <v>0.12385608624796289</v>
-      </c>
-      <c r="H3">
-        <v>6.4059170114077968E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4">
-        <v>1571</v>
-      </c>
-      <c r="C4">
-        <v>2608</v>
-      </c>
-      <c r="D4">
-        <v>16109</v>
-      </c>
-      <c r="F4" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4">
-        <v>9.7523123719659821E-2</v>
-      </c>
-      <c r="H4">
-        <v>0.16189707616860141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5">
-        <v>1330</v>
-      </c>
-      <c r="C5">
-        <v>1369</v>
-      </c>
-      <c r="D5">
-        <v>12082</v>
-      </c>
-      <c r="F5" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5">
-        <v>0.1100811123986095</v>
-      </c>
-      <c r="H5">
-        <v>0.11330905479225294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6">
-        <v>489</v>
-      </c>
-      <c r="C6">
-        <v>552</v>
-      </c>
-      <c r="D6">
-        <v>5927</v>
-      </c>
-      <c r="F6" t="s">
-        <v>135</v>
-      </c>
-      <c r="G6">
-        <v>8.250379618694112E-2</v>
-      </c>
-      <c r="H6">
-        <v>9.3133119622068494E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7">
-        <v>531</v>
-      </c>
-      <c r="C7">
-        <v>508</v>
-      </c>
-      <c r="D7">
-        <v>5910</v>
-      </c>
-      <c r="F7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7">
-        <v>8.9847715736040612E-2</v>
-      </c>
-      <c r="H7">
-        <v>8.5956006768189513E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8">
-        <v>1005</v>
-      </c>
-      <c r="C8">
-        <v>613</v>
-      </c>
-      <c r="D8">
-        <v>9341</v>
-      </c>
-      <c r="F8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8">
-        <v>0.10759019376940371</v>
-      </c>
-      <c r="H8">
-        <v>6.5624665453377584E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9">
-        <v>602</v>
-      </c>
-      <c r="C9">
-        <v>489</v>
-      </c>
-      <c r="D9">
-        <v>6440</v>
-      </c>
-      <c r="F9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G9">
-        <v>9.3478260869565219E-2</v>
-      </c>
-      <c r="H9">
-        <v>7.5931677018633542E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10">
-        <v>736</v>
-      </c>
-      <c r="C10">
-        <v>491</v>
-      </c>
-      <c r="D10">
-        <v>6836</v>
-      </c>
-      <c r="F10" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10">
-        <v>0.10766530134581627</v>
-      </c>
-      <c r="H10">
-        <v>7.1825629022820359E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11">
-        <v>354</v>
-      </c>
-      <c r="C11">
-        <v>400</v>
-      </c>
-      <c r="D11">
-        <v>5305</v>
-      </c>
-      <c r="F11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G11">
-        <v>6.6729500471253533E-2</v>
-      </c>
-      <c r="H11">
-        <v>7.5400565504241276E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12">
-        <v>1274</v>
-      </c>
-      <c r="C12">
-        <v>521</v>
-      </c>
-      <c r="D12">
-        <v>6718</v>
-      </c>
-      <c r="F12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G12">
-        <v>0.18963977374218519</v>
-      </c>
-      <c r="H12">
-        <v>7.7552843108067884E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13">
-        <v>363</v>
-      </c>
-      <c r="C13">
-        <v>538</v>
-      </c>
-      <c r="D13">
-        <v>4935</v>
-      </c>
-      <c r="F13" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13">
-        <v>7.3556231003039513E-2</v>
-      </c>
-      <c r="H13">
-        <v>0.10901722391084093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B14">
-        <v>277</v>
-      </c>
-      <c r="C14">
-        <v>667</v>
-      </c>
-      <c r="D14">
-        <v>4135</v>
-      </c>
-      <c r="F14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14">
-        <v>6.6989117291414754E-2</v>
-      </c>
-      <c r="H14">
-        <v>0.16130592503022975</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15">
-        <v>1030</v>
-      </c>
-      <c r="C15">
-        <v>556</v>
-      </c>
-      <c r="D15">
-        <v>4707</v>
-      </c>
-      <c r="F15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15">
-        <v>0.21882302953048652</v>
-      </c>
-      <c r="H15">
-        <v>0.11812194603781602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16">
-        <v>290</v>
-      </c>
-      <c r="C16">
-        <v>373</v>
-      </c>
-      <c r="D16">
-        <v>3519</v>
-      </c>
-      <c r="F16" t="s">
-        <v>145</v>
-      </c>
-      <c r="G16">
-        <v>8.2409775504404661E-2</v>
-      </c>
-      <c r="H16">
-        <v>0.10599602159704462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>146</v>
-      </c>
-      <c r="B17">
-        <v>302</v>
-      </c>
-      <c r="C17">
-        <v>340</v>
-      </c>
-      <c r="D17">
-        <v>3546</v>
-      </c>
-      <c r="F17" t="s">
-        <v>146</v>
-      </c>
-      <c r="G17">
-        <v>8.5166384658770439E-2</v>
-      </c>
-      <c r="H17">
-        <v>9.5882684715172029E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B18">
-        <v>293</v>
-      </c>
-      <c r="C18">
-        <v>406</v>
-      </c>
-      <c r="D18">
-        <v>3963</v>
-      </c>
-      <c r="F18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18">
-        <v>7.3933888468332071E-2</v>
-      </c>
-      <c r="H18">
-        <v>0.10244764067625536</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19">
-        <v>356</v>
-      </c>
-      <c r="C19">
-        <v>605</v>
-      </c>
-      <c r="D19">
-        <v>4145</v>
-      </c>
-      <c r="F19" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19">
-        <v>8.5886610373944516E-2</v>
-      </c>
-      <c r="H19">
-        <v>0.14595898673100122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20">
-        <v>621</v>
-      </c>
-      <c r="C20">
-        <v>443</v>
-      </c>
-      <c r="D20">
-        <v>4333</v>
-      </c>
-      <c r="F20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20">
-        <v>0.14331871682437111</v>
-      </c>
-      <c r="H20">
-        <v>0.102238633741057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B21">
-        <v>321</v>
-      </c>
-      <c r="C21">
-        <v>630</v>
-      </c>
-      <c r="D21">
-        <v>4228</v>
-      </c>
-      <c r="F21" t="s">
-        <v>150</v>
-      </c>
-      <c r="G21">
-        <v>7.5922421948912008E-2</v>
-      </c>
-      <c r="H21">
-        <v>0.1490066225165563</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>151</v>
-      </c>
-      <c r="B22">
-        <v>340</v>
-      </c>
-      <c r="C22">
-        <v>446</v>
-      </c>
-      <c r="D22">
-        <v>4313</v>
-      </c>
-      <c r="F22" t="s">
-        <v>151</v>
-      </c>
-      <c r="G22">
-        <v>7.883143983306283E-2</v>
-      </c>
-      <c r="H22">
-        <v>0.10340830048690007</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>152</v>
-      </c>
-      <c r="B23">
-        <v>376</v>
-      </c>
-      <c r="C23">
-        <v>621</v>
-      </c>
-      <c r="D23">
-        <v>4124</v>
-      </c>
-      <c r="F23" t="s">
-        <v>152</v>
-      </c>
-      <c r="G23">
-        <v>9.1173617846750724E-2</v>
-      </c>
-      <c r="H23">
-        <v>0.15058195926285159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>153</v>
-      </c>
-      <c r="B24">
-        <v>375</v>
-      </c>
-      <c r="C24">
-        <v>364</v>
-      </c>
-      <c r="D24">
-        <v>3405</v>
-      </c>
-      <c r="F24" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24">
-        <v>0.11013215859030837</v>
-      </c>
-      <c r="H24">
-        <v>0.10690161527165933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25">
-        <v>371</v>
-      </c>
-      <c r="C25">
-        <v>792</v>
-      </c>
-      <c r="D25">
-        <v>5292</v>
-      </c>
-      <c r="F25" t="s">
-        <v>154</v>
-      </c>
-      <c r="G25">
-        <v>7.0105820105820102E-2</v>
-      </c>
-      <c r="H25">
-        <v>0.14965986394557823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26">
-        <v>934</v>
-      </c>
-      <c r="C26">
-        <v>1808</v>
-      </c>
-      <c r="D26">
-        <v>10035</v>
-      </c>
-      <c r="F26" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26">
-        <v>9.3074240159441948E-2</v>
-      </c>
-      <c r="H26">
-        <v>0.18016940707523668</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B27">
-        <v>371</v>
-      </c>
-      <c r="C27">
-        <v>625</v>
-      </c>
-      <c r="D27">
-        <v>3935</v>
-      </c>
-      <c r="F27" t="s">
-        <v>156</v>
-      </c>
-      <c r="G27">
-        <v>9.4282083862770011E-2</v>
-      </c>
-      <c r="H27">
-        <v>0.15883100381194409</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>157</v>
-      </c>
-      <c r="B28">
-        <v>240</v>
-      </c>
-      <c r="C28">
-        <v>313</v>
-      </c>
-      <c r="D28">
-        <v>3491</v>
-      </c>
-      <c r="F28" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28">
-        <v>6.8748209682039527E-2</v>
-      </c>
-      <c r="H28">
-        <v>8.9659123460326548E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29">
-        <v>433</v>
-      </c>
-      <c r="C29">
-        <v>845</v>
-      </c>
-      <c r="D29">
-        <v>5455</v>
-      </c>
-      <c r="F29" t="s">
-        <v>158</v>
-      </c>
-      <c r="G29">
-        <v>7.9376718606782762E-2</v>
-      </c>
-      <c r="H29">
-        <v>0.15490375802016498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>159</v>
-      </c>
-      <c r="B30">
-        <v>860</v>
-      </c>
-      <c r="C30">
-        <v>813</v>
-      </c>
-      <c r="D30">
-        <v>9613</v>
-      </c>
-      <c r="F30" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30">
-        <v>8.9462186622282322E-2</v>
-      </c>
-      <c r="H30">
-        <v>8.4572974097576192E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>160</v>
-      </c>
-      <c r="B31">
-        <v>1812</v>
-      </c>
-      <c r="C31">
-        <v>563</v>
-      </c>
-      <c r="D31">
-        <v>7690</v>
-      </c>
-      <c r="F31" t="s">
-        <v>160</v>
-      </c>
-      <c r="G31">
-        <v>0.23563068920676203</v>
-      </c>
-      <c r="H31">
-        <v>7.3211963589076723E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>161</v>
-      </c>
-      <c r="B32">
-        <v>507</v>
-      </c>
-      <c r="C32">
-        <v>446</v>
-      </c>
-      <c r="D32">
-        <v>5114</v>
-      </c>
-      <c r="F32" t="s">
-        <v>161</v>
-      </c>
-      <c r="G32">
-        <v>9.9139616738365272E-2</v>
-      </c>
-      <c r="H32">
-        <v>8.7211576065701998E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33">
-        <v>398</v>
-      </c>
-      <c r="C33">
-        <v>737</v>
-      </c>
-      <c r="D33">
-        <v>5104</v>
-      </c>
-      <c r="F33" t="s">
-        <v>162</v>
-      </c>
-      <c r="G33">
-        <v>7.7978056426332293E-2</v>
-      </c>
-      <c r="H33">
-        <v>0.14439655172413793</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B34">
-        <v>2269</v>
-      </c>
-      <c r="C34">
-        <v>1039</v>
-      </c>
-      <c r="D34">
-        <v>21924</v>
-      </c>
-      <c r="F34" t="s">
-        <v>163</v>
-      </c>
-      <c r="G34">
-        <v>0.1034938879766466</v>
-      </c>
-      <c r="H34">
-        <v>4.7390987046159461E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>164</v>
-      </c>
-      <c r="B35">
-        <v>494</v>
-      </c>
-      <c r="C35">
-        <v>790</v>
-      </c>
-      <c r="D35">
-        <v>7997</v>
-      </c>
-      <c r="F35" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35">
-        <v>6.1773164936851317E-2</v>
-      </c>
-      <c r="H35">
-        <v>9.8787045141928223E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36">
-        <v>881</v>
-      </c>
-      <c r="C36">
-        <v>446</v>
-      </c>
-      <c r="D36">
-        <v>11396</v>
-      </c>
-      <c r="F36" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36">
-        <v>7.7307827307827301E-2</v>
-      </c>
-      <c r="H36">
-        <v>3.9136539136539139E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37">
-        <v>421</v>
-      </c>
-      <c r="C37">
-        <v>364</v>
-      </c>
-      <c r="D37">
-        <v>4652</v>
-      </c>
-      <c r="F37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G37">
-        <v>9.0498710232158205E-2</v>
-      </c>
-      <c r="H37">
-        <v>7.8245915735167676E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>167</v>
-      </c>
-      <c r="B38">
-        <v>410</v>
-      </c>
-      <c r="C38">
-        <v>407</v>
-      </c>
-      <c r="D38">
-        <v>5851</v>
-      </c>
-      <c r="F38" t="s">
-        <v>167</v>
-      </c>
-      <c r="G38">
-        <v>7.0073491710818669E-2</v>
-      </c>
-      <c r="H38">
-        <v>6.956075884464194E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39">
-        <v>433</v>
-      </c>
-      <c r="C39">
-        <v>832</v>
-      </c>
-      <c r="D39">
-        <v>6064</v>
-      </c>
-      <c r="F39" t="s">
-        <v>168</v>
-      </c>
-      <c r="G39">
-        <v>7.1405013192612138E-2</v>
-      </c>
-      <c r="H39">
-        <v>0.13720316622691292</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40">
-        <v>391</v>
-      </c>
-      <c r="C40">
-        <v>1303</v>
-      </c>
-      <c r="D40">
-        <v>7593</v>
-      </c>
-      <c r="F40" t="s">
-        <v>169</v>
-      </c>
-      <c r="G40">
-        <v>5.1494797840115895E-2</v>
-      </c>
-      <c r="H40">
-        <v>0.17160542605030948</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>170</v>
-      </c>
-      <c r="B41">
-        <v>298</v>
-      </c>
-      <c r="C41">
-        <v>905</v>
-      </c>
-      <c r="D41">
-        <v>4766</v>
-      </c>
-      <c r="F41" t="s">
-        <v>170</v>
-      </c>
-      <c r="G41">
-        <v>6.2526227444397814E-2</v>
-      </c>
-      <c r="H41">
-        <v>0.18988669744020142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42">
-        <v>191</v>
-      </c>
-      <c r="C42">
-        <v>560</v>
-      </c>
-      <c r="D42">
-        <v>3890</v>
-      </c>
-      <c r="F42" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42">
-        <v>4.9100257069408737E-2</v>
-      </c>
-      <c r="H42">
-        <v>0.14395886889460155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43">
-        <v>380</v>
-      </c>
-      <c r="C43">
-        <v>859</v>
-      </c>
-      <c r="D43">
-        <v>5833</v>
-      </c>
-      <c r="F43" t="s">
-        <v>172</v>
-      </c>
-      <c r="G43">
-        <v>6.5146579804560262E-2</v>
-      </c>
-      <c r="H43">
-        <v>0.14726555803188754</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44">
-        <v>518</v>
-      </c>
-      <c r="C44">
-        <v>826</v>
-      </c>
-      <c r="D44">
-        <v>4335</v>
-      </c>
-      <c r="F44" t="s">
-        <v>173</v>
-      </c>
-      <c r="G44">
-        <v>0.11949250288350634</v>
-      </c>
-      <c r="H44">
-        <v>0.19054209919261822</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45">
-        <v>349</v>
-      </c>
-      <c r="C45">
-        <v>569</v>
-      </c>
-      <c r="D45">
-        <v>4284</v>
-      </c>
-      <c r="F45" t="s">
-        <v>174</v>
-      </c>
-      <c r="G45">
-        <v>8.1465919701213821E-2</v>
-      </c>
-      <c r="H45">
-        <v>0.13281979458450047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>175</v>
-      </c>
-      <c r="B46">
-        <v>344</v>
-      </c>
-      <c r="C46">
-        <v>366</v>
-      </c>
-      <c r="D46">
-        <v>3679</v>
-      </c>
-      <c r="F46" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46">
-        <v>9.3503669475400925E-2</v>
-      </c>
-      <c r="H46">
-        <v>9.9483555313944011E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>176</v>
-      </c>
-      <c r="B47">
-        <v>405</v>
-      </c>
-      <c r="C47">
-        <v>664</v>
-      </c>
-      <c r="D47">
-        <v>3907</v>
-      </c>
-      <c r="F47" t="s">
-        <v>176</v>
-      </c>
-      <c r="G47">
-        <v>0.10366009726132583</v>
-      </c>
-      <c r="H47">
-        <v>0.16995136933708727</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48">
-        <v>299</v>
-      </c>
-      <c r="C48">
-        <v>1465</v>
-      </c>
-      <c r="D48">
-        <v>7200</v>
-      </c>
-      <c r="F48" t="s">
-        <v>177</v>
-      </c>
-      <c r="G48">
-        <v>4.1527777777777775E-2</v>
-      </c>
-      <c r="H48">
-        <v>0.20347222222222222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>178</v>
-      </c>
-      <c r="B49">
-        <v>426</v>
-      </c>
-      <c r="C49">
-        <v>721</v>
-      </c>
-      <c r="D49">
-        <v>5551</v>
-      </c>
-      <c r="F49" t="s">
-        <v>178</v>
-      </c>
-      <c r="G49">
-        <v>7.6742929201945601E-2</v>
-      </c>
-      <c r="H49">
-        <v>0.12988650693568726</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>179</v>
-      </c>
-      <c r="B50">
-        <v>187</v>
-      </c>
-      <c r="C50">
-        <v>571</v>
-      </c>
-      <c r="D50">
-        <v>4379</v>
-      </c>
-      <c r="F50" t="s">
-        <v>179</v>
-      </c>
-      <c r="G50">
-        <v>4.2703813656085866E-2</v>
-      </c>
-      <c r="H50">
-        <v>0.13039506736697876</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>180</v>
-      </c>
-      <c r="B51">
-        <v>211</v>
-      </c>
-      <c r="C51">
-        <v>679</v>
-      </c>
-      <c r="D51">
-        <v>3426</v>
-      </c>
-      <c r="F51" t="s">
-        <v>180</v>
-      </c>
-      <c r="G51">
-        <v>6.1587857559836541E-2</v>
-      </c>
-      <c r="H51">
-        <v>0.19819030939871571</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52">
-        <v>198</v>
-      </c>
-      <c r="C52">
-        <v>607</v>
-      </c>
-      <c r="D52">
-        <v>3741</v>
-      </c>
-      <c r="F52" t="s">
-        <v>181</v>
-      </c>
-      <c r="G52">
-        <v>5.2927024859663191E-2</v>
-      </c>
-      <c r="H52">
-        <v>0.16225608126169475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>182</v>
-      </c>
-      <c r="B53">
-        <v>201</v>
-      </c>
-      <c r="C53">
-        <v>520</v>
-      </c>
-      <c r="D53">
-        <v>3701</v>
-      </c>
-      <c r="F53" t="s">
-        <v>182</v>
-      </c>
-      <c r="G53">
-        <v>5.4309646041610378E-2</v>
-      </c>
-      <c r="H53">
-        <v>0.14050256687381787</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>183</v>
-      </c>
-      <c r="B54">
-        <v>148</v>
-      </c>
-      <c r="C54">
-        <v>444</v>
-      </c>
-      <c r="D54">
-        <v>4400</v>
-      </c>
-      <c r="F54" t="s">
-        <v>183</v>
-      </c>
-      <c r="G54">
-        <v>3.3636363636363638E-2</v>
-      </c>
-      <c r="H54">
-        <v>0.10090909090909091</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>184</v>
-      </c>
-      <c r="B55">
-        <v>285</v>
-      </c>
-      <c r="C55">
-        <v>838</v>
-      </c>
-      <c r="D55">
-        <v>5655</v>
-      </c>
-      <c r="F55" t="s">
-        <v>184</v>
-      </c>
-      <c r="G55">
-        <v>5.0397877984084884E-2</v>
-      </c>
-      <c r="H55">
-        <v>0.14818744473916887</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>185</v>
-      </c>
-      <c r="B56">
-        <v>203</v>
-      </c>
-      <c r="C56">
-        <v>487</v>
-      </c>
-      <c r="D56">
-        <v>3482</v>
-      </c>
-      <c r="F56" t="s">
-        <v>185</v>
-      </c>
-      <c r="G56">
-        <v>5.8299827685238371E-2</v>
-      </c>
-      <c r="H56">
-        <v>0.13986214819069501</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>